--- a/Data/model_outputs_baseline/energy/total_energy_use.xlsx
+++ b/Data/model_outputs_baseline/energy/total_energy_use.xlsx
@@ -448,7 +448,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>3796168299.220205</v>
+        <v>3922058770.551752</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>3800601518.681439</v>
+        <v>3926638938.181957</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>3805094408.397325</v>
+        <v>3931280684.14063</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +472,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>3809647745.616102</v>
+        <v>3935984809.154874</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>3814262315.974549</v>
+        <v>3940752122.541918</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>3818938913.470265</v>
+        <v>3945583442.176943</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +496,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>3823678340.426072</v>
+        <v>3950479594.452613</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>3828481407.44622</v>
+        <v>3955441414.22995</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +512,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>3833348933.364131</v>
+        <v>3960469744.780259</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>3838281745.181275</v>
+        <v>3965565437.717735</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +528,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>3843280677.99698</v>
+        <v>3970729352.922478</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +536,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>3848346574.928839</v>
+        <v>3975962358.45358</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>3853480287.023413</v>
+        <v>3981265330.452014</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +552,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>3858682673.157057</v>
+        <v>3986639153.033054</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +560,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>3863954599.926503</v>
+        <v>3992084718.167948</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +568,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>3869296941.529106</v>
+        <v>3997602925.554621</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +576,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>3874710579.632449</v>
+        <v>4003194682.477228</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +584,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>3880196403.233191</v>
+        <v>4008860903.654305</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +592,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>3885755308.505007</v>
+        <v>4014602511.075434</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>3891388198.635448</v>
+        <v>4020420433.82625</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +608,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>3897095983.651741</v>
+        <v>4026315607.901725</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +616,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>3902879580.235374</v>
+        <v>4032288976.00768</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>3908739911.525521</v>
+        <v>4038341487.3505</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +632,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>3914677906.911351</v>
+        <v>4044474097.415112</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +640,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>3920694501.813256</v>
+        <v>4050687767.731312</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>3926790637.453162</v>
+        <v>4056983465.628531</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +656,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>3932967260.61412</v>
+        <v>4063362163.979313</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +664,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>3939225323.389355</v>
+        <v>4069824840.931675</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +672,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>3945565782.921157</v>
+        <v>4076372479.630723</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +680,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>3951989601.129882</v>
+        <v>4083006067.929844</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +688,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>3958497744.43356</v>
+        <v>4089726598.09197</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +696,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>3965091183.458554</v>
+        <v>4096535066.4814</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +704,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>3971770892.74185</v>
+        <v>4103432473.246754</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +712,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>3978537850.425611</v>
+        <v>4110419821.995768</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +720,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>3985393037.944696</v>
+        <v>4117498119.462649</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +728,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>3992337439.707966</v>
+        <v>4124668375.168805</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>3999372042.774168</v>
+        <v>4131931601.077878</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +744,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>4006497836.523451</v>
+        <v>4139288811.246101</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +752,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>4013715812.32547</v>
+        <v>4146741021.469021</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +760,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>4021026963.205257</v>
+        <v>4154289248.925795</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +768,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>4028432283.507991</v>
+        <v>4161934511.822329</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +776,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>4035932768.564081</v>
+        <v>4169677829.034616</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +784,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>4043529414.355837</v>
+        <v>4177520219.753731</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +792,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>4051223217.187284</v>
+        <v>4185462703.134046</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +800,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>4059015173.358637</v>
+        <v>4193506297.946278</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +808,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>4066906278.847132</v>
+        <v>4201652022.237165</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +816,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>4074897528.99592</v>
+        <v>4209900892.99754</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +824,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>4082989918.212905</v>
+        <v>4218253925.840782</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +832,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>4091184439.681381</v>
+        <v>4226712134.693602</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +840,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>4099482085.084527</v>
+        <v>4235276531.501327</v>
       </c>
     </row>
     <row r="52">
@@ -848,7 +848,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>4107883844.345808</v>
+        <v>4243948125.949816</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +856,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>4116390705.387456</v>
+        <v>4252727925.206301</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +864,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>4125003653.909233</v>
+        <v>4261616933.68149</v>
       </c>
     </row>
     <row r="55">
@@ -872,7 +872,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>4133723673.18985</v>
+        <v>4270616152.81535</v>
       </c>
     </row>
     <row r="56">
@@ -880,7 +880,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>4142551743.913305</v>
+        <v>4279726580.889063</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +888,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>4151488844.02265</v>
+        <v>4288949212.865661</v>
       </c>
     </row>
     <row r="58">
@@ -896,7 +896,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>4160535948.603645</v>
+        <v>4298285040.262035</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +904,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>4169694029.800792</v>
+        <v>4307735051.054853</v>
       </c>
     </row>
     <row r="60">
@@ -912,7 +912,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>4178964056.768346</v>
+        <v>4317300229.62317</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>4188346995.658897</v>
+        <v>4326981556.730412</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +928,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>4197843809.652141</v>
+        <v>4336780009.548512</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +936,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>4207455459.026448</v>
+        <v>4346696561.726954</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +944,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>4217182901.275945</v>
+        <v>4356732183.509462</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +952,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>4227027091.275627</v>
+        <v>4366887841.901216</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +960,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>4236988981.497286</v>
+        <v>4377164500.889189</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +968,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>4247069522.278684</v>
+        <v>4387563121.718515</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +976,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>4257269662.148667</v>
+        <v>4398084663.227394</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +984,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>4267590348.210668</v>
+        <v>4408730082.243337</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +992,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>4278032526.587074</v>
+        <v>4419500334.043244</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +1000,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>4288597142.926836</v>
+        <v>4430396372.879825</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1008,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>4299285142.978653</v>
+        <v>4441419152.576808</v>
       </c>
     </row>
     <row r="73">
@@ -1016,7 +1016,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>4310097473.231879</v>
+        <v>4452569627.195244</v>
       </c>
     </row>
     <row r="74">
@@ -1024,7 +1024,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>4321035081.627303</v>
+        <v>4463848751.773077</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1032,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>4332098918.339743</v>
+        <v>4475257483.140097</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1040,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>4343289936.634306</v>
+        <v>4486796780.810164</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1048,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>4354609093.797976</v>
+        <v>4498467607.952492</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1056,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>4366057352.148106</v>
+        <v>4510270932.443622</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1064,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>4377635680.119102</v>
+        <v>4522207728.00141</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1072,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>4389345053.428521</v>
+        <v>4534278975.402403</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1080,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>4401186456.32351</v>
+        <v>4546485663.783437</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1088,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>4413160882.908325</v>
+        <v>4558828792.028397</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1096,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>4425269338.553509</v>
+        <v>4571309370.240572</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1104,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>4437512841.386971</v>
+        <v>4583928421.301009</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1112,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>4449892423.867013</v>
+        <v>4596686982.512836</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1120,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>4462409134.43716</v>
+        <v>4609586107.331373</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1128,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>4475064039.262183</v>
+        <v>4622626867.179482</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1136,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>4487858224.044711</v>
+        <v>4635810353.347436</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1144,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>4500792795.921303</v>
+        <v>4649137678.976168</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1152,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>4513868885.436669</v>
+        <v>4662609981.122483</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1160,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>4527087648.594464</v>
+        <v>4676228422.904608</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1168,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>4540450268.982673</v>
+        <v>4689994195.726005</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1176,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>4553957959.971438</v>
+        <v>4703908521.575109</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1184,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>4567611966.980705</v>
+        <v>4717972655.398378</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1192,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>4581413569.814965</v>
+        <v>4732187887.5436</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1200,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>4595364085.061835</v>
+        <v>4746555546.270261</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1208,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>4609464868.551116</v>
+        <v>4761077000.323194</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1216,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>4623717317.870506</v>
+        <v>4775753661.565739</v>
       </c>
     </row>
     <row r="99">
@@ -1224,7 +1224,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>4638122874.933974</v>
+        <v>4790586987.66797</v>
       </c>
     </row>
     <row r="100">
@@ -1232,7 +1232,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>4652683028.598384</v>
+        <v>4805578484.845595</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1240,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>4667399317.323769</v>
+        <v>4820729710.644517</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1248,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>4682273331.872343</v>
+        <v>4836042276.765928</v>
       </c>
     </row>
     <row r="103">
@@ -1256,7 +1256,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>4697306718.041051</v>
+        <v>4851517851.92656</v>
       </c>
     </row>
     <row r="104">
@@ -1264,7 +1264,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>4712501179.422169</v>
+        <v>4867158164.748236</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1272,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>4727858480.186398</v>
+        <v>4882965006.670876</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1280,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>4743380447.88233</v>
+        <v>4898940234.882616</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1288,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>4759068976.246373</v>
+        <v>4915085775.260701</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1296,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>4774926028.016605</v>
+        <v>4931403625.316405</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1304,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>4790953637.74413</v>
+        <v>4947895857.137186</v>
       </c>
     </row>
     <row r="110">
@@ -1312,7 +1312,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>4807153914.595321</v>
+        <v>4964564620.319015</v>
       </c>
     </row>
     <row r="111">
@@ -1320,7 +1320,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>4823529045.137983</v>
+        <v>4981412144.881784</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1328,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>4840081296.104665</v>
+        <v>4998440744.160418</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1336,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>4856813017.125923</v>
+        <v>5015652817.664376</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1344,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>4873726643.426625</v>
+        <v>5033050853.898059</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1352,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>4890824698.478016</v>
+        <v>5050637433.134615</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1360,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>4908109796.59841</v>
+        <v>5068415230.135619</v>
       </c>
     </row>
     <row r="117">
@@ -1368,7 +1368,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>4925584645.495435</v>
+        <v>5086387016.80909</v>
       </c>
     </row>
     <row r="118">
@@ -1376,7 +1376,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>4943252048.742572</v>
+        <v>5104555664.798429</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1384,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>4961114908.183114</v>
+        <v>5122924147.994785</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1392,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>4979176226.254424</v>
+        <v>5141495544.96559</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1400,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>4997439108.225732</v>
+        <v>5160273041.292058</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1408,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>5015906764.342799</v>
+        <v>5179259931.808596</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1416,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>5034582511.872877</v>
+        <v>5198459622.737309</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1424,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>5053469777.043708</v>
+        <v>5217875633.710997</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1432,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>5072572096.870482</v>
+        <v>5237511599.678171</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1440,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>5091893120.864968</v>
+        <v>5257371272.6841</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1448,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>5111436612.621252</v>
+        <v>5277458523.522051</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1456,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>5131206451.272987</v>
+        <v>5297777343.249209</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1464,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>5151206632.817197</v>
+        <v>5318331844.56228</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1472,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>5171441271.300294</v>
+        <v>5339126263.02802</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1480,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>5191914599.862082</v>
+        <v>5360164958.164344</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1488,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>5212630971.634202</v>
+        <v>5381452414.368292</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1496,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>5233594860.489763</v>
+        <v>5402993241.687353</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1504,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>5254810861.641348</v>
+        <v>5424792176.431252</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1512,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>5276283692.085229</v>
+        <v>5446854081.621867</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1520,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>5298018190.889859</v>
+        <v>5469183947.279304</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1528,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>5320019319.327492</v>
+        <v>5491786890.542826</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1536,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>5342292160.848145</v>
+        <v>5514668155.625872</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1544,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>5364841920.895622</v>
+        <v>5537833113.604864</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1552,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>5387673926.56608</v>
+        <v>5561287262.042205</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1560,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>5410793626.109875</v>
+        <v>5585036224.444339</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1568,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>5434206588.278226</v>
+        <v>5609085749.556471</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1576,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>5457918501.516722</v>
+        <v>5633441710.495936</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1584,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>5481935173.008145</v>
+        <v>5658110103.727001</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1592,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>5506262527.567897</v>
+        <v>5683097047.88034</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1600,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>5530906606.395569</v>
+        <v>5708408782.421062</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1608,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>5555873565.687042</v>
+        <v>5734051666.169773</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1616,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>5581169675.111821</v>
+        <v>5760032175.68162</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1624,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>5606801316.160959</v>
+        <v>5786356903.488984</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1632,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>5632774980.371457</v>
+        <v>5813032556.213928</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1640,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>5659097267.433438</v>
+        <v>5840065952.557017</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1648,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>5685774883.187027</v>
+        <v>5867464021.169802</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1656,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>5712814637.516153</v>
+        <v>5895233798.418499</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1664,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>5740223442.147165</v>
+        <v>5923382426.047156</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1672,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>5768008308.360406</v>
+        <v>5951917148.748844</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1680,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>5796176344.623332</v>
+        <v>5980845311.653858</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1688,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>5824734754.154268</v>
+        <v>6010174357.744442</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1696,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>5853690832.426001</v>
+        <v>6039911825.205812</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1704,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>5883051964.61901</v>
+        <v>6070065344.723519</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1712,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>5912825623.03423</v>
+        <v>6100642636.737751</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1720,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>5943019364.475558</v>
+        <v>6131651508.66516</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1728,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>5973640827.61261</v>
+        <v>6163099852.099203</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1736,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>6004697730.334303</v>
+        <v>6194995640.000231</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1744,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>6036197867.104193</v>
+        <v>6227346923.886574</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1752,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>6068149106.328342</v>
+        <v>6260161831.038126</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1760,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>6100559387.746946</v>
+        <v>6293448561.723978</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1768,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>6133436719.860638</v>
+        <v>6327215386.465811</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1776,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>6166789177.402771</v>
+        <v>6361470643.348583</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1784,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>6200624898.868608</v>
+        <v>6396222735.39025</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1792,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>6234952084.112651</v>
+        <v>6431480127.982068</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1800,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>6269778992.025022</v>
+        <v>6467251346.411053</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1808,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>6305113938.297757</v>
+        <v>6503544973.475891</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1816,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>6340965293.291845</v>
+        <v>6540369647.207685</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1824,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>6377341480.015489</v>
+        <v>6577734058.706507</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1832,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>6414250972.22398</v>
+        <v>6615646950.104596</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1840,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>6451702292.651338</v>
+        <v>6654117112.66689</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1848,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>6489704011.383524</v>
+        <v>6693153385.039104</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1856,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>6528264744.382856</v>
+        <v>6732764651.653472</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1864,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>6567393152.172868</v>
+        <v>6772959841.301752</v>
       </c>
     </row>
     <row r="180">
@@ -1872,7 +1872,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>6607097938.692485</v>
+        <v>6813747925.884893</v>
       </c>
     </row>
     <row r="181">
@@ -1880,7 +1880,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>6647387850.328172</v>
+        <v>6855137919.348271</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1888,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>6688271675.132193</v>
+        <v>6897138876.811063</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1896,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>6729758242.234725</v>
+        <v>6939759893.897919</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1904,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>6771856421.457256</v>
+        <v>6983010106.280552</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1912,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>6814575123.134247</v>
+        <v>7026898689.436591</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1920,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>6857923298.149453</v>
+        <v>7071434858.63244</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1928,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>6901909938.193107</v>
+        <v>7116627869.136415</v>
       </c>
     </row>
     <row r="188">
@@ -1936,7 +1936,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>6946544076.245423</v>
+        <v>7162487016.668097</v>
       </c>
     </row>
     <row r="189">
@@ -1944,7 +1944,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>6991834787.291702</v>
+        <v>7209021638.08913</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1952,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>7037791189.273637</v>
+        <v>7256241112.340415</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1960,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>7084422444.281045</v>
+        <v>7304154861.630035</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1968,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>7131737759.98776</v>
+        <v>7352772352.875732</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1976,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>7179746391.335019</v>
+        <v>7402103099.405429</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1984,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>7228457642.465141</v>
+        <v>7452156662.918626</v>
       </c>
     </row>
     <row r="195">
@@ -1992,7 +1992,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>7277880868.907815</v>
+        <v>7502942655.711089</v>
       </c>
     </row>
     <row r="196">
@@ -2000,7 +2000,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>7328025480.021052</v>
+        <v>7554470743.16485</v>
       </c>
     </row>
     <row r="197">
@@ -2008,7 +2008,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>7378900941.688145</v>
+        <v>7606750646.504981</v>
       </c>
     </row>
     <row r="198">
@@ -2016,7 +2016,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>7430516779.271874</v>
+        <v>7659792145.824192</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2024,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>7482882580.826469</v>
+        <v>7713605083.375926</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2032,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>7536008000.567749</v>
+        <v>7768199367.136084</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2040,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>7589902762.601151</v>
+        <v>7823584974.633306</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2048,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>7644576664.907446</v>
+        <v>7879771957.047138</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2056,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>7700039583.585023</v>
+        <v>7936770443.573191</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2064,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>7756301477.346621</v>
+        <v>7994590646.052714</v>
       </c>
     </row>
     <row r="205">
@@ -2072,7 +2072,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>7813372392.272534</v>
+        <v>8053242863.868817</v>
       </c>
     </row>
     <row r="206">
@@ -2080,7 +2080,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>7871262466.815183</v>
+        <v>8112737489.103746</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2088,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>7929981937.054168</v>
+        <v>8173085011.956309</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2096,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>7989541142.199648</v>
+        <v>8234296026.416988</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2104,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>8049950530.341497</v>
+        <v>8296381236.198106</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2112,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>8111220664.44176</v>
+        <v>8359351460.916198</v>
       </c>
     </row>
     <row r="211">
@@ -2120,7 +2120,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>8173362228.567513</v>
+        <v>8423217642.523632</v>
       </c>
     </row>
     <row r="212">
@@ -2128,7 +2128,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>8236386034.361278</v>
+        <v>8487990851.986194</v>
       </c>
     </row>
     <row r="213">
@@ -2136,7 +2136,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>8300303027.745875</v>
+        <v>8553682296.203394</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2144,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>8365124295.860499</v>
+        <v>8620303325.168047</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2152,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>8430861074.224895</v>
+        <v>8687865439.361635</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2160,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>8497524754.128207</v>
+        <v>8756380297.381802</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2168,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>8565126890.239136</v>
+        <v>8825859723.798399</v>
       </c>
     </row>
     <row r="218">
@@ -2176,7 +2176,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>8633679208.434084</v>
+        <v>8896315717.23443</v>
       </c>
     </row>
     <row r="219">
@@ -2184,7 +2184,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>8703193613.839804</v>
+        <v>8967760458.668142</v>
       </c>
     </row>
     <row r="220">
@@ -2192,7 +2192,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>8773682199.087187</v>
+        <v>9040206319.952604</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2200,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>8845157252.772873</v>
+        <v>9113665872.549313</v>
       </c>
     </row>
     <row r="222">
@@ -2208,7 +2208,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>8917631268.125174</v>
+        <v>9188151896.47183</v>
       </c>
     </row>
     <row r="223">
@@ -2216,7 +2216,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>8991116951.871159</v>
+        <v>9263677389.436237</v>
       </c>
     </row>
     <row r="224">
@@ -2224,7 +2224,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>9065627233.301603</v>
+        <v>9340255576.214672</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2232,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>9141175273.530645</v>
+        <v>9417899918.18869</v>
       </c>
     </row>
     <row r="226">
@@ -2240,7 +2240,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>9217774474.946825</v>
+        <v>9496624123.09874</v>
       </c>
     </row>
     <row r="227">
@@ -2248,7 +2248,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>9295438490.852854</v>
+        <v>9576442154.986891</v>
       </c>
     </row>
     <row r="228">
@@ -2256,7 +2256,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>9374181235.290745</v>
+        <v>9657368244.32922</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2264,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>9454016893.049629</v>
+        <v>9739416898.354891</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2272,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>9534959929.853333</v>
+        <v>9822602911.548809</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2280,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>9617025102.725033</v>
+        <v>9906941376.334946</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2288,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>9700227470.526245</v>
+        <v>9992447693.937218</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2296,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>9784582404.667381</v>
+        <v>10079137585.41521</v>
       </c>
     </row>
     <row r="234">
@@ -2304,7 +2304,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>9870105599.987593</v>
+        <v>10167027102.87198</v>
       </c>
     </row>
     <row r="235">
@@ -2312,7 +2312,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>9956813085.80093</v>
+        <v>10256132640.83089</v>
       </c>
     </row>
     <row r="236">
@@ -2320,7 +2320,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>10044721237.10651</v>
+        <v>10346470947.77895</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2328,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>10133846785.96009</v>
+        <v>10438059137.87387</v>
       </c>
     </row>
     <row r="238">
@@ -2336,7 +2336,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>10224206833.00432</v>
+        <v>10530914702.81188</v>
       </c>
     </row>
     <row r="239">
@@ -2344,7 +2344,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>10315818859.1552</v>
+        <v>10625055523.8536</v>
       </c>
     </row>
     <row r="240">
@@ -2352,7 +2352,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>10408700737.44184</v>
+        <v>10720499884.00508</v>
       </c>
     </row>
     <row r="241">
@@ -2360,7 +2360,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>10502870744.99692</v>
+        <v>10817266480.35087</v>
       </c>
     </row>
     <row r="242">
@@ -2368,7 +2368,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>10598347575.19462</v>
+        <v>10915374436.5361</v>
       </c>
     </row>
     <row r="243">
@@ -2376,7 +2376,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>10695150349.9332</v>
+        <v>11014843315.39423</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2384,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>10793298632.05857</v>
+        <v>11115693131.71692</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2392,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>10892812437.92565</v>
+        <v>11217944365.16233</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2400,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>10993712250.09337</v>
+        <v>11321617973.29779</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2408,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>11096019030.14936</v>
+        <v>11426735404.77253</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2416,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>11199754231.6597</v>
+        <v>11533318612.61572</v>
       </c>
     </row>
     <row r="249">
@@ -2424,7 +2424,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>11304939813.23884</v>
+        <v>11641390067.65467</v>
       </c>
     </row>
     <row r="250">
@@ -2432,7 +2432,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>11411598251.73428</v>
+        <v>11750972772.04768</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2440,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>11519752555.5202</v>
+        <v>11862090272.92531</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2448,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>11629426277.89342</v>
+        <v>11974766676.13349</v>
       </c>
     </row>
     <row r="253">
@@ -2456,7 +2456,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>11740643530.56471</v>
+        <v>12089026660.07101</v>
       </c>
     </row>
     <row r="254">
@@ -2464,7 +2464,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>11853428997.23788</v>
+        <v>12204895489.61364</v>
       </c>
     </row>
     <row r="255">
@@ -2472,7 +2472,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>11967807947.26765</v>
+        <v>12322399030.11573</v>
       </c>
     </row>
     <row r="256">
@@ -2480,7 +2480,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>12083806249.38768</v>
+        <v>12441563761.48023</v>
       </c>
     </row>
     <row r="257">
@@ -2488,7 +2488,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>12201450385.49821</v>
+        <v>12562416792.28621</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2496,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>12320767464.50237</v>
+        <v>12684985873.96288</v>
       </c>
     </row>
     <row r="259">
@@ -2504,7 +2504,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>12441785236.17909</v>
+        <v>12809299414.99755</v>
       </c>
     </row>
     <row r="260">
@@ -2512,7 +2512,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>12564532105.07983</v>
+        <v>12935386495.16405</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2520,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>12689037144.43439</v>
+        <v>13063276879.75722</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2528,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>12815330110.05107</v>
+        <v>13193001033.81743</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2536,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>12943441454.19399</v>
+        <v>13324590136.32825</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2544,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>13073402339.42</v>
+        <v>13458076094.36858</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2552,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>13205244652.35572</v>
+        <v>13593491557.19976</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2560,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>13339001017.39374</v>
+        <v>13730869930.26573</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2568,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>13474704810.28591</v>
+        <v>13870245389.08383</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2576,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>13612390171.60956</v>
+        <v>14011652893.00136</v>
       </c>
     </row>
     <row r="269">
@@ -2584,7 +2584,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>13752092020.0811</v>
+        <v>14155128198.79153</v>
       </c>
     </row>
     <row r="270">
@@ -2592,7 +2592,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>13893846065.68944</v>
+        <v>14300707874.06083</v>
       </c>
     </row>
     <row r="271">
@@ -2600,7 +2600,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>14037688822.62028</v>
+        <v>14448429310.43768</v>
       </c>
     </row>
     <row r="272">
@@ -2608,7 +2608,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>14183657621.93999</v>
+        <v>14598330736.51066</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2616,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>14331790624.00583</v>
+        <v>14750451230.482</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2624,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>14482126830.56789</v>
+        <v>14904830732.50074</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2632,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>14634706096.52504</v>
+        <v>15061510056.63703</v>
       </c>
     </row>
     <row r="276">
@@ -2640,7 +2640,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>14789569141.29581</v>
+        <v>15220530902.45742</v>
       </c>
     </row>
     <row r="277">
@@ -2648,7 +2648,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>14946757559.76262</v>
+        <v>15381935866.15845</v>
       </c>
     </row>
     <row r="278">
@@ -2656,7 +2656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>15106313832.74551</v>
+        <v>15545768451.21354</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2664,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>15268281336.95911</v>
+        <v>15712073078.48589</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2672,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>15432704354.40455</v>
+        <v>15880895095.75751</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2680,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>15599628081.14505</v>
+        <v>16052280786.62249</v>
       </c>
     </row>
     <row r="282">
@@ -2688,7 +2688,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>15769098635.41233</v>
+        <v>16226277378.68924</v>
       </c>
     </row>
     <row r="283">
@@ -2696,7 +2696,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>15941163064.98733</v>
+        <v>16402933051.03485</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2704,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>16115869353.79741</v>
+        <v>16582296940.85165</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2712,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>16293266427.66882</v>
+        <v>16764419149.22337</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2720,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>16473404159.17133</v>
+        <v>16949350745.96609</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2728,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>16656333371.4886</v>
+        <v>17137143773.4663</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2736,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>16842105841.24637</v>
+        <v>17327851249.44581</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2744,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>17030774300.227</v>
+        <v>17521527168.58092</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2752,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>17222392435.89724</v>
+        <v>17718226502.90053</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2760,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>17417014890.6732</v>
+        <v>17918005200.88526</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2768,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>17614697259.84418</v>
+        <v>18120920185.18769</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2776,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>17815496088.07493</v>
+        <v>18327029348.89087</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2784,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>18019468864.40349</v>
+        <v>18536391550.22055</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2792,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>18226674015.64953</v>
+        <v>18749066605.62384</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2800,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>18437170898.1463</v>
+        <v>18965115281.12545</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2808,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>18651019787.7076</v>
+        <v>19184599281.87059</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2816,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>18868281867.73869</v>
+        <v>19407581239.76154</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2824,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>19089019215.39935</v>
+        <v>19634124699.09377</v>
       </c>
     </row>
     <row r="300">
@@ -2832,7 +2832,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>19313294785.72548</v>
+        <v>19864294100.09573</v>
       </c>
     </row>
     <row r="301">
@@ -2840,7 +2840,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>19541172393.61463</v>
+        <v>20098154760.27571</v>
       </c>
     </row>
     <row r="302">
@@ -2848,7 +2848,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>19772716693.57935</v>
+        <v>20335772853.47734</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2856,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>20007993157.1728</v>
+        <v>20577215386.5458</v>
       </c>
     </row>
     <row r="304">
@@ -2864,7 +2864,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>20247068047.9893</v>
+        <v>20822550173.50546</v>
       </c>
     </row>
     <row r="305">
@@ -2872,7 +2872,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>20490008394.14308</v>
+        <v>21071845807.14995</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2880,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>20736881958.1288</v>
+        <v>21325171627.94592</v>
       </c>
     </row>
     <row r="307">
@@ -2888,7 +2888,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>20987757203.96765</v>
+        <v>21582597690.15247</v>
       </c>
     </row>
     <row r="308">
@@ -2896,7 +2896,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>21242703261.54385</v>
+        <v>21844194725.05856</v>
       </c>
     </row>
     <row r="309">
@@ -2904,7 +2904,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>21501789888.03788</v>
+        <v>22110034101.24325</v>
       </c>
     </row>
     <row r="310">
@@ -2912,7 +2912,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>21765087426.36446</v>
+        <v>22380187781.76438</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2920,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>22032666760.52532</v>
+        <v>22654728278.18408</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2928,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>22304599267.78981</v>
+        <v>22933728601.34237</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2936,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>22580956767.61961</v>
+        <v>23217262208.79332</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2944,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>22861811467.25693</v>
+        <v>23505402948.82191</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2952,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>23147235903.9009</v>
+        <v>23798225000.96436</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2960,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>23437302883.4008</v>
+        <v>24095802812.95982</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2968,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>23732085415.40049</v>
+        <v>24398211034.06651</v>
       </c>
     </row>
     <row r="318">
@@ -2976,7 +2976,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>24031656644.87512</v>
+        <v>24705524444.68216</v>
       </c>
     </row>
     <row r="319">
@@ -2984,7 +2984,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>24336089780.00668</v>
+        <v>25017817882.21521</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2992,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>24645458016.35348</v>
+        <v>25335166163.16065</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +3000,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>24959834457.27622</v>
+        <v>25657644001.34338</v>
       </c>
     </row>
     <row r="322">
@@ -3008,7 +3008,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>25279292030.59172</v>
+        <v>25985325922.29979</v>
       </c>
     </row>
     <row r="323">
@@ -3016,7 +3016,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>25603903401.43565</v>
+        <v>26318286173.77945</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3024,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>25933740881.32458</v>
+        <v>26656598632.35719</v>
       </c>
     </row>
     <row r="325">
@@ -3032,7 +3032,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>26268876333.41975</v>
+        <v>27000336706.15951</v>
       </c>
     </row>
     <row r="326">
@@ -3040,7 +3040,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>26609381074.00549</v>
+        <v>27349573233.71835</v>
       </c>
     </row>
     <row r="327">
@@ -3048,7 +3048,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>26955325770.20781</v>
+        <v>27704380378.98014</v>
       </c>
     </row>
     <row r="328">
@@ -3056,7 +3056,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>27306780333.99171</v>
+        <v>28064829522.5099</v>
       </c>
     </row>
     <row r="329">
@@ -3064,7 +3064,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>27663813812.48928</v>
+        <v>28430991148.94445</v>
       </c>
     </row>
     <row r="330">
@@ -3072,7 +3072,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>28026494274.72459</v>
+        <v>28802934730.76358</v>
       </c>
     </row>
     <row r="331">
@@ -3080,7 +3080,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>28394888694.81673</v>
+        <v>29180728608.46333</v>
       </c>
     </row>
     <row r="332">
@@ -3088,7 +3088,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>28769062831.75753</v>
+        <v>29564439867.2308</v>
       </c>
     </row>
     <row r="333">
@@ -3096,7 +3096,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>29149081105.87658</v>
+        <v>29954134210.23717</v>
       </c>
     </row>
     <row r="334">
@@ -3104,7 +3104,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>29535006472.12262</v>
+        <v>30349875828.68194</v>
       </c>
     </row>
     <row r="335">
@@ -3112,7 +3112,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>29926900290.30768</v>
+        <v>30751727268.73911</v>
       </c>
     </row>
     <row r="336">
@@ -3120,7 +3120,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>30324822192.47751</v>
+        <v>31159749295.57406</v>
       </c>
     </row>
     <row r="337">
@@ -3128,7 +3128,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>30728829947.58987</v>
+        <v>31574000754.61767</v>
       </c>
     </row>
     <row r="338">
@@ -3136,7 +3136,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>31138979323.70021</v>
+        <v>31994538430.30341</v>
       </c>
     </row>
     <row r="339">
@@ -3144,7 +3144,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>31555323947.87231</v>
+        <v>32421416902.49081</v>
       </c>
     </row>
     <row r="340">
@@ -3152,7 +3152,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>31977915164.05085</v>
+        <v>32854688400.81924</v>
       </c>
     </row>
     <row r="341">
@@ -3160,7 +3160,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>32406801889.1501</v>
+        <v>33294402657.25311</v>
       </c>
     </row>
     <row r="342">
@@ -3168,7 +3168,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>32842030467.63222</v>
+        <v>33740606757.09958</v>
       </c>
     </row>
     <row r="343">
@@ -3176,7 +3176,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>33283644524.86684</v>
+        <v>34193344988.7983</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3184,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>33731684819.58132</v>
+        <v>34652658692.8011</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3192,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>34186189095.72925</v>
+        <v>35118586109.87761</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3200,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>34647191934.1211</v>
+        <v>35591162229.20029</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3208,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>35114724604.17912</v>
+        <v>36070418636.57989</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3216,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>35588814916.19232</v>
+        <v>36556383363.23743</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3224,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>36069487074.46468</v>
+        <v>37049080735.51559</v>
       </c>
     </row>
     <row r="350">
@@ -3232,7 +3232,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>36556761531.7616</v>
+        <v>37548531225.94514</v>
       </c>
     </row>
     <row r="351">
@@ -3240,7 +3240,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>37050654845.47473</v>
+        <v>38054751306.09703</v>
       </c>
     </row>
     <row r="352">
@@ -3248,7 +3248,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>37551179535.93494</v>
+        <v>38567753301.66071</v>
       </c>
     </row>
     <row r="353">
@@ -3256,7 +3256,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>38058343947.31549</v>
+        <v>39087545250.20164</v>
       </c>
     </row>
     <row r="354">
@@ -3264,7 +3264,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>38572152111.57462</v>
+        <v>39614130762.05861</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3272,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>39092603615.89532</v>
+        <v>40147508884.84956</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3280,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>39619693474.08486</v>
+        <v>40687673972.05939</v>
       </c>
     </row>
     <row r="357">
@@ -3288,7 +3288,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>40153412002.40059</v>
+        <v>41234615556.18829</v>
       </c>
     </row>
     <row r="358">
@@ -3296,7 +3296,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>40682489933.82407</v>
+        <v>41762941690.36626</v>
       </c>
     </row>
     <row r="359">
@@ -3304,7 +3304,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>41217984650.70215</v>
+        <v>42297676403.18244</v>
       </c>
     </row>
     <row r="360">
@@ -3312,7 +3312,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>41759870580.06549</v>
+        <v>42838793386.01859</v>
       </c>
     </row>
     <row r="361">
@@ -3320,7 +3320,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>42308117082.05016</v>
+        <v>43386261228.37438</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3328,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>42862688357.31167</v>
+        <v>43940043324.67044</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3336,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>43423543361.52141</v>
+        <v>44500097788.15699</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3344,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>43990635727.36885</v>
+        <v>45066377372.35264</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3352,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>44563913694.47675</v>
+        <v>45638829400.42326</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3360,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>45143320047.62086</v>
+        <v>46217395702.8937</v>
       </c>
     </row>
     <row r="367">
@@ -3368,7 +3368,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>45728792063.62809</v>
+        <v>46802012564.06831</v>
       </c>
     </row>
     <row r="368">
@@ -3376,7 +3376,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>46320261467.30323</v>
+        <v>47392610677.51303</v>
       </c>
     </row>
     <row r="369">
@@ -3384,7 +3384,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>46917654396.71363</v>
+        <v>47989115110.93014</v>
       </c>
     </row>
     <row r="370">
@@ -3392,7 +3392,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>47520891378.13349</v>
+        <v>48591445280.72943</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3400,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>48129887310.92251</v>
+        <v>49199514936.57374</v>
       </c>
     </row>
     <row r="372">
@@ -3408,7 +3408,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>48744551462.58382</v>
+        <v>49813232156.1452</v>
       </c>
     </row>
     <row r="373">
@@ -3416,7 +3416,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>49242097920.45973</v>
+        <v>50335112774.32381</v>
       </c>
     </row>
     <row r="374">
@@ -3424,7 +3424,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>49743964279.24015</v>
+        <v>50861505437.21395</v>
       </c>
     </row>
     <row r="375">
@@ -3432,7 +3432,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>50250054761.84077</v>
+        <v>51392310161.6292</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3440,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>50760268754.63631</v>
+        <v>51927421945.28518</v>
       </c>
     </row>
     <row r="377">
@@ -3448,7 +3448,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>51274500841.13753</v>
+        <v>52466730803.99963</v>
       </c>
     </row>
     <row r="378">
@@ -3456,7 +3456,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>51792640844.61172</v>
+        <v>53010121818.29185</v>
       </c>
     </row>
     <row r="379">
@@ -3464,7 +3464,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>52314573879.64459</v>
+        <v>53557475189.37846</v>
       </c>
     </row>
     <row r="380">
@@ -3472,7 +3472,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>52840180412.60742</v>
+        <v>54108666304.52798</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3480,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>53369336330.96313</v>
+        <v>54663565811.70377</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3488,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>53901913021.31106</v>
+        <v>55222039703.39032</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3496,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>54524396419.68075</v>
+        <v>55925326064.60281</v>
       </c>
     </row>
     <row r="384">
@@ -3504,7 +3504,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>55150628114.06477</v>
+        <v>56632897002.52491</v>
       </c>
     </row>
     <row r="385">
@@ -3512,7 +3512,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>55780454017.36663</v>
+        <v>57344584973.7548</v>
       </c>
     </row>
     <row r="386">
@@ -3520,7 +3520,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>56413715655.83725</v>
+        <v>58060217737.29394</v>
       </c>
     </row>
     <row r="387">
@@ -3528,7 +3528,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>57050250311.75391</v>
+        <v>58779618519.72491</v>
       </c>
     </row>
     <row r="388">
@@ -3536,7 +3536,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>57689891174.65533</v>
+        <v>59502606190.0088</v>
       </c>
     </row>
     <row r="389">
@@ -3544,7 +3544,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>58332467500.77418</v>
+        <v>60228995443.49135</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3552,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>58977804780.27887</v>
+        <v>60958596994.67133</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3560,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>59625724911.90958</v>
+        <v>61691217778.25322</v>
       </c>
     </row>
     <row r="392">
@@ -3568,7 +3568,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>60276046384.5695</v>
+        <v>62426661157.97574</v>
       </c>
     </row>
     <row r="393">
@@ -3576,7 +3576,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>60732398049.58207</v>
+        <v>62856690119.51421</v>
       </c>
     </row>
     <row r="394">
@@ -3584,7 +3584,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>61189712316.18993</v>
+        <v>63287522297.67809</v>
       </c>
     </row>
     <row r="395">
@@ -3592,7 +3592,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>61647827625.82171</v>
+        <v>63718998055.17513</v>
       </c>
     </row>
     <row r="396">
@@ -3600,7 +3600,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>62106579823.41918</v>
+        <v>64150955106.55682</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3608,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>62565802297.82272</v>
+        <v>64583228649.44007</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3616,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>63025326125.02087</v>
+        <v>65015651498.36329</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3624,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>63484980213.91472</v>
+        <v>65448054220.92775</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3632,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>63944591454.25241</v>
+        <v>65880265275.87628</v>
       </c>
     </row>
     <row r="401">
@@ -3640,7 +3640,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>64403984866.39986</v>
+        <v>66312111152.77468</v>
       </c>
     </row>
     <row r="402">
@@ -3648,7 +3648,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>64862983752.62545</v>
+        <v>66743416512.96723</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3656,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>64960374829.63764</v>
+        <v>66804854994.85562</v>
       </c>
     </row>
     <row r="404">
@@ -3664,7 +3664,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>65055548810.98325</v>
+        <v>66863925559.42168</v>
       </c>
     </row>
     <row r="405">
@@ -3672,7 +3672,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>65148369531.57834</v>
+        <v>66920494291.40977</v>
       </c>
     </row>
     <row r="406">
@@ -3680,7 +3680,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>65238698519.49461</v>
+        <v>66974424779.69249</v>
       </c>
     </row>
     <row r="407">
@@ -3688,7 +3688,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>65326395021.51395</v>
+        <v>67025578128.64336</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3696,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>65411316029.8838</v>
+        <v>67073812970.50917</v>
       </c>
     </row>
     <row r="409">
@@ -3704,7 +3704,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>65493316310.52441</v>
+        <v>67118985479.03857</v>
       </c>
     </row>
     <row r="410">
@@ -3712,7 +3712,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>65572248432.98689</v>
+        <v>67160949384.67216</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3720,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>65647962802.51229</v>
+        <v>67199555991.65312</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3728,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>65720307694.59341</v>
+        <v>67234654197.47547</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3736,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>65829580450.7382</v>
+        <v>67289716916.77546</v>
       </c>
     </row>
     <row r="414">
@@ -3744,7 +3744,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>65935264853.39477</v>
+        <v>67341008230.6949</v>
       </c>
     </row>
     <row r="415">
@@ -3752,7 +3752,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>66037199870.64945</v>
+        <v>67388368061.23161</v>
       </c>
     </row>
     <row r="416">
@@ -3760,7 +3760,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>66135222779.88813</v>
+        <v>67431634191.59672</v>
       </c>
     </row>
     <row r="417">
@@ -3768,7 +3768,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>66229169233.35187</v>
+        <v>67470642311.7682</v>
       </c>
     </row>
     <row r="418">
@@ -3776,7 +3776,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>66318873329.2937</v>
+        <v>67505226069.95072</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3784,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>66404167689.53618</v>
+        <v>67535217130.84371</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3792,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>66484883544.30246</v>
+        <v>67560445241.70217</v>
       </c>
     </row>
     <row r="421">
@@ -3800,7 +3800,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>66560850825.26145</v>
+        <v>67580738307.26591</v>
       </c>
     </row>
     <row r="422">
@@ -3808,7 +3808,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>66631898267.80135</v>
+        <v>67595922474.72277</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3816,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>66697853523.6159</v>
+        <v>67605822229.96256</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3824,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>66758543284.75652</v>
+        <v>67610260506.47169</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3832,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>66813793420.37299</v>
+        <v>67609058808.30902</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3840,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>66863429127.42806</v>
+        <v>67602037348.6931</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3848,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>66907275096.73326</v>
+        <v>67589015205.81662</v>
       </c>
     </row>
     <row r="428">
@@ -3856,7 +3856,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>66945155695.70805</v>
+        <v>67569810497.58677</v>
       </c>
     </row>
     <row r="429">
@@ -3864,7 +3864,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>66976895169.31236</v>
+        <v>67544240577.0629</v>
       </c>
     </row>
     <row r="430">
@@ -3872,7 +3872,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>67002317860.64378</v>
+        <v>67512122250.43024</v>
       </c>
     </row>
     <row r="431">
@@ -3880,7 +3880,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>67021248452.7207</v>
+        <v>67473272019.40353</v>
       </c>
     </row>
     <row r="432">
@@ -3888,7 +3888,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>67033512232.99077</v>
+        <v>67427506349.99629</v>
       </c>
     </row>
     <row r="433">
@@ -3896,7 +3896,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>67038935382.11024</v>
+        <v>67374641969.61828</v>
       </c>
     </row>
     <row r="434">
@@ -3904,7 +3904,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>67037345288.52814</v>
+        <v>67314496194.47112</v>
       </c>
     </row>
     <row r="435">
@@ -3912,7 +3912,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>67028570890.38078</v>
+        <v>67246887289.19991</v>
       </c>
     </row>
     <row r="436">
@@ -3920,7 +3920,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>67012443046.15429</v>
+        <v>67171634860.71885</v>
       </c>
     </row>
     <row r="437">
@@ -3928,7 +3928,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>66988794935.5005</v>
+        <v>67088560288.06598</v>
       </c>
     </row>
     <row r="438">
@@ -3936,7 +3936,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>66957462491.49581</v>
+        <v>66997487190.04381</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3944,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>66918284865.51076</v>
+        <v>66898241932.27546</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3952,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>66871104925.70345</v>
+        <v>66790654175.13699</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3960,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>66815769789.96729</v>
+        <v>66674557463.82219</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3968,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>66752131393.94619</v>
+        <v>66549789861.5467</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3976,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>66680047094.47495</v>
+        <v>66416194626.60535</v>
       </c>
     </row>
     <row r="444">
@@ -3984,7 +3984,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>66599380308.51712</v>
+        <v>66273620933.6562</v>
       </c>
     </row>
     <row r="445">
@@ -3992,7 +3992,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>66510001187.34096</v>
+        <v>66121924639.21839</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +4000,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>66411787325.31139</v>
+        <v>65960969090.93195</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4008,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>66304624502.27154</v>
+        <v>65790625979.64384</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4016,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>66188407458.04474</v>
+        <v>65610776232.85022</v>
       </c>
     </row>
     <row r="449">
@@ -4024,7 +4024,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>66063040697.11222</v>
+        <v>65421310947.44449</v>
       </c>
     </row>
     <row r="450">
@@ -4032,7 +4032,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>65928439321.00778</v>
+        <v>65222132359.09582</v>
       </c>
     </row>
     <row r="451">
@@ -4040,7 +4040,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>65784529885.42947</v>
+        <v>65013154844.91978</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4048,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>65631251278.49735</v>
+        <v>64794305955.40168</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/total_energy_use.xlsx
+++ b/Data/model_outputs_baseline/energy/total_energy_use.xlsx
@@ -448,7 +448,7 @@
         <v>1600</v>
       </c>
       <c r="B2" t="n">
-        <v>3922058770.551752</v>
+        <v>5492632707.754334</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         <v>1601</v>
       </c>
       <c r="B3" t="n">
-        <v>3926638938.181957</v>
+        <v>5499046050.334988</v>
       </c>
     </row>
     <row r="4">
@@ -464,7 +464,7 @@
         <v>1602</v>
       </c>
       <c r="B4" t="n">
-        <v>3931280684.14063</v>
+        <v>5505544663.430387</v>
       </c>
     </row>
     <row r="5">
@@ -472,7 +472,7 @@
         <v>1603</v>
       </c>
       <c r="B5" t="n">
-        <v>3935984809.154874</v>
+        <v>5512129637.034153</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         <v>1604</v>
       </c>
       <c r="B6" t="n">
-        <v>3940752122.541918</v>
+        <v>5518802072.123172</v>
       </c>
     </row>
     <row r="7">
@@ -488,7 +488,7 @@
         <v>1605</v>
       </c>
       <c r="B7" t="n">
-        <v>3945583442.176943</v>
+        <v>5525563080.56439</v>
       </c>
     </row>
     <row r="8">
@@ -496,7 +496,7 @@
         <v>1606</v>
       </c>
       <c r="B8" t="n">
-        <v>3950479594.452613</v>
+        <v>5532413785.007604</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>1607</v>
       </c>
       <c r="B9" t="n">
-        <v>3955441414.22995</v>
+        <v>5539355318.763616</v>
       </c>
     </row>
     <row r="10">
@@ -512,7 +512,7 @@
         <v>1608</v>
       </c>
       <c r="B10" t="n">
-        <v>3960469744.780259</v>
+        <v>5546388825.667321</v>
       </c>
     </row>
     <row r="11">
@@ -520,7 +520,7 @@
         <v>1609</v>
       </c>
       <c r="B11" t="n">
-        <v>3965565437.717735</v>
+        <v>5553515459.925095</v>
       </c>
     </row>
     <row r="12">
@@ -528,7 +528,7 @@
         <v>1610</v>
       </c>
       <c r="B12" t="n">
-        <v>3970729352.922478</v>
+        <v>5560736385.945973</v>
       </c>
     </row>
     <row r="13">
@@ -536,7 +536,7 @@
         <v>1611</v>
       </c>
       <c r="B13" t="n">
-        <v>3975962358.45358</v>
+        <v>5568052778.156226</v>
       </c>
     </row>
     <row r="14">
@@ -544,7 +544,7 @@
         <v>1612</v>
       </c>
       <c r="B14" t="n">
-        <v>3981265330.452014</v>
+        <v>5575465820.796686</v>
       </c>
     </row>
     <row r="15">
@@ -552,7 +552,7 @@
         <v>1613</v>
       </c>
       <c r="B15" t="n">
-        <v>3986639153.033054</v>
+        <v>5582976707.702539</v>
       </c>
     </row>
     <row r="16">
@@ -560,7 +560,7 @@
         <v>1614</v>
       </c>
       <c r="B16" t="n">
-        <v>3992084718.167948</v>
+        <v>5590586642.065026</v>
       </c>
     </row>
     <row r="17">
@@ -568,7 +568,7 @@
         <v>1615</v>
       </c>
       <c r="B17" t="n">
-        <v>3997602925.554621</v>
+        <v>5598296836.17475</v>
       </c>
     </row>
     <row r="18">
@@ -576,7 +576,7 @@
         <v>1616</v>
       </c>
       <c r="B18" t="n">
-        <v>4003194682.477228</v>
+        <v>5606108511.146214</v>
       </c>
     </row>
     <row r="19">
@@ -584,7 +584,7 @@
         <v>1617</v>
       </c>
       <c r="B19" t="n">
-        <v>4008860903.654305</v>
+        <v>5614022896.623263</v>
       </c>
     </row>
     <row r="20">
@@ -592,7 +592,7 @@
         <v>1618</v>
       </c>
       <c r="B20" t="n">
-        <v>4014602511.075434</v>
+        <v>5622041230.465209</v>
       </c>
     </row>
     <row r="21">
@@ -600,7 +600,7 @@
         <v>1619</v>
       </c>
       <c r="B21" t="n">
-        <v>4020420433.82625</v>
+        <v>5630164758.41341</v>
       </c>
     </row>
     <row r="22">
@@ -608,7 +608,7 @@
         <v>1620</v>
       </c>
       <c r="B22" t="n">
-        <v>4026315607.901725</v>
+        <v>5638394733.738126</v>
       </c>
     </row>
     <row r="23">
@@ -616,7 +616,7 @@
         <v>1621</v>
       </c>
       <c r="B23" t="n">
-        <v>4032288976.00768</v>
+        <v>5646732416.865642</v>
       </c>
     </row>
     <row r="24">
@@ -624,7 +624,7 @@
         <v>1622</v>
       </c>
       <c r="B24" t="n">
-        <v>4038341487.3505</v>
+        <v>5655179074.985542</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +632,7 @@
         <v>1623</v>
       </c>
       <c r="B25" t="n">
-        <v>4044474097.415112</v>
+        <v>5663735981.638281</v>
       </c>
     </row>
     <row r="26">
@@ -640,7 +640,7 @@
         <v>1624</v>
       </c>
       <c r="B26" t="n">
-        <v>4050687767.731312</v>
+        <v>5672404416.283122</v>
       </c>
     </row>
     <row r="27">
@@ -648,7 +648,7 @@
         <v>1625</v>
       </c>
       <c r="B27" t="n">
-        <v>4056983465.628531</v>
+        <v>5681185663.846653</v>
       </c>
     </row>
     <row r="28">
@@ -656,7 +656,7 @@
         <v>1626</v>
       </c>
       <c r="B28" t="n">
-        <v>4063362163.979313</v>
+        <v>5690081014.252239</v>
       </c>
     </row>
     <row r="29">
@@ -664,7 +664,7 @@
         <v>1627</v>
       </c>
       <c r="B29" t="n">
-        <v>4069824840.931675</v>
+        <v>5699091761.930776</v>
       </c>
     </row>
     <row r="30">
@@ -672,7 +672,7 @@
         <v>1628</v>
       </c>
       <c r="B30" t="n">
-        <v>4076372479.630723</v>
+        <v>5708219205.313216</v>
       </c>
     </row>
     <row r="31">
@@ -680,7 +680,7 @@
         <v>1629</v>
       </c>
       <c r="B31" t="n">
-        <v>4083006067.929844</v>
+        <v>5717464646.305523</v>
       </c>
     </row>
     <row r="32">
@@ -688,7 +688,7 @@
         <v>1630</v>
       </c>
       <c r="B32" t="n">
-        <v>4089726598.09197</v>
+        <v>5726829389.746732</v>
       </c>
     </row>
     <row r="33">
@@ -696,7 +696,7 @@
         <v>1631</v>
       </c>
       <c r="B33" t="n">
-        <v>4096535066.4814</v>
+        <v>5736314742.850954</v>
       </c>
     </row>
     <row r="34">
@@ -704,7 +704,7 @@
         <v>1632</v>
       </c>
       <c r="B34" t="n">
-        <v>4103432473.246754</v>
+        <v>5745922014.634295</v>
       </c>
     </row>
     <row r="35">
@@ -712,7 +712,7 @@
         <v>1633</v>
       </c>
       <c r="B35" t="n">
-        <v>4110419821.995768</v>
+        <v>5755652515.327708</v>
       </c>
     </row>
     <row r="36">
@@ -720,7 +720,7 @@
         <v>1634</v>
       </c>
       <c r="B36" t="n">
-        <v>4117498119.462649</v>
+        <v>5765507555.777024</v>
       </c>
     </row>
     <row r="37">
@@ -728,7 +728,7 @@
         <v>1635</v>
       </c>
       <c r="B37" t="n">
-        <v>4124668375.168805</v>
+        <v>5775488446.831531</v>
       </c>
     </row>
     <row r="38">
@@ -736,7 +736,7 @@
         <v>1636</v>
       </c>
       <c r="B38" t="n">
-        <v>4131931601.077878</v>
+        <v>5785596498.722466</v>
       </c>
     </row>
     <row r="39">
@@ -744,7 +744,7 @@
         <v>1637</v>
       </c>
       <c r="B39" t="n">
-        <v>4139288811.246101</v>
+        <v>5795833020.433169</v>
       </c>
     </row>
     <row r="40">
@@ -752,7 +752,7 @@
         <v>1638</v>
       </c>
       <c r="B40" t="n">
-        <v>4146741021.469021</v>
+        <v>5806199319.062532</v>
       </c>
     </row>
     <row r="41">
@@ -760,7 +760,7 @@
         <v>1639</v>
       </c>
       <c r="B41" t="n">
-        <v>4154289248.925795</v>
+        <v>5816696699.183772</v>
       </c>
     </row>
     <row r="42">
@@ -768,7 +768,7 @@
         <v>1640</v>
       </c>
       <c r="B42" t="n">
-        <v>4161934511.822329</v>
+        <v>5827326462.200472</v>
       </c>
     </row>
     <row r="43">
@@ -776,7 +776,7 @@
         <v>1641</v>
       </c>
       <c r="B43" t="n">
-        <v>4169677829.034616</v>
+        <v>5838089905.702176</v>
       </c>
     </row>
     <row r="44">
@@ -784,7 +784,7 @@
         <v>1642</v>
       </c>
       <c r="B44" t="n">
-        <v>4177520219.753731</v>
+        <v>5848988322.821871</v>
       </c>
     </row>
     <row r="45">
@@ -792,7 +792,7 @@
         <v>1643</v>
       </c>
       <c r="B45" t="n">
-        <v>4185462703.134046</v>
+        <v>5860023001.597833</v>
       </c>
     </row>
     <row r="46">
@@ -800,7 +800,7 @@
         <v>1644</v>
       </c>
       <c r="B46" t="n">
-        <v>4193506297.946278</v>
+        <v>5871195224.342607</v>
       </c>
     </row>
     <row r="47">
@@ -808,7 +808,7 @@
         <v>1645</v>
       </c>
       <c r="B47" t="n">
-        <v>4201652022.237165</v>
+        <v>5882506267.021774</v>
       </c>
     </row>
     <row r="48">
@@ -816,7 +816,7 @@
         <v>1646</v>
       </c>
       <c r="B48" t="n">
-        <v>4209900892.99754</v>
+        <v>5893957398.64566</v>
       </c>
     </row>
     <row r="49">
@@ -824,7 +824,7 @@
         <v>1647</v>
       </c>
       <c r="B49" t="n">
-        <v>4218253925.840782</v>
+        <v>5905549880.676936</v>
       </c>
     </row>
     <row r="50">
@@ -832,7 +832,7 @@
         <v>1648</v>
       </c>
       <c r="B50" t="n">
-        <v>4226712134.693602</v>
+        <v>5917284966.457522</v>
       </c>
     </row>
     <row r="51">
@@ -840,7 +840,7 @@
         <v>1649</v>
       </c>
       <c r="B51" t="n">
-        <v>4235276531.501327</v>
+        <v>5929163900.658044</v>
       </c>
     </row>
     <row r="52">
@@ -848,7 +848,7 @@
         <v>1650</v>
       </c>
       <c r="B52" t="n">
-        <v>4243948125.949816</v>
+        <v>5941187918.75355</v>
       </c>
     </row>
     <row r="53">
@@ -856,7 +856,7 @@
         <v>1651</v>
       </c>
       <c r="B53" t="n">
-        <v>4252727925.206301</v>
+        <v>5953358246.529016</v>
       </c>
     </row>
     <row r="54">
@@ -864,7 +864,7 @@
         <v>1652</v>
       </c>
       <c r="B54" t="n">
-        <v>4261616933.68149</v>
+        <v>5965676099.618551</v>
       </c>
     </row>
     <row r="55">
@@ -872,7 +872,7 @@
         <v>1653</v>
       </c>
       <c r="B55" t="n">
-        <v>4270616152.81535</v>
+        <v>5978142683.082122</v>
       </c>
     </row>
     <row r="56">
@@ -880,7 +880,7 @@
         <v>1654</v>
       </c>
       <c r="B56" t="n">
-        <v>4279726580.889063</v>
+        <v>5990759191.023954</v>
       </c>
     </row>
     <row r="57">
@@ -888,7 +888,7 @@
         <v>1655</v>
       </c>
       <c r="B57" t="n">
-        <v>4288949212.865661</v>
+        <v>6003526806.256537</v>
       </c>
     </row>
     <row r="58">
@@ -896,7 +896,7 @@
         <v>1656</v>
       </c>
       <c r="B58" t="n">
-        <v>4298285040.262035</v>
+        <v>6016446700.014729</v>
       </c>
     </row>
     <row r="59">
@@ -904,7 +904,7 @@
         <v>1657</v>
       </c>
       <c r="B59" t="n">
-        <v>4307735051.054853</v>
+        <v>6029520031.723974</v>
       </c>
     </row>
     <row r="60">
@@ -912,7 +912,7 @@
         <v>1658</v>
       </c>
       <c r="B60" t="n">
-        <v>4317300229.62317</v>
+        <v>6042747948.827225</v>
       </c>
     </row>
     <row r="61">
@@ -920,7 +920,7 @@
         <v>1659</v>
       </c>
       <c r="B61" t="n">
-        <v>4326981556.730412</v>
+        <v>6056131586.674848</v>
       </c>
     </row>
     <row r="62">
@@ -928,7 +928,7 @@
         <v>1660</v>
       </c>
       <c r="B62" t="n">
-        <v>4336780009.548512</v>
+        <v>6069672068.482037</v>
       </c>
     </row>
     <row r="63">
@@ -936,7 +936,7 @@
         <v>1661</v>
       </c>
       <c r="B63" t="n">
-        <v>4346696561.726954</v>
+        <v>6083370505.358229</v>
       </c>
     </row>
     <row r="64">
@@ -944,7 +944,7 @@
         <v>1662</v>
       </c>
       <c r="B64" t="n">
-        <v>4356732183.509462</v>
+        <v>6097227996.412983</v>
       </c>
     </row>
     <row r="65">
@@ -952,7 +952,7 @@
         <v>1663</v>
       </c>
       <c r="B65" t="n">
-        <v>4366887841.901216</v>
+        <v>6111245628.942819</v>
       </c>
     </row>
     <row r="66">
@@ -960,7 +960,7 @@
         <v>1664</v>
       </c>
       <c r="B66" t="n">
-        <v>4377164500.889189</v>
+        <v>6125424478.70354</v>
       </c>
     </row>
     <row r="67">
@@ -968,7 +968,7 @@
         <v>1665</v>
       </c>
       <c r="B67" t="n">
-        <v>4387563121.718515</v>
+        <v>6139765610.272369</v>
       </c>
     </row>
     <row r="68">
@@ -976,7 +976,7 @@
         <v>1666</v>
       </c>
       <c r="B68" t="n">
-        <v>4398084663.227394</v>
+        <v>6154270077.504341</v>
       </c>
     </row>
     <row r="69">
@@ -984,7 +984,7 @@
         <v>1667</v>
       </c>
       <c r="B69" t="n">
-        <v>4408730082.243337</v>
+        <v>6168938924.087152</v>
       </c>
     </row>
     <row r="70">
@@ -992,7 +992,7 @@
         <v>1668</v>
       </c>
       <c r="B70" t="n">
-        <v>4419500334.043244</v>
+        <v>6183773184.198782</v>
       </c>
     </row>
     <row r="71">
@@ -1000,7 +1000,7 @@
         <v>1669</v>
       </c>
       <c r="B71" t="n">
-        <v>4430396372.879825</v>
+        <v>6198773883.271784</v>
       </c>
     </row>
     <row r="72">
@@ -1008,7 +1008,7 @@
         <v>1670</v>
       </c>
       <c r="B72" t="n">
-        <v>4441419152.576808</v>
+        <v>6213942038.868247</v>
       </c>
     </row>
     <row r="73">
@@ -1016,7 +1016,7 @@
         <v>1671</v>
       </c>
       <c r="B73" t="n">
-        <v>4452569627.195244</v>
+        <v>6229278661.669183</v>
       </c>
     </row>
     <row r="74">
@@ -1024,7 +1024,7 @@
         <v>1672</v>
       </c>
       <c r="B74" t="n">
-        <v>4463848751.773077</v>
+        <v>6244784756.581873</v>
       </c>
     </row>
     <row r="75">
@@ -1032,7 +1032,7 @@
         <v>1673</v>
       </c>
       <c r="B75" t="n">
-        <v>4475257483.140097</v>
+        <v>6260461323.968473</v>
       </c>
     </row>
     <row r="76">
@@ -1040,7 +1040,7 @@
         <v>1674</v>
       </c>
       <c r="B76" t="n">
-        <v>4486796780.810164</v>
+        <v>6276309360.999177</v>
       </c>
     </row>
     <row r="77">
@@ -1048,7 +1048,7 @@
         <v>1675</v>
       </c>
       <c r="B77" t="n">
-        <v>4498467607.952492</v>
+        <v>6292329863.132556</v>
       </c>
     </row>
     <row r="78">
@@ -1056,7 +1056,7 @@
         <v>1676</v>
       </c>
       <c r="B78" t="n">
-        <v>4510270932.443622</v>
+        <v>6308523825.725808</v>
       </c>
     </row>
     <row r="79">
@@ -1064,7 +1064,7 @@
         <v>1677</v>
       </c>
       <c r="B79" t="n">
-        <v>4522207728.00141</v>
+        <v>6324892245.777244</v>
       </c>
     </row>
     <row r="80">
@@ -1072,7 +1072,7 @@
         <v>1678</v>
       </c>
       <c r="B80" t="n">
-        <v>4534278975.402403</v>
+        <v>6341436123.802833</v>
       </c>
     </row>
     <row r="81">
@@ -1080,7 +1080,7 @@
         <v>1679</v>
       </c>
       <c r="B81" t="n">
-        <v>4546485663.783437</v>
+        <v>6358156465.848569</v>
       </c>
     </row>
     <row r="82">
@@ -1088,7 +1088,7 @@
         <v>1680</v>
       </c>
       <c r="B82" t="n">
-        <v>4558828792.028397</v>
+        <v>6375054285.639804</v>
       </c>
     </row>
     <row r="83">
@@ -1096,7 +1096,7 @@
         <v>1681</v>
       </c>
       <c r="B83" t="n">
-        <v>4571309370.240572</v>
+        <v>6392130606.868525</v>
       </c>
     </row>
     <row r="84">
@@ -1104,7 +1104,7 @@
         <v>1682</v>
       </c>
       <c r="B84" t="n">
-        <v>4583928421.301009</v>
+        <v>6409386465.61899</v>
       </c>
     </row>
     <row r="85">
@@ -1112,7 +1112,7 @@
         <v>1683</v>
       </c>
       <c r="B85" t="n">
-        <v>4596686982.512836</v>
+        <v>6426822912.931803</v>
       </c>
     </row>
     <row r="86">
@@ -1120,7 +1120,7 @@
         <v>1684</v>
       </c>
       <c r="B86" t="n">
-        <v>4609586107.331373</v>
+        <v>6444441017.506023</v>
       </c>
     </row>
     <row r="87">
@@ -1128,7 +1128,7 @@
         <v>1685</v>
       </c>
       <c r="B87" t="n">
-        <v>4622626867.179482</v>
+        <v>6462241868.538474</v>
       </c>
     </row>
     <row r="88">
@@ -1136,7 +1136,7 @@
         <v>1686</v>
       </c>
       <c r="B88" t="n">
-        <v>4635810353.347436</v>
+        <v>6480226578.698944</v>
       </c>
     </row>
     <row r="89">
@@ -1144,7 +1144,7 @@
         <v>1687</v>
       </c>
       <c r="B89" t="n">
-        <v>4649137678.976168</v>
+        <v>6498396287.239534</v>
       </c>
     </row>
     <row r="90">
@@ -1152,7 +1152,7 @@
         <v>1688</v>
       </c>
       <c r="B90" t="n">
-        <v>4662609981.122483</v>
+        <v>6516752163.235802</v>
       </c>
     </row>
     <row r="91">
@@ -1160,7 +1160,7 @@
         <v>1689</v>
       </c>
       <c r="B91" t="n">
-        <v>4676228422.904608</v>
+        <v>6535295408.956882</v>
       </c>
     </row>
     <row r="92">
@@ -1168,7 +1168,7 @@
         <v>1690</v>
       </c>
       <c r="B92" t="n">
-        <v>4689994195.726005</v>
+        <v>6554027263.361429</v>
       </c>
     </row>
     <row r="93">
@@ -1176,7 +1176,7 @@
         <v>1691</v>
       </c>
       <c r="B93" t="n">
-        <v>4703908521.575109</v>
+        <v>6572949005.71537</v>
       </c>
     </row>
     <row r="94">
@@ -1184,7 +1184,7 @@
         <v>1692</v>
       </c>
       <c r="B94" t="n">
-        <v>4717972655.398378</v>
+        <v>6592061959.327295</v>
       </c>
     </row>
     <row r="95">
@@ -1192,7 +1192,7 @@
         <v>1693</v>
       </c>
       <c r="B95" t="n">
-        <v>4732187887.5436</v>
+        <v>6611367495.39644</v>
       </c>
     </row>
     <row r="96">
@@ -1200,7 +1200,7 @@
         <v>1694</v>
       </c>
       <c r="B96" t="n">
-        <v>4746555546.270261</v>
+        <v>6630867036.968039</v>
       </c>
     </row>
     <row r="97">
@@ -1208,7 +1208,7 @@
         <v>1695</v>
       </c>
       <c r="B97" t="n">
-        <v>4761077000.323194</v>
+        <v>6650562062.989954</v>
       </c>
     </row>
     <row r="98">
@@ -1216,7 +1216,7 @@
         <v>1696</v>
       </c>
       <c r="B98" t="n">
-        <v>4775753661.565739</v>
+        <v>6670454112.464276</v>
       </c>
     </row>
     <row r="99">
@@ -1224,7 +1224,7 @@
         <v>1697</v>
       </c>
       <c r="B99" t="n">
-        <v>4790586987.66797</v>
+        <v>6690544788.686826</v>
       </c>
     </row>
     <row r="100">
@@ -1232,7 +1232,7 @@
         <v>1698</v>
       </c>
       <c r="B100" t="n">
-        <v>4805578484.845595</v>
+        <v>6710835763.567209</v>
       </c>
     </row>
     <row r="101">
@@ -1240,7 +1240,7 @@
         <v>1699</v>
       </c>
       <c r="B101" t="n">
-        <v>4820729710.644517</v>
+        <v>6731328782.021335</v>
       </c>
     </row>
     <row r="102">
@@ -1248,7 +1248,7 @@
         <v>1700</v>
       </c>
       <c r="B102" t="n">
-        <v>4836042276.765928</v>
+        <v>6752025666.42809</v>
       </c>
     </row>
     <row r="103">
@@ -1256,7 +1256,7 @@
         <v>1701</v>
       </c>
       <c r="B103" t="n">
-        <v>4851517851.92656</v>
+        <v>6772928321.141212</v>
       </c>
     </row>
     <row r="104">
@@ -1264,7 +1264,7 @@
         <v>1702</v>
       </c>
       <c r="B104" t="n">
-        <v>4867158164.748236</v>
+        <v>6794038737.047013</v>
       </c>
     </row>
     <row r="105">
@@ -1272,7 +1272,7 @@
         <v>1703</v>
       </c>
       <c r="B105" t="n">
-        <v>4882965006.670876</v>
+        <v>6815358996.158221</v>
       </c>
     </row>
     <row r="106">
@@ -1280,7 +1280,7 @@
         <v>1704</v>
       </c>
       <c r="B106" t="n">
-        <v>4898940234.882616</v>
+        <v>6836891276.233833</v>
       </c>
     </row>
     <row r="107">
@@ -1288,7 +1288,7 @@
         <v>1705</v>
       </c>
       <c r="B107" t="n">
-        <v>4915085775.260701</v>
+        <v>6858637855.414363</v>
       </c>
     </row>
     <row r="108">
@@ -1296,7 +1296,7 @@
         <v>1706</v>
       </c>
       <c r="B108" t="n">
-        <v>4931403625.316405</v>
+        <v>6880601116.861647</v>
       </c>
     </row>
     <row r="109">
@@ -1304,7 +1304,7 @@
         <v>1707</v>
       </c>
       <c r="B109" t="n">
-        <v>4947895857.137186</v>
+        <v>6902783553.392105</v>
       </c>
     </row>
     <row r="110">
@@ -1312,7 +1312,7 @@
         <v>1708</v>
       </c>
       <c r="B110" t="n">
-        <v>4964564620.319015</v>
+        <v>6925187772.091942</v>
       </c>
     </row>
     <row r="111">
@@ -1320,7 +1320,7 @@
         <v>1709</v>
       </c>
       <c r="B111" t="n">
-        <v>4981412144.881784</v>
+        <v>6947816498.902568</v>
       </c>
     </row>
     <row r="112">
@@ -1328,7 +1328,7 @@
         <v>1710</v>
       </c>
       <c r="B112" t="n">
-        <v>4998440744.160418</v>
+        <v>6970672583.164475</v>
       </c>
     </row>
     <row r="113">
@@ -1336,7 +1336,7 @@
         <v>1711</v>
       </c>
       <c r="B113" t="n">
-        <v>5015652817.664376</v>
+        <v>6993759002.107406</v>
       </c>
     </row>
     <row r="114">
@@ -1344,7 +1344,7 @@
         <v>1712</v>
       </c>
       <c r="B114" t="n">
-        <v>5033050853.898059</v>
+        <v>7017078865.274588</v>
       </c>
     </row>
     <row r="115">
@@ -1352,7 +1352,7 @@
         <v>1713</v>
       </c>
       <c r="B115" t="n">
-        <v>5050637433.134615</v>
+        <v>7040635418.869035</v>
       </c>
     </row>
     <row r="116">
@@ -1360,7 +1360,7 @@
         <v>1714</v>
       </c>
       <c r="B116" t="n">
-        <v>5068415230.135619</v>
+        <v>7064432050.009303</v>
       </c>
     </row>
     <row r="117">
@@ -1368,7 +1368,7 @@
         <v>1715</v>
       </c>
       <c r="B117" t="n">
-        <v>5086387016.80909</v>
+        <v>7088472290.882611</v>
       </c>
     </row>
     <row r="118">
@@ -1376,7 +1376,7 @@
         <v>1716</v>
       </c>
       <c r="B118" t="n">
-        <v>5104555664.798429</v>
+        <v>7112759822.783186</v>
       </c>
     </row>
     <row r="119">
@@ -1384,7 +1384,7 @@
         <v>1717</v>
       </c>
       <c r="B119" t="n">
-        <v>5122924147.994785</v>
+        <v>7137298480.023464</v>
       </c>
     </row>
     <row r="120">
@@ -1392,7 +1392,7 @@
         <v>1718</v>
       </c>
       <c r="B120" t="n">
-        <v>5141495544.96559</v>
+        <v>7162092253.706442</v>
       </c>
     </row>
     <row r="121">
@@ -1400,7 +1400,7 @@
         <v>1719</v>
       </c>
       <c r="B121" t="n">
-        <v>5160273041.292058</v>
+        <v>7187145295.347303</v>
       </c>
     </row>
     <row r="122">
@@ -1408,7 +1408,7 @@
         <v>1720</v>
       </c>
       <c r="B122" t="n">
-        <v>5179259931.808596</v>
+        <v>7212461920.332855</v>
       </c>
     </row>
     <row r="123">
@@ -1416,7 +1416,7 @@
         <v>1721</v>
       </c>
       <c r="B123" t="n">
-        <v>5198459622.737309</v>
+        <v>7238046611.207583</v>
       </c>
     </row>
     <row r="124">
@@ -1424,7 +1424,7 @@
         <v>1722</v>
       </c>
       <c r="B124" t="n">
-        <v>5217875633.710997</v>
+        <v>7263904020.775439</v>
       </c>
     </row>
     <row r="125">
@@ -1432,7 +1432,7 @@
         <v>1723</v>
       </c>
       <c r="B125" t="n">
-        <v>5237511599.678171</v>
+        <v>7290038975.007002</v>
       </c>
     </row>
     <row r="126">
@@ -1440,7 +1440,7 @@
         <v>1724</v>
       </c>
       <c r="B126" t="n">
-        <v>5257371272.6841</v>
+        <v>7316456475.74193</v>
       </c>
     </row>
     <row r="127">
@@ -1448,7 +1448,7 @@
         <v>1725</v>
       </c>
       <c r="B127" t="n">
-        <v>5277458523.522051</v>
+        <v>7343161703.177267</v>
       </c>
     </row>
     <row r="128">
@@ -1456,7 +1456,7 @@
         <v>1726</v>
       </c>
       <c r="B128" t="n">
-        <v>5297777343.249209</v>
+        <v>7370160018.13259</v>
       </c>
     </row>
     <row r="129">
@@ -1464,7 +1464,7 @@
         <v>1727</v>
       </c>
       <c r="B129" t="n">
-        <v>5318331844.56228</v>
+        <v>7397456964.083721</v>
       </c>
     </row>
     <row r="130">
@@ -1472,7 +1472,7 @@
         <v>1728</v>
       </c>
       <c r="B130" t="n">
-        <v>5339126263.02802</v>
+        <v>7425058268.957108</v>
       </c>
     </row>
     <row r="131">
@@ -1480,7 +1480,7 @@
         <v>1729</v>
       </c>
       <c r="B131" t="n">
-        <v>5360164958.164344</v>
+        <v>7452969846.677971</v>
       </c>
     </row>
     <row r="132">
@@ -1488,7 +1488,7 @@
         <v>1730</v>
       </c>
       <c r="B132" t="n">
-        <v>5381452414.368292</v>
+        <v>7481197798.465709</v>
       </c>
     </row>
     <row r="133">
@@ -1496,7 +1496,7 @@
         <v>1731</v>
       </c>
       <c r="B133" t="n">
-        <v>5402993241.687353</v>
+        <v>7509748413.871091</v>
       </c>
     </row>
     <row r="134">
@@ -1504,7 +1504,7 @@
         <v>1732</v>
       </c>
       <c r="B134" t="n">
-        <v>5424792176.431252</v>
+        <v>7538628171.550242</v>
       </c>
     </row>
     <row r="135">
@@ -1512,7 +1512,7 @@
         <v>1733</v>
       </c>
       <c r="B135" t="n">
-        <v>5446854081.621867</v>
+        <v>7567843739.771581</v>
       </c>
     </row>
     <row r="136">
@@ -1520,7 +1520,7 @@
         <v>1734</v>
       </c>
       <c r="B136" t="n">
-        <v>5469183947.279304</v>
+        <v>7597401976.652308</v>
       </c>
     </row>
     <row r="137">
@@ -1528,7 +1528,7 @@
         <v>1735</v>
       </c>
       <c r="B137" t="n">
-        <v>5491786890.542826</v>
+        <v>7627309930.122412</v>
       </c>
     </row>
     <row r="138">
@@ -1536,7 +1536,7 @@
         <v>1736</v>
       </c>
       <c r="B138" t="n">
-        <v>5514668155.625872</v>
+        <v>7657574837.614548</v>
       </c>
     </row>
     <row r="139">
@@ -1544,7 +1544,7 @@
         <v>1737</v>
       </c>
       <c r="B139" t="n">
-        <v>5537833113.604864</v>
+        <v>7688204125.479363</v>
       </c>
     </row>
     <row r="140">
@@ -1552,7 +1552,7 @@
         <v>1738</v>
       </c>
       <c r="B140" t="n">
-        <v>5561287262.042205</v>
+        <v>7719205408.126725</v>
       </c>
     </row>
     <row r="141">
@@ -1560,7 +1560,7 @@
         <v>1739</v>
       </c>
       <c r="B141" t="n">
-        <v>5585036224.444339</v>
+        <v>7750586486.894206</v>
       </c>
     </row>
     <row r="142">
@@ -1568,7 +1568,7 @@
         <v>1740</v>
       </c>
       <c r="B142" t="n">
-        <v>5609085749.556471</v>
+        <v>7782355348.645053</v>
       </c>
     </row>
     <row r="143">
@@ -1576,7 +1576,7 @@
         <v>1741</v>
       </c>
       <c r="B143" t="n">
-        <v>5633441710.495936</v>
+        <v>7814520164.099005</v>
       </c>
     </row>
     <row r="144">
@@ -1584,7 +1584,7 @@
         <v>1742</v>
       </c>
       <c r="B144" t="n">
-        <v>5658110103.727001</v>
+        <v>7847089285.900163</v>
       </c>
     </row>
     <row r="145">
@@ -1592,7 +1592,7 @@
         <v>1743</v>
       </c>
       <c r="B145" t="n">
-        <v>5683097047.88034</v>
+        <v>7880071246.42705</v>
       </c>
     </row>
     <row r="146">
@@ -1600,7 +1600,7 @@
         <v>1744</v>
       </c>
       <c r="B146" t="n">
-        <v>5708408782.421062</v>
+        <v>7913474755.351006</v>
       </c>
     </row>
     <row r="147">
@@ -1608,7 +1608,7 @@
         <v>1745</v>
       </c>
       <c r="B147" t="n">
-        <v>5734051666.169773</v>
+        <v>7947308696.949965</v>
       </c>
     </row>
     <row r="148">
@@ -1616,7 +1616,7 @@
         <v>1746</v>
       </c>
       <c r="B148" t="n">
-        <v>5760032175.68162</v>
+        <v>7981582127.185649</v>
       </c>
     </row>
     <row r="149">
@@ -1624,7 +1624,7 @@
         <v>1747</v>
       </c>
       <c r="B149" t="n">
-        <v>5786356903.488984</v>
+        <v>8016304270.552961</v>
       </c>
     </row>
     <row r="150">
@@ -1632,7 +1632,7 @@
         <v>1748</v>
       </c>
       <c r="B150" t="n">
-        <v>5813032556.213928</v>
+        <v>8051484516.711493</v>
       </c>
     </row>
     <row r="151">
@@ -1640,7 +1640,7 @@
         <v>1749</v>
       </c>
       <c r="B151" t="n">
-        <v>5840065952.557017</v>
+        <v>8087132416.909621</v>
       </c>
     </row>
     <row r="152">
@@ -1648,7 +1648,7 @@
         <v>1750</v>
       </c>
       <c r="B152" t="n">
-        <v>5867464021.169802</v>
+        <v>8123257680.212801</v>
       </c>
     </row>
     <row r="153">
@@ -1656,7 +1656,7 @@
         <v>1751</v>
       </c>
       <c r="B153" t="n">
-        <v>5895233798.418499</v>
+        <v>8159870169.548183</v>
       </c>
     </row>
     <row r="154">
@@ -1664,7 +1664,7 @@
         <v>1752</v>
       </c>
       <c r="B154" t="n">
-        <v>5923382426.047156</v>
+        <v>8196979897.578713</v>
       </c>
     </row>
     <row r="155">
@@ -1672,7 +1672,7 @@
         <v>1753</v>
       </c>
       <c r="B155" t="n">
-        <v>5951917148.748844</v>
+        <v>8234597022.420341</v>
       </c>
     </row>
     <row r="156">
@@ -1680,7 +1680,7 @@
         <v>1754</v>
       </c>
       <c r="B156" t="n">
-        <v>5980845311.653858</v>
+        <v>8272731843.216794</v>
       </c>
     </row>
     <row r="157">
@@ -1688,7 +1688,7 @@
         <v>1755</v>
       </c>
       <c r="B157" t="n">
-        <v>6010174357.744442</v>
+        <v>8311394795.58707</v>
       </c>
     </row>
     <row r="158">
@@ -1696,7 +1696,7 @@
         <v>1756</v>
       </c>
       <c r="B158" t="n">
-        <v>6039911825.205812</v>
+        <v>8350596446.961175</v>
       </c>
     </row>
     <row r="159">
@@ -1704,7 +1704,7 @@
         <v>1757</v>
       </c>
       <c r="B159" t="n">
-        <v>6070065344.723519</v>
+        <v>8390347491.820385</v>
       </c>
     </row>
     <row r="160">
@@ -1712,7 +1712,7 @@
         <v>1758</v>
       </c>
       <c r="B160" t="n">
-        <v>6100642636.737751</v>
+        <v>8430658746.858727</v>
       </c>
     </row>
     <row r="161">
@@ -1720,7 +1720,7 @@
         <v>1759</v>
       </c>
       <c r="B161" t="n">
-        <v>6131651508.66516</v>
+        <v>8471541146.08272</v>
       </c>
     </row>
     <row r="162">
@@ -1728,7 +1728,7 @@
         <v>1760</v>
       </c>
       <c r="B162" t="n">
-        <v>6163099852.099203</v>
+        <v>8513005735.86698</v>
       </c>
     </row>
     <row r="163">
@@ -1736,7 +1736,7 @@
         <v>1761</v>
       </c>
       <c r="B163" t="n">
-        <v>6194995640.000231</v>
+        <v>8555063669.983461</v>
       </c>
     </row>
     <row r="164">
@@ -1744,7 +1744,7 @@
         <v>1762</v>
       </c>
       <c r="B164" t="n">
-        <v>6227346923.886574</v>
+        <v>8597726204.622427</v>
       </c>
     </row>
     <row r="165">
@@ -1752,7 +1752,7 @@
         <v>1763</v>
       </c>
       <c r="B165" t="n">
-        <v>6260161831.038126</v>
+        <v>8641004693.423506</v>
       </c>
     </row>
     <row r="166">
@@ -1760,7 +1760,7 @@
         <v>1764</v>
       </c>
       <c r="B166" t="n">
-        <v>6293448561.723978</v>
+        <v>8684910582.535139</v>
       </c>
     </row>
     <row r="167">
@@ -1768,7 +1768,7 @@
         <v>1765</v>
       </c>
       <c r="B167" t="n">
-        <v>6327215386.465811</v>
+        <v>8729455405.721209</v>
       </c>
     </row>
     <row r="168">
@@ -1776,7 +1776,7 @@
         <v>1766</v>
       </c>
       <c r="B168" t="n">
-        <v>6361470643.348583</v>
+        <v>8774650779.533131</v>
       </c>
     </row>
     <row r="169">
@@ -1784,7 +1784,7 @@
         <v>1767</v>
       </c>
       <c r="B169" t="n">
-        <v>6396222735.39025</v>
+        <v>8820508398.566168</v>
       </c>
     </row>
     <row r="170">
@@ -1792,7 +1792,7 @@
         <v>1768</v>
       </c>
       <c r="B170" t="n">
-        <v>6431480127.982068</v>
+        <v>8867040030.818295</v>
       </c>
     </row>
     <row r="171">
@@ -1800,7 +1800,7 @@
         <v>1769</v>
       </c>
       <c r="B171" t="n">
-        <v>6467251346.411053</v>
+        <v>8914257513.169916</v>
       </c>
     </row>
     <row r="172">
@@ -1808,7 +1808,7 @@
         <v>1770</v>
       </c>
       <c r="B172" t="n">
-        <v>6503544973.475891</v>
+        <v>8962172747.002628</v>
       </c>
     </row>
     <row r="173">
@@ -1816,7 +1816,7 @@
         <v>1771</v>
       </c>
       <c r="B173" t="n">
-        <v>6540369647.207685</v>
+        <v>9010797693.974688</v>
       </c>
     </row>
     <row r="174">
@@ -1824,7 +1824,7 @@
         <v>1772</v>
       </c>
       <c r="B174" t="n">
-        <v>6577734058.706507</v>
+        <v>9060144371.970903</v>
       </c>
     </row>
     <row r="175">
@@ -1832,7 +1832,7 @@
         <v>1773</v>
       </c>
       <c r="B175" t="n">
-        <v>6615646950.104596</v>
+        <v>9110224851.243931</v>
       </c>
     </row>
     <row r="176">
@@ -1840,7 +1840,7 @@
         <v>1774</v>
       </c>
       <c r="B176" t="n">
-        <v>6654117112.66689</v>
+        <v>9161051250.763731</v>
       </c>
     </row>
     <row r="177">
@@ -1848,7 +1848,7 @@
         <v>1775</v>
       </c>
       <c r="B177" t="n">
-        <v>6693153385.039104</v>
+        <v>9212635734.791605</v>
       </c>
     </row>
     <row r="178">
@@ -1856,7 +1856,7 @@
         <v>1776</v>
       </c>
       <c r="B178" t="n">
-        <v>6732764651.653472</v>
+        <v>9264990509.694309</v>
       </c>
     </row>
     <row r="179">
@@ -1864,7 +1864,7 @@
         <v>1777</v>
       </c>
       <c r="B179" t="n">
-        <v>6772959841.301752</v>
+        <v>9318127821.013659</v>
       </c>
     </row>
     <row r="180">
@@ -1872,7 +1872,7 @@
         <v>1778</v>
       </c>
       <c r="B180" t="n">
-        <v>6813747925.884893</v>
+        <v>9372059950.806034</v>
       </c>
     </row>
     <row r="181">
@@ -1880,7 +1880,7 @@
         <v>1779</v>
       </c>
       <c r="B181" t="n">
-        <v>6855137919.348271</v>
+        <v>9426799215.265953</v>
       </c>
     </row>
     <row r="182">
@@ -1888,7 +1888,7 @@
         <v>1780</v>
       </c>
       <c r="B182" t="n">
-        <v>6897138876.811063</v>
+        <v>9482357962.646799</v>
       </c>
     </row>
     <row r="183">
@@ -1896,7 +1896,7 @@
         <v>1781</v>
       </c>
       <c r="B183" t="n">
-        <v>6939759893.897919</v>
+        <v>9538748571.491444</v>
       </c>
     </row>
     <row r="184">
@@ -1904,7 +1904,7 @@
         <v>1782</v>
       </c>
       <c r="B184" t="n">
-        <v>6983010106.280552</v>
+        <v>9595983449.184563</v>
       </c>
     </row>
     <row r="185">
@@ -1912,7 +1912,7 @@
         <v>1783</v>
       </c>
       <c r="B185" t="n">
-        <v>7026898689.436591</v>
+        <v>9654075030.837765</v>
       </c>
     </row>
     <row r="186">
@@ -1920,7 +1920,7 @@
         <v>1784</v>
       </c>
       <c r="B186" t="n">
-        <v>7071434858.63244</v>
+        <v>9713035778.517942</v>
       </c>
     </row>
     <row r="187">
@@ -1928,7 +1928,7 @@
         <v>1785</v>
       </c>
       <c r="B187" t="n">
-        <v>7116627869.136415</v>
+        <v>9772878180.828272</v>
       </c>
     </row>
     <row r="188">
@@ -1936,7 +1936,7 @@
         <v>1786</v>
       </c>
       <c r="B188" t="n">
-        <v>7162487016.668097</v>
+        <v>9833614752.850779</v>
       </c>
     </row>
     <row r="189">
@@ -1944,7 +1944,7 @@
         <v>1787</v>
       </c>
       <c r="B189" t="n">
-        <v>7209021638.08913</v>
+        <v>9895258036.458265</v>
       </c>
     </row>
     <row r="190">
@@ -1952,7 +1952,7 @@
         <v>1788</v>
       </c>
       <c r="B190" t="n">
-        <v>7256241112.340415</v>
+        <v>9957820601.002789</v>
       </c>
     </row>
     <row r="191">
@@ -1960,7 +1960,7 @@
         <v>1789</v>
       </c>
       <c r="B191" t="n">
-        <v>7304154861.630035</v>
+        <v>10021315044.38704</v>
       </c>
     </row>
     <row r="192">
@@ -1968,7 +1968,7 @@
         <v>1790</v>
       </c>
       <c r="B192" t="n">
-        <v>7352772352.875732</v>
+        <v>10085753994.52392</v>
       </c>
     </row>
     <row r="193">
@@ -1976,7 +1976,7 @@
         <v>1791</v>
       </c>
       <c r="B193" t="n">
-        <v>7402103099.405429</v>
+        <v>10151150111.18931</v>
       </c>
     </row>
     <row r="194">
@@ -1984,7 +1984,7 @@
         <v>1792</v>
       </c>
       <c r="B194" t="n">
-        <v>7452156662.918626</v>
+        <v>10217516088.27148</v>
       </c>
     </row>
     <row r="195">
@@ -1992,7 +1992,7 @@
         <v>1793</v>
       </c>
       <c r="B195" t="n">
-        <v>7502942655.711089</v>
+        <v>10284864656.42053</v>
       </c>
     </row>
     <row r="196">
@@ -2000,7 +2000,7 @@
         <v>1794</v>
       </c>
       <c r="B196" t="n">
-        <v>7554470743.16485</v>
+        <v>10353208586.09996</v>
       </c>
     </row>
     <row r="197">
@@ -2008,7 +2008,7 @@
         <v>1795</v>
       </c>
       <c r="B197" t="n">
-        <v>7606750646.504981</v>
+        <v>10422560691.04197</v>
       </c>
     </row>
     <row r="198">
@@ -2016,7 +2016,7 @@
         <v>1796</v>
       </c>
       <c r="B198" t="n">
-        <v>7659792145.824192</v>
+        <v>10492933832.10713</v>
       </c>
     </row>
     <row r="199">
@@ -2024,7 +2024,7 @@
         <v>1797</v>
       </c>
       <c r="B199" t="n">
-        <v>7713605083.375926</v>
+        <v>10564340921.54869</v>
       </c>
     </row>
     <row r="200">
@@ -2032,7 +2032,7 @@
         <v>1798</v>
       </c>
       <c r="B200" t="n">
-        <v>7768199367.136084</v>
+        <v>10636794927.68046</v>
       </c>
     </row>
     <row r="201">
@@ -2040,7 +2040,7 @@
         <v>1799</v>
       </c>
       <c r="B201" t="n">
-        <v>7823584974.633306</v>
+        <v>10710308879.94752</v>
       </c>
     </row>
     <row r="202">
@@ -2048,7 +2048,7 @@
         <v>1800</v>
       </c>
       <c r="B202" t="n">
-        <v>7879771957.047138</v>
+        <v>10784895874.39713</v>
       </c>
     </row>
     <row r="203">
@@ -2056,7 +2056,7 @@
         <v>1801</v>
       </c>
       <c r="B203" t="n">
-        <v>7936770443.573191</v>
+        <v>10860569079.5478</v>
       </c>
     </row>
     <row r="204">
@@ -2064,7 +2064,7 @@
         <v>1802</v>
       </c>
       <c r="B204" t="n">
-        <v>7994590646.052714</v>
+        <v>10937341742.65084</v>
       </c>
     </row>
     <row r="205">
@@ -2072,7 +2072,7 @@
         <v>1803</v>
       </c>
       <c r="B205" t="n">
-        <v>8053242863.868817</v>
+        <v>11015227196.34711</v>
       </c>
     </row>
     <row r="206">
@@ -2080,7 +2080,7 @@
         <v>1804</v>
       </c>
       <c r="B206" t="n">
-        <v>8112737489.103746</v>
+        <v>11094238865.70863</v>
       </c>
     </row>
     <row r="207">
@@ -2088,7 +2088,7 @@
         <v>1805</v>
       </c>
       <c r="B207" t="n">
-        <v>8173085011.956309</v>
+        <v>11174390275.66256</v>
       </c>
     </row>
     <row r="208">
@@ -2096,7 +2096,7 @@
         <v>1806</v>
       </c>
       <c r="B208" t="n">
-        <v>8234296026.416988</v>
+        <v>11255695058.79209</v>
       </c>
     </row>
     <row r="209">
@@ -2104,7 +2104,7 @@
         <v>1807</v>
       </c>
       <c r="B209" t="n">
-        <v>8296381236.198106</v>
+        <v>11338166963.50904</v>
       </c>
     </row>
     <row r="210">
@@ -2112,7 +2112,7 @@
         <v>1808</v>
       </c>
       <c r="B210" t="n">
-        <v>8359351460.916198</v>
+        <v>11421819862.59215</v>
       </c>
     </row>
     <row r="211">
@@ -2120,7 +2120,7 @@
         <v>1809</v>
       </c>
       <c r="B211" t="n">
-        <v>8423217642.523632</v>
+        <v>11506667762.08496</v>
       </c>
     </row>
     <row r="212">
@@ -2128,7 +2128,7 @@
         <v>1810</v>
       </c>
       <c r="B212" t="n">
-        <v>8487990851.986194</v>
+        <v>11592724810.54681</v>
       </c>
     </row>
     <row r="213">
@@ -2136,7 +2136,7 @@
         <v>1811</v>
       </c>
       <c r="B213" t="n">
-        <v>8553682296.203394</v>
+        <v>11680005308.65032</v>
       </c>
     </row>
     <row r="214">
@@ -2144,7 +2144,7 @@
         <v>1812</v>
       </c>
       <c r="B214" t="n">
-        <v>8620303325.168047</v>
+        <v>11768523719.1184</v>
       </c>
     </row>
     <row r="215">
@@ -2152,7 +2152,7 @@
         <v>1813</v>
       </c>
       <c r="B215" t="n">
-        <v>8687865439.361635</v>
+        <v>11858294676.99384</v>
       </c>
     </row>
     <row r="216">
@@ -2160,7 +2160,7 @@
         <v>1814</v>
       </c>
       <c r="B216" t="n">
-        <v>8756380297.381802</v>
+        <v>11949333000.23436</v>
       </c>
     </row>
     <row r="217">
@@ -2168,7 +2168,7 @@
         <v>1815</v>
       </c>
       <c r="B217" t="n">
-        <v>8825859723.798399</v>
+        <v>12041653700.62558</v>
       </c>
     </row>
     <row r="218">
@@ -2176,7 +2176,7 @@
         <v>1816</v>
       </c>
       <c r="B218" t="n">
-        <v>8896315717.23443</v>
+        <v>12135271995.00499</v>
       </c>
     </row>
     <row r="219">
@@ -2184,7 +2184,7 @@
         <v>1817</v>
       </c>
       <c r="B219" t="n">
-        <v>8967760458.668142</v>
+        <v>12230203316.78925</v>
       </c>
     </row>
     <row r="220">
@@ -2192,7 +2192,7 @@
         <v>1818</v>
       </c>
       <c r="B220" t="n">
-        <v>9040206319.952604</v>
+        <v>12326463327.79764</v>
       </c>
     </row>
     <row r="221">
@@ -2200,7 +2200,7 @@
         <v>1819</v>
       </c>
       <c r="B221" t="n">
-        <v>9113665872.549313</v>
+        <v>12424067930.36437</v>
       </c>
     </row>
     <row r="222">
@@ -2208,7 +2208,7 @@
         <v>1820</v>
       </c>
       <c r="B222" t="n">
-        <v>9188151896.47183</v>
+        <v>12523033279.73229</v>
       </c>
     </row>
     <row r="223">
@@ -2216,7 +2216,7 @@
         <v>1821</v>
       </c>
       <c r="B223" t="n">
-        <v>9263677389.436237</v>
+        <v>12623375796.72113</v>
       </c>
     </row>
     <row r="224">
@@ -2224,7 +2224,7 @@
         <v>1822</v>
       </c>
       <c r="B224" t="n">
-        <v>9340255576.214672</v>
+        <v>12725112180.66278</v>
       </c>
     </row>
     <row r="225">
@@ -2232,7 +2232,7 @@
         <v>1823</v>
       </c>
       <c r="B225" t="n">
-        <v>9417899918.18869</v>
+        <v>12828259422.59711</v>
       </c>
     </row>
     <row r="226">
@@ -2240,7 +2240,7 @@
         <v>1824</v>
       </c>
       <c r="B226" t="n">
-        <v>9496624123.09874</v>
+        <v>12932834818.72097</v>
       </c>
     </row>
     <row r="227">
@@ -2248,7 +2248,7 @@
         <v>1825</v>
       </c>
       <c r="B227" t="n">
-        <v>9576442154.986891</v>
+        <v>13038855984.08409</v>
       </c>
     </row>
     <row r="228">
@@ -2256,7 +2256,7 @@
         <v>1826</v>
       </c>
       <c r="B228" t="n">
-        <v>9657368244.32922</v>
+        <v>13146340866.52509</v>
       </c>
     </row>
     <row r="229">
@@ -2264,7 +2264,7 @@
         <v>1827</v>
       </c>
       <c r="B229" t="n">
-        <v>9739416898.354891</v>
+        <v>13255307760.84116</v>
       </c>
     </row>
     <row r="230">
@@ -2272,7 +2272,7 @@
         <v>1828</v>
       </c>
       <c r="B230" t="n">
-        <v>9822602911.548809</v>
+        <v>13365775323.18532</v>
       </c>
     </row>
     <row r="231">
@@ -2280,7 +2280,7 @@
         <v>1829</v>
       </c>
       <c r="B231" t="n">
-        <v>9906941376.334946</v>
+        <v>13477762585.68504</v>
       </c>
     </row>
     <row r="232">
@@ -2288,7 +2288,7 @@
         <v>1830</v>
       </c>
       <c r="B232" t="n">
-        <v>9992447693.937218</v>
+        <v>13591288971.27623</v>
       </c>
     </row>
     <row r="233">
@@ -2296,7 +2296,7 @@
         <v>1831</v>
       </c>
       <c r="B233" t="n">
-        <v>10079137585.41521</v>
+        <v>13706374308.74685</v>
       </c>
     </row>
     <row r="234">
@@ -2304,7 +2304,7 @@
         <v>1832</v>
       </c>
       <c r="B234" t="n">
-        <v>10167027102.87198</v>
+        <v>13823038847.98438</v>
       </c>
     </row>
     <row r="235">
@@ -2312,7 +2312,7 @@
         <v>1833</v>
       </c>
       <c r="B235" t="n">
-        <v>10256132640.83089</v>
+        <v>13941303275.42167</v>
       </c>
     </row>
     <row r="236">
@@ -2320,7 +2320,7 @@
         <v>1834</v>
       </c>
       <c r="B236" t="n">
-        <v>10346470947.77895</v>
+        <v>14061188729.6755</v>
       </c>
     </row>
     <row r="237">
@@ -2328,7 +2328,7 @@
         <v>1835</v>
       </c>
       <c r="B237" t="n">
-        <v>10438059137.87387</v>
+        <v>14182716817.37262</v>
       </c>
     </row>
     <row r="238">
@@ -2336,7 +2336,7 @@
         <v>1836</v>
       </c>
       <c r="B238" t="n">
-        <v>10530914702.81188</v>
+        <v>14305909629.15761</v>
       </c>
     </row>
     <row r="239">
@@ -2344,7 +2344,7 @@
         <v>1837</v>
       </c>
       <c r="B239" t="n">
-        <v>10625055523.8536</v>
+        <v>14430789755.87756</v>
       </c>
     </row>
     <row r="240">
@@ -2352,7 +2352,7 @@
         <v>1838</v>
       </c>
       <c r="B240" t="n">
-        <v>10720499884.00508</v>
+        <v>14557380304.93776</v>
       </c>
     </row>
     <row r="241">
@@ -2360,7 +2360,7 @@
         <v>1839</v>
       </c>
       <c r="B241" t="n">
-        <v>10817266480.35087</v>
+        <v>14685704916.82323</v>
       </c>
     </row>
     <row r="242">
@@ -2368,7 +2368,7 @@
         <v>1840</v>
       </c>
       <c r="B242" t="n">
-        <v>10915374436.5361</v>
+        <v>14815787781.78039</v>
       </c>
     </row>
     <row r="243">
@@ -2376,7 +2376,7 @@
         <v>1841</v>
       </c>
       <c r="B243" t="n">
-        <v>11014843315.39423</v>
+        <v>14947653656.65323</v>
       </c>
     </row>
     <row r="244">
@@ -2384,7 +2384,7 @@
         <v>1842</v>
       </c>
       <c r="B244" t="n">
-        <v>11115693131.71692</v>
+        <v>15081327881.86795</v>
       </c>
     </row>
     <row r="245">
@@ -2392,7 +2392,7 @@
         <v>1843</v>
       </c>
       <c r="B245" t="n">
-        <v>11217944365.16233</v>
+        <v>15216836398.56008</v>
       </c>
     </row>
     <row r="246">
@@ -2400,7 +2400,7 @@
         <v>1844</v>
       </c>
       <c r="B246" t="n">
-        <v>11321617973.29779</v>
+        <v>15354205765.83753</v>
       </c>
     </row>
     <row r="247">
@@ -2408,7 +2408,7 @@
         <v>1845</v>
       </c>
       <c r="B247" t="n">
-        <v>11426735404.77253</v>
+        <v>15493463178.17277</v>
       </c>
     </row>
     <row r="248">
@@ -2416,7 +2416,7 @@
         <v>1846</v>
       </c>
       <c r="B248" t="n">
-        <v>11533318612.61572</v>
+        <v>15634636482.91692</v>
       </c>
     </row>
     <row r="249">
@@ -2424,7 +2424,7 @@
         <v>1847</v>
       </c>
       <c r="B249" t="n">
-        <v>11641390067.65467</v>
+        <v>15777754197.92809</v>
       </c>
     </row>
     <row r="250">
@@ -2432,7 +2432,7 @@
         <v>1848</v>
       </c>
       <c r="B250" t="n">
-        <v>11750972772.04768</v>
+        <v>15922845529.30556</v>
       </c>
     </row>
     <row r="251">
@@ -2440,7 +2440,7 @@
         <v>1849</v>
       </c>
       <c r="B251" t="n">
-        <v>11862090272.92531</v>
+        <v>16069940389.22116</v>
       </c>
     </row>
     <row r="252">
@@ -2448,7 +2448,7 @@
         <v>1850</v>
       </c>
       <c r="B252" t="n">
-        <v>11974766676.13349</v>
+        <v>16219069413.83793</v>
       </c>
     </row>
     <row r="253">
@@ -2456,7 +2456,7 @@
         <v>1851</v>
       </c>
       <c r="B253" t="n">
-        <v>12089026660.07101</v>
+        <v>16370263981.30614</v>
       </c>
     </row>
     <row r="254">
@@ -2464,7 +2464,7 @@
         <v>1852</v>
       </c>
       <c r="B254" t="n">
-        <v>12204895489.61364</v>
+        <v>16523556229.82503</v>
       </c>
     </row>
     <row r="255">
@@ -2472,7 +2472,7 @@
         <v>1853</v>
       </c>
       <c r="B255" t="n">
-        <v>12322399030.11573</v>
+        <v>16678979075.75849</v>
       </c>
     </row>
     <row r="256">
@@ -2480,7 +2480,7 @@
         <v>1854</v>
       </c>
       <c r="B256" t="n">
-        <v>12441563761.48023</v>
+        <v>16836566231.79138</v>
       </c>
     </row>
     <row r="257">
@@ -2488,7 +2488,7 @@
         <v>1855</v>
       </c>
       <c r="B257" t="n">
-        <v>12562416792.28621</v>
+        <v>16996352225.11223</v>
       </c>
     </row>
     <row r="258">
@@ -2496,7 +2496,7 @@
         <v>1856</v>
       </c>
       <c r="B258" t="n">
-        <v>12684985873.96288</v>
+        <v>17158372415.60711</v>
       </c>
     </row>
     <row r="259">
@@ -2504,7 +2504,7 @@
         <v>1857</v>
       </c>
       <c r="B259" t="n">
-        <v>12809299414.99755</v>
+        <v>17322663014.04762</v>
       </c>
     </row>
     <row r="260">
@@ -2512,7 +2512,7 @@
         <v>1858</v>
       </c>
       <c r="B260" t="n">
-        <v>12935386495.16405</v>
+        <v>17489261100.2553</v>
       </c>
     </row>
     <row r="261">
@@ -2520,7 +2520,7 @@
         <v>1859</v>
       </c>
       <c r="B261" t="n">
-        <v>13063276879.75722</v>
+        <v>17658204641.22281</v>
       </c>
     </row>
     <row r="262">
@@ -2528,7 +2528,7 @@
         <v>1860</v>
       </c>
       <c r="B262" t="n">
-        <v>13193001033.81743</v>
+        <v>17829532509.17068</v>
       </c>
     </row>
     <row r="263">
@@ -2536,7 +2536,7 @@
         <v>1861</v>
       </c>
       <c r="B263" t="n">
-        <v>13324590136.32825</v>
+        <v>18003284499.51722</v>
       </c>
     </row>
     <row r="264">
@@ -2544,7 +2544,7 @@
         <v>1862</v>
       </c>
       <c r="B264" t="n">
-        <v>13458076094.36858</v>
+        <v>18179501348.73679</v>
       </c>
     </row>
     <row r="265">
@@ -2552,7 +2552,7 @@
         <v>1863</v>
       </c>
       <c r="B265" t="n">
-        <v>13593491557.19976</v>
+        <v>18358224752.08062</v>
       </c>
     </row>
     <row r="266">
@@ -2560,7 +2560,7 @@
         <v>1864</v>
       </c>
       <c r="B266" t="n">
-        <v>13730869930.26573</v>
+        <v>18539497381.13121</v>
       </c>
     </row>
     <row r="267">
@@ -2568,7 +2568,7 @@
         <v>1865</v>
       </c>
       <c r="B267" t="n">
-        <v>13870245389.08383</v>
+        <v>18723362901.16112</v>
       </c>
     </row>
     <row r="268">
@@ -2576,7 +2576,7 @@
         <v>1866</v>
       </c>
       <c r="B268" t="n">
-        <v>14011652893.00136</v>
+        <v>18909865988.26273</v>
       </c>
     </row>
     <row r="269">
@@ -2584,7 +2584,7 @@
         <v>1867</v>
       </c>
       <c r="B269" t="n">
-        <v>14155128198.79153</v>
+        <v>19099052346.21514</v>
       </c>
     </row>
     <row r="270">
@@ -2592,7 +2592,7 @@
         <v>1868</v>
       </c>
       <c r="B270" t="n">
-        <v>14300707874.06083</v>
+        <v>19290968723.0509</v>
       </c>
     </row>
     <row r="271">
@@ -2600,7 +2600,7 @@
         <v>1869</v>
       </c>
       <c r="B271" t="n">
-        <v>14448429310.43768</v>
+        <v>19485662927.2834</v>
       </c>
     </row>
     <row r="272">
@@ -2608,7 +2608,7 @@
         <v>1870</v>
       </c>
       <c r="B272" t="n">
-        <v>14598330736.51066</v>
+        <v>19683183843.75326</v>
       </c>
     </row>
     <row r="273">
@@ -2616,7 +2616,7 @@
         <v>1871</v>
       </c>
       <c r="B273" t="n">
-        <v>14750451230.482</v>
+        <v>19883581449.04899</v>
       </c>
     </row>
     <row r="274">
@@ -2624,7 +2624,7 @@
         <v>1872</v>
       </c>
       <c r="B274" t="n">
-        <v>14904830732.50074</v>
+        <v>20086906826.45531</v>
       </c>
     </row>
     <row r="275">
@@ -2632,7 +2632,7 @@
         <v>1873</v>
       </c>
       <c r="B275" t="n">
-        <v>15061510056.63703</v>
+        <v>20293212180.37877</v>
       </c>
     </row>
     <row r="276">
@@ -2640,7 +2640,7 @@
         <v>1874</v>
       </c>
       <c r="B276" t="n">
-        <v>15220530902.45742</v>
+        <v>20502550850.19862</v>
       </c>
     </row>
     <row r="277">
@@ -2648,7 +2648,7 @@
         <v>1875</v>
       </c>
       <c r="B277" t="n">
-        <v>15381935866.15845</v>
+        <v>20714977323.48687</v>
       </c>
     </row>
     <row r="278">
@@ -2656,7 +2656,7 @@
         <v>1876</v>
       </c>
       <c r="B278" t="n">
-        <v>15545768451.21354</v>
+        <v>20930547248.53942</v>
       </c>
     </row>
     <row r="279">
@@ -2664,7 +2664,7 @@
         <v>1877</v>
       </c>
       <c r="B279" t="n">
-        <v>15712073078.48589</v>
+        <v>21149317446.1563</v>
       </c>
     </row>
     <row r="280">
@@ -2672,7 +2672,7 @@
         <v>1878</v>
       </c>
       <c r="B280" t="n">
-        <v>15880895095.75751</v>
+        <v>21371345920.60659</v>
       </c>
     </row>
     <row r="281">
@@ -2680,7 +2680,7 @@
         <v>1879</v>
       </c>
       <c r="B281" t="n">
-        <v>16052280786.62249</v>
+        <v>21596691869.71028</v>
       </c>
     </row>
     <row r="282">
@@ -2688,7 +2688,7 @@
         <v>1880</v>
       </c>
       <c r="B282" t="n">
-        <v>16226277378.68924</v>
+        <v>21825415693.96554</v>
       </c>
     </row>
     <row r="283">
@@ -2696,7 +2696,7 @@
         <v>1881</v>
       </c>
       <c r="B283" t="n">
-        <v>16402933051.03485</v>
+        <v>22057579004.648</v>
       </c>
     </row>
     <row r="284">
@@ -2704,7 +2704,7 @@
         <v>1882</v>
       </c>
       <c r="B284" t="n">
-        <v>16582296940.85165</v>
+        <v>22293244630.80353</v>
       </c>
     </row>
     <row r="285">
@@ -2712,7 +2712,7 @@
         <v>1883</v>
       </c>
       <c r="B285" t="n">
-        <v>16764419149.22337</v>
+        <v>22532476625.05456</v>
       </c>
     </row>
     <row r="286">
@@ -2720,7 +2720,7 @@
         <v>1884</v>
       </c>
       <c r="B286" t="n">
-        <v>16949350745.96609</v>
+        <v>22775340268.13547</v>
       </c>
     </row>
     <row r="287">
@@ -2728,7 +2728,7 @@
         <v>1885</v>
       </c>
       <c r="B287" t="n">
-        <v>17137143773.4663</v>
+        <v>23021902072.06983</v>
       </c>
     </row>
     <row r="288">
@@ -2736,7 +2736,7 @@
         <v>1886</v>
       </c>
       <c r="B288" t="n">
-        <v>17327851249.44581</v>
+        <v>23272229781.89874</v>
       </c>
     </row>
     <row r="289">
@@ -2744,7 +2744,7 @@
         <v>1887</v>
       </c>
       <c r="B289" t="n">
-        <v>17521527168.58092</v>
+        <v>23526392375.86687</v>
       </c>
     </row>
     <row r="290">
@@ -2752,7 +2752,7 @@
         <v>1888</v>
       </c>
       <c r="B290" t="n">
-        <v>17718226502.90053</v>
+        <v>23784460063.96884</v>
       </c>
     </row>
     <row r="291">
@@ -2760,7 +2760,7 @@
         <v>1889</v>
       </c>
       <c r="B291" t="n">
-        <v>17918005200.88526</v>
+        <v>24046504284.75621</v>
       </c>
     </row>
     <row r="292">
@@ -2768,7 +2768,7 @@
         <v>1890</v>
       </c>
       <c r="B292" t="n">
-        <v>18120920185.18769</v>
+        <v>24312597700.30163</v>
       </c>
     </row>
     <row r="293">
@@ -2776,7 +2776,7 @@
         <v>1891</v>
       </c>
       <c r="B293" t="n">
-        <v>18327029348.89087</v>
+        <v>24582814189.21464</v>
       </c>
     </row>
     <row r="294">
@@ -2784,7 +2784,7 @@
         <v>1892</v>
       </c>
       <c r="B294" t="n">
-        <v>18536391550.22055</v>
+        <v>24857228837.60005</v>
       </c>
     </row>
     <row r="295">
@@ -2792,7 +2792,7 @@
         <v>1893</v>
       </c>
       <c r="B295" t="n">
-        <v>18749066605.62384</v>
+        <v>25135917927.84753</v>
       </c>
     </row>
     <row r="296">
@@ -2800,7 +2800,7 @@
         <v>1894</v>
       </c>
       <c r="B296" t="n">
-        <v>18965115281.12545</v>
+        <v>25418958925.1385</v>
       </c>
     </row>
     <row r="297">
@@ -2808,7 +2808,7 @@
         <v>1895</v>
       </c>
       <c r="B297" t="n">
-        <v>19184599281.87059</v>
+        <v>25706430461.55429</v>
       </c>
     </row>
     <row r="298">
@@ -2816,7 +2816,7 @@
         <v>1896</v>
       </c>
       <c r="B298" t="n">
-        <v>19407581239.76154</v>
+        <v>25998412317.66706</v>
       </c>
     </row>
     <row r="299">
@@ -2824,7 +2824,7 @@
         <v>1897</v>
       </c>
       <c r="B299" t="n">
-        <v>19634124699.09377</v>
+        <v>26294985401.4935</v>
       </c>
     </row>
     <row r="300">
@@ -2832,7 +2832,7 @@
         <v>1898</v>
       </c>
       <c r="B300" t="n">
-        <v>19864294100.09573</v>
+        <v>26596231724.68947</v>
       </c>
     </row>
     <row r="301">
@@ -2840,7 +2840,7 @@
         <v>1899</v>
       </c>
       <c r="B301" t="n">
-        <v>20098154760.27571</v>
+        <v>26902234375.86285</v>
       </c>
     </row>
     <row r="302">
@@ -2848,7 +2848,7 @@
         <v>1900</v>
       </c>
       <c r="B302" t="n">
-        <v>20335772853.47734</v>
+        <v>27213077490.88003</v>
       </c>
     </row>
     <row r="303">
@@ -2856,7 +2856,7 @@
         <v>1901</v>
       </c>
       <c r="B303" t="n">
-        <v>20577215386.5458</v>
+        <v>27430361513.0873</v>
       </c>
     </row>
     <row r="304">
@@ -2864,7 +2864,7 @@
         <v>1902</v>
       </c>
       <c r="B304" t="n">
-        <v>20822550173.50546</v>
+        <v>27651330019.66649</v>
       </c>
     </row>
     <row r="305">
@@ -2872,7 +2872,7 @@
         <v>1903</v>
       </c>
       <c r="B305" t="n">
-        <v>21071845807.14995</v>
+        <v>27876050601.01794</v>
       </c>
     </row>
     <row r="306">
@@ -2880,7 +2880,7 @@
         <v>1904</v>
       </c>
       <c r="B306" t="n">
-        <v>21325171627.94592</v>
+        <v>28104591582.75745</v>
       </c>
     </row>
     <row r="307">
@@ -2888,7 +2888,7 @@
         <v>1905</v>
       </c>
       <c r="B307" t="n">
-        <v>21582597690.15247</v>
+        <v>28337021990.22897</v>
       </c>
     </row>
     <row r="308">
@@ -2896,7 +2896,7 @@
         <v>1906</v>
       </c>
       <c r="B308" t="n">
-        <v>21844194725.05856</v>
+        <v>28573411510.22481</v>
       </c>
     </row>
     <row r="309">
@@ -2904,7 +2904,7 @@
         <v>1907</v>
       </c>
       <c r="B309" t="n">
-        <v>22110034101.24325</v>
+        <v>28813830449.82209</v>
       </c>
     </row>
     <row r="310">
@@ -2912,7 +2912,7 @@
         <v>1908</v>
       </c>
       <c r="B310" t="n">
-        <v>22380187781.76438</v>
+        <v>29058349692.24662</v>
       </c>
     </row>
     <row r="311">
@@ -2920,7 +2920,7 @@
         <v>1909</v>
       </c>
       <c r="B311" t="n">
-        <v>22654728278.18408</v>
+        <v>29307040649.67667</v>
       </c>
     </row>
     <row r="312">
@@ -2928,7 +2928,7 @@
         <v>1910</v>
       </c>
       <c r="B312" t="n">
-        <v>22933728601.34237</v>
+        <v>29559975212.90402</v>
       </c>
     </row>
     <row r="313">
@@ -2936,7 +2936,7 @@
         <v>1911</v>
       </c>
       <c r="B313" t="n">
-        <v>23217262208.79332</v>
+        <v>29817225697.77063</v>
       </c>
     </row>
     <row r="314">
@@ -2944,7 +2944,7 @@
         <v>1912</v>
       </c>
       <c r="B314" t="n">
-        <v>23505402948.82191</v>
+        <v>30078864788.3047</v>
       </c>
     </row>
     <row r="315">
@@ -2952,7 +2952,7 @@
         <v>1913</v>
       </c>
       <c r="B315" t="n">
-        <v>23798225000.96436</v>
+        <v>30344965476.48431</v>
       </c>
     </row>
     <row r="316">
@@ -2960,7 +2960,7 @@
         <v>1914</v>
       </c>
       <c r="B316" t="n">
-        <v>24095802812.95982</v>
+        <v>30615600998.56059</v>
       </c>
     </row>
     <row r="317">
@@ -2968,7 +2968,7 @@
         <v>1915</v>
       </c>
       <c r="B317" t="n">
-        <v>24398211034.06651</v>
+        <v>30890844767.87983</v>
       </c>
     </row>
     <row r="318">
@@ -2976,7 +2976,7 @@
         <v>1916</v>
       </c>
       <c r="B318" t="n">
-        <v>24705524444.68216</v>
+        <v>31170770304.14898</v>
       </c>
     </row>
     <row r="319">
@@ -2984,7 +2984,7 @@
         <v>1917</v>
       </c>
       <c r="B319" t="n">
-        <v>25017817882.21521</v>
+        <v>31455451159.09589</v>
       </c>
     </row>
     <row r="320">
@@ -2992,7 +2992,7 @@
         <v>1918</v>
       </c>
       <c r="B320" t="n">
-        <v>25335166163.16065</v>
+        <v>31744960838.4842</v>
       </c>
     </row>
     <row r="321">
@@ -3000,7 +3000,7 @@
         <v>1919</v>
       </c>
       <c r="B321" t="n">
-        <v>25657644001.34338</v>
+        <v>32039372720.44997</v>
       </c>
     </row>
     <row r="322">
@@ -3008,7 +3008,7 @@
         <v>1920</v>
       </c>
       <c r="B322" t="n">
-        <v>25985325922.29979</v>
+        <v>32338759970.13702</v>
       </c>
     </row>
     <row r="323">
@@ -3016,7 +3016,7 @@
         <v>1921</v>
       </c>
       <c r="B323" t="n">
-        <v>26318286173.77945</v>
+        <v>32643195450.6166</v>
       </c>
     </row>
     <row r="324">
@@ -3024,7 +3024,7 @@
         <v>1922</v>
       </c>
       <c r="B324" t="n">
-        <v>26656598632.35719</v>
+        <v>32952751630.08833</v>
       </c>
     </row>
     <row r="325">
@@ -3032,7 +3032,7 @@
         <v>1923</v>
       </c>
       <c r="B325" t="n">
-        <v>27000336706.15951</v>
+        <v>33267500485.36991</v>
       </c>
     </row>
     <row r="326">
@@ -3040,7 +3040,7 @@
         <v>1924</v>
       </c>
       <c r="B326" t="n">
-        <v>27349573233.71835</v>
+        <v>33587513401.6948</v>
       </c>
     </row>
     <row r="327">
@@ -3048,7 +3048,7 @@
         <v>1925</v>
       </c>
       <c r="B327" t="n">
-        <v>27704380378.98014</v>
+        <v>33912861068.84987</v>
       </c>
     </row>
     <row r="328">
@@ -3056,7 +3056,7 @@
         <v>1926</v>
       </c>
       <c r="B328" t="n">
-        <v>28064829522.5099</v>
+        <v>34243613373.69761</v>
       </c>
     </row>
     <row r="329">
@@ -3064,7 +3064,7 @@
         <v>1927</v>
       </c>
       <c r="B329" t="n">
-        <v>28430991148.94445</v>
+        <v>34579839289.14216</v>
       </c>
     </row>
     <row r="330">
@@ -3072,7 +3072,7 @@
         <v>1928</v>
       </c>
       <c r="B330" t="n">
-        <v>28802934730.76358</v>
+        <v>34921606759.61175</v>
       </c>
     </row>
     <row r="331">
@@ -3080,7 +3080,7 @@
         <v>1929</v>
       </c>
       <c r="B331" t="n">
-        <v>29180728608.46333</v>
+        <v>35268982583.1461</v>
       </c>
     </row>
     <row r="332">
@@ -3088,7 +3088,7 @@
         <v>1930</v>
       </c>
       <c r="B332" t="n">
-        <v>29564439867.2308</v>
+        <v>35622032290.19305</v>
       </c>
     </row>
     <row r="333">
@@ -3096,7 +3096,7 @@
         <v>1931</v>
       </c>
       <c r="B333" t="n">
-        <v>29954134210.23717</v>
+        <v>35980820019.23358</v>
       </c>
     </row>
     <row r="334">
@@ -3104,7 +3104,7 @@
         <v>1932</v>
       </c>
       <c r="B334" t="n">
-        <v>30349875828.68194</v>
+        <v>36345408389.37311</v>
       </c>
     </row>
     <row r="335">
@@ -3112,7 +3112,7 @@
         <v>1933</v>
       </c>
       <c r="B335" t="n">
-        <v>30751727268.73911</v>
+        <v>36715858370.05242</v>
       </c>
     </row>
     <row r="336">
@@ -3120,7 +3120,7 @@
         <v>1934</v>
       </c>
       <c r="B336" t="n">
-        <v>31159749295.57406</v>
+        <v>37092229148.05</v>
       </c>
     </row>
     <row r="337">
@@ -3128,7 +3128,7 @@
         <v>1935</v>
       </c>
       <c r="B337" t="n">
-        <v>31574000754.61767</v>
+        <v>37474577991.96515</v>
       </c>
     </row>
     <row r="338">
@@ -3136,7 +3136,7 @@
         <v>1936</v>
       </c>
       <c r="B338" t="n">
-        <v>31994538430.30341</v>
+        <v>37862960114.38995</v>
       </c>
     </row>
     <row r="339">
@@ -3144,7 +3144,7 @@
         <v>1937</v>
       </c>
       <c r="B339" t="n">
-        <v>32421416902.49081</v>
+        <v>38257428531.99511</v>
       </c>
     </row>
     <row r="340">
@@ -3152,7 +3152,7 @@
         <v>1938</v>
       </c>
       <c r="B340" t="n">
-        <v>32854688400.81924</v>
+        <v>38658033923.77526</v>
       </c>
     </row>
     <row r="341">
@@ -3160,7 +3160,7 @@
         <v>1939</v>
       </c>
       <c r="B341" t="n">
-        <v>33294402657.25311</v>
+        <v>39064824487.71579</v>
       </c>
     </row>
     <row r="342">
@@ -3168,7 +3168,7 @@
         <v>1940</v>
       </c>
       <c r="B342" t="n">
-        <v>33740606757.09958</v>
+        <v>39477845796.16277</v>
       </c>
     </row>
     <row r="343">
@@ -3176,7 +3176,7 @@
         <v>1941</v>
       </c>
       <c r="B343" t="n">
-        <v>34193344988.7983</v>
+        <v>39897140650.19534</v>
       </c>
     </row>
     <row r="344">
@@ -3184,7 +3184,7 @@
         <v>1942</v>
       </c>
       <c r="B344" t="n">
-        <v>34652658692.8011</v>
+        <v>40322748933.31796</v>
       </c>
     </row>
     <row r="345">
@@ -3192,7 +3192,7 @@
         <v>1943</v>
       </c>
       <c r="B345" t="n">
-        <v>35118586109.87761</v>
+        <v>40754707464.80756</v>
       </c>
     </row>
     <row r="346">
@@ -3200,7 +3200,7 @@
         <v>1944</v>
       </c>
       <c r="B346" t="n">
-        <v>35591162229.20029</v>
+        <v>41193049853.06665</v>
       </c>
     </row>
     <row r="347">
@@ -3208,7 +3208,7 @@
         <v>1945</v>
       </c>
       <c r="B347" t="n">
-        <v>36070418636.57989</v>
+        <v>41637806349.35147</v>
       </c>
     </row>
     <row r="348">
@@ -3216,7 +3216,7 @@
         <v>1946</v>
       </c>
       <c r="B348" t="n">
-        <v>36556383363.23743</v>
+        <v>42089003702.25769</v>
       </c>
     </row>
     <row r="349">
@@ -3224,7 +3224,7 @@
         <v>1947</v>
       </c>
       <c r="B349" t="n">
-        <v>37049080735.51559</v>
+        <v>42546665013.363</v>
       </c>
     </row>
     <row r="350">
@@ -3232,7 +3232,7 @@
         <v>1948</v>
       </c>
       <c r="B350" t="n">
-        <v>37548531225.94514</v>
+        <v>43010809594.43734</v>
       </c>
     </row>
     <row r="351">
@@ -3240,7 +3240,7 @@
         <v>1949</v>
       </c>
       <c r="B351" t="n">
-        <v>38054751306.09703</v>
+        <v>43481452826.64586</v>
       </c>
     </row>
     <row r="352">
@@ -3248,7 +3248,7 @@
         <v>1950</v>
       </c>
       <c r="B352" t="n">
-        <v>38567753301.66071</v>
+        <v>43958606022.17912</v>
       </c>
     </row>
     <row r="353">
@@ -3256,7 +3256,7 @@
         <v>1951</v>
       </c>
       <c r="B353" t="n">
-        <v>39087545250.20164</v>
+        <v>44442276288.75657</v>
       </c>
     </row>
     <row r="354">
@@ -3264,7 +3264,7 @@
         <v>1952</v>
       </c>
       <c r="B354" t="n">
-        <v>39614130762.05861</v>
+        <v>44932466397.45535</v>
       </c>
     </row>
     <row r="355">
@@ -3272,7 +3272,7 @@
         <v>1953</v>
       </c>
       <c r="B355" t="n">
-        <v>40147508884.84956</v>
+        <v>45429174654.32503</v>
       </c>
     </row>
     <row r="356">
@@ -3280,7 +3280,7 @@
         <v>1954</v>
       </c>
       <c r="B356" t="n">
-        <v>40687673972.05939</v>
+        <v>45932394776.25171</v>
       </c>
     </row>
     <row r="357">
@@ -3288,7 +3288,7 @@
         <v>1955</v>
       </c>
       <c r="B357" t="n">
-        <v>41234615556.18829</v>
+        <v>46442115771.53928</v>
       </c>
     </row>
     <row r="358">
@@ -3296,7 +3296,7 @@
         <v>1956</v>
       </c>
       <c r="B358" t="n">
-        <v>41762941690.36626</v>
+        <v>46932945289.10224</v>
       </c>
     </row>
     <row r="359">
@@ -3304,7 +3304,7 @@
         <v>1957</v>
       </c>
       <c r="B359" t="n">
-        <v>42297676403.18244</v>
+        <v>47429907081.00587</v>
       </c>
     </row>
     <row r="360">
@@ -3312,7 +3312,7 @@
         <v>1958</v>
       </c>
       <c r="B360" t="n">
-        <v>42838793386.01859</v>
+        <v>47932974697.63028</v>
       </c>
     </row>
     <row r="361">
@@ -3320,7 +3320,7 @@
         <v>1959</v>
       </c>
       <c r="B361" t="n">
-        <v>43386261228.37438</v>
+        <v>48442116730.93074</v>
       </c>
     </row>
     <row r="362">
@@ -3328,7 +3328,7 @@
         <v>1960</v>
       </c>
       <c r="B362" t="n">
-        <v>43940043324.67044</v>
+        <v>48957296729.26546</v>
       </c>
     </row>
     <row r="363">
@@ -3336,7 +3336,7 @@
         <v>1961</v>
       </c>
       <c r="B363" t="n">
-        <v>44500097788.15699</v>
+        <v>49478473119.40271</v>
       </c>
     </row>
     <row r="364">
@@ -3344,7 +3344,7 @@
         <v>1962</v>
       </c>
       <c r="B364" t="n">
-        <v>45066377372.35264</v>
+        <v>50005599136.11382</v>
       </c>
     </row>
     <row r="365">
@@ -3352,7 +3352,7 @@
         <v>1963</v>
       </c>
       <c r="B365" t="n">
-        <v>45638829400.42326</v>
+        <v>50538622759.74415</v>
       </c>
     </row>
     <row r="366">
@@ -3360,7 +3360,7 @@
         <v>1964</v>
       </c>
       <c r="B366" t="n">
-        <v>46217395702.8937</v>
+        <v>51077486662.1366</v>
       </c>
     </row>
     <row r="367">
@@ -3368,7 +3368,7 @@
         <v>1965</v>
       </c>
       <c r="B367" t="n">
-        <v>46802012564.06831</v>
+        <v>51622128161.26205</v>
       </c>
     </row>
     <row r="368">
@@ -3376,7 +3376,7 @@
         <v>1966</v>
       </c>
       <c r="B368" t="n">
-        <v>47392610677.51303</v>
+        <v>52172479184.89058</v>
       </c>
     </row>
     <row r="369">
@@ -3384,7 +3384,7 @@
         <v>1967</v>
       </c>
       <c r="B369" t="n">
-        <v>47989115110.93014</v>
+        <v>52728466243.61116</v>
       </c>
     </row>
     <row r="370">
@@ -3392,7 +3392,7 @@
         <v>1968</v>
       </c>
       <c r="B370" t="n">
-        <v>48591445280.72943</v>
+        <v>53290010413.48313</v>
       </c>
     </row>
     <row r="371">
@@ -3400,7 +3400,7 @@
         <v>1969</v>
       </c>
       <c r="B371" t="n">
-        <v>49199514936.57374</v>
+        <v>53857027328.57208</v>
       </c>
     </row>
     <row r="372">
@@ -3408,7 +3408,7 @@
         <v>1970</v>
       </c>
       <c r="B372" t="n">
-        <v>49813232156.1452</v>
+        <v>54429427183.59467</v>
       </c>
     </row>
     <row r="373">
@@ -3416,7 +3416,7 @@
         <v>1971</v>
       </c>
       <c r="B373" t="n">
-        <v>50335112774.32381</v>
+        <v>54909728170.83833</v>
       </c>
     </row>
     <row r="374">
@@ -3424,7 +3424,7 @@
         <v>1972</v>
       </c>
       <c r="B374" t="n">
-        <v>50861505437.21395</v>
+        <v>55394281541.76668</v>
       </c>
     </row>
     <row r="375">
@@ -3432,7 +3432,7 @@
         <v>1973</v>
       </c>
       <c r="B375" t="n">
-        <v>51392310161.6292</v>
+        <v>55882990173.89543</v>
       </c>
     </row>
     <row r="376">
@@ -3440,7 +3440,7 @@
         <v>1974</v>
       </c>
       <c r="B376" t="n">
-        <v>51927421945.28518</v>
+        <v>56375752188.16265</v>
       </c>
     </row>
     <row r="377">
@@ -3448,7 +3448,7 @@
         <v>1975</v>
       </c>
       <c r="B377" t="n">
-        <v>52466730803.99963</v>
+        <v>56872460993.06549</v>
       </c>
     </row>
     <row r="378">
@@ -3456,7 +3456,7 @@
         <v>1976</v>
       </c>
       <c r="B378" t="n">
-        <v>53010121818.29185</v>
+        <v>57373005337.92971</v>
       </c>
     </row>
     <row r="379">
@@ -3464,7 +3464,7 @@
         <v>1977</v>
       </c>
       <c r="B379" t="n">
-        <v>53557475189.37846</v>
+        <v>57877269375.28091</v>
       </c>
     </row>
     <row r="380">
@@ -3472,7 +3472,7 @@
         <v>1978</v>
       </c>
       <c r="B380" t="n">
-        <v>54108666304.52798</v>
+        <v>58385132732.25374</v>
       </c>
     </row>
     <row r="381">
@@ -3480,7 +3480,7 @@
         <v>1979</v>
       </c>
       <c r="B381" t="n">
-        <v>54663565811.70377</v>
+        <v>58896470590.94055</v>
       </c>
     </row>
     <row r="382">
@@ -3488,7 +3488,7 @@
         <v>1980</v>
       </c>
       <c r="B382" t="n">
-        <v>55222039703.39032</v>
+        <v>59411153777.54813</v>
       </c>
     </row>
     <row r="383">
@@ -3496,7 +3496,7 @@
         <v>1981</v>
       </c>
       <c r="B383" t="n">
-        <v>55925326064.60281</v>
+        <v>60070425515.33485</v>
       </c>
     </row>
     <row r="384">
@@ -3504,7 +3504,7 @@
         <v>1982</v>
       </c>
       <c r="B384" t="n">
-        <v>56632897002.52491</v>
+        <v>60733763358.74641</v>
       </c>
     </row>
     <row r="385">
@@ -3512,7 +3512,7 @@
         <v>1983</v>
       </c>
       <c r="B385" t="n">
-        <v>57344584973.7548</v>
+        <v>61401005524.70427</v>
       </c>
     </row>
     <row r="386">
@@ -3520,7 +3520,7 @@
         <v>1984</v>
       </c>
       <c r="B386" t="n">
-        <v>58060217737.29394</v>
+        <v>62071985849.15453</v>
       </c>
     </row>
     <row r="387">
@@ -3528,7 +3528,7 @@
         <v>1985</v>
       </c>
       <c r="B387" t="n">
-        <v>58779618519.72491</v>
+        <v>62746533955.2986</v>
       </c>
     </row>
     <row r="388">
@@ -3536,7 +3536,7 @@
         <v>1986</v>
       </c>
       <c r="B388" t="n">
-        <v>59502606190.0088</v>
+        <v>63424475430.91145</v>
       </c>
     </row>
     <row r="389">
@@ -3544,7 +3544,7 @@
         <v>1987</v>
       </c>
       <c r="B389" t="n">
-        <v>60228995443.49135</v>
+        <v>64105632014.31203</v>
       </c>
     </row>
     <row r="390">
@@ -3552,7 +3552,7 @@
         <v>1988</v>
       </c>
       <c r="B390" t="n">
-        <v>60958596994.67133</v>
+        <v>64789821788.51717</v>
       </c>
     </row>
     <row r="391">
@@ -3560,7 +3560,7 @@
         <v>1989</v>
       </c>
       <c r="B391" t="n">
-        <v>61691217778.25322</v>
+        <v>65476859383.07822</v>
       </c>
     </row>
     <row r="392">
@@ -3568,7 +3568,7 @@
         <v>1990</v>
       </c>
       <c r="B392" t="n">
-        <v>62426661157.97574</v>
+        <v>66166556183.07133</v>
       </c>
     </row>
     <row r="393">
@@ -3576,7 +3576,7 @@
         <v>1991</v>
       </c>
       <c r="B393" t="n">
-        <v>62856690119.51421</v>
+        <v>66550683521.5195</v>
       </c>
     </row>
     <row r="394">
@@ -3584,7 +3584,7 @@
         <v>1992</v>
       </c>
       <c r="B394" t="n">
-        <v>63287522297.67809</v>
+        <v>66935467705.44954</v>
       </c>
     </row>
     <row r="395">
@@ -3592,7 +3592,7 @@
         <v>1993</v>
       </c>
       <c r="B395" t="n">
-        <v>63718998055.17513</v>
+        <v>67320758092.83842</v>
       </c>
     </row>
     <row r="396">
@@ -3600,7 +3600,7 @@
         <v>1994</v>
       </c>
       <c r="B396" t="n">
-        <v>64150955106.55682</v>
+        <v>67706401714.04836</v>
       </c>
     </row>
     <row r="397">
@@ -3608,7 +3608,7 @@
         <v>1995</v>
       </c>
       <c r="B397" t="n">
-        <v>64583228649.44007</v>
+        <v>68092243399.83157</v>
       </c>
     </row>
     <row r="398">
@@ -3616,7 +3616,7 @@
         <v>1996</v>
       </c>
       <c r="B398" t="n">
-        <v>65015651498.36329</v>
+        <v>68478125911.25186</v>
       </c>
     </row>
     <row r="399">
@@ -3624,7 +3624,7 @@
         <v>1997</v>
       </c>
       <c r="B399" t="n">
-        <v>65448054220.92775</v>
+        <v>68863890071.16261</v>
       </c>
     </row>
     <row r="400">
@@ -3632,7 +3632,7 @@
         <v>1998</v>
       </c>
       <c r="B400" t="n">
-        <v>65880265275.87628</v>
+        <v>69249374896.88672</v>
       </c>
     </row>
     <row r="401">
@@ -3640,7 +3640,7 @@
         <v>1999</v>
       </c>
       <c r="B401" t="n">
-        <v>66312111152.77468</v>
+        <v>69634417733.75592</v>
       </c>
     </row>
     <row r="402">
@@ -3648,7 +3648,7 @@
         <v>2000</v>
       </c>
       <c r="B402" t="n">
-        <v>66743416512.96723</v>
+        <v>70018854389.17908</v>
       </c>
     </row>
     <row r="403">
@@ -3656,7 +3656,7 @@
         <v>2001</v>
       </c>
       <c r="B403" t="n">
-        <v>66804854994.85562</v>
+        <v>70033369930.28545</v>
       </c>
     </row>
     <row r="404">
@@ -3664,7 +3664,7 @@
         <v>2002</v>
       </c>
       <c r="B404" t="n">
-        <v>66863925559.42168</v>
+        <v>70045475021.06447</v>
       </c>
     </row>
     <row r="405">
@@ -3672,7 +3672,7 @@
         <v>2003</v>
       </c>
       <c r="B405" t="n">
-        <v>66920494291.40977</v>
+        <v>70055047714.4209</v>
       </c>
     </row>
     <row r="406">
@@ -3680,7 +3680,7 @@
         <v>2004</v>
       </c>
       <c r="B406" t="n">
-        <v>66974424779.69249</v>
+        <v>70061963822.6741</v>
       </c>
     </row>
     <row r="407">
@@ -3688,7 +3688,7 @@
         <v>2005</v>
       </c>
       <c r="B407" t="n">
-        <v>67025578128.64336</v>
+        <v>70066096918.33247</v>
       </c>
     </row>
     <row r="408">
@@ -3696,7 +3696,7 @@
         <v>2006</v>
       </c>
       <c r="B408" t="n">
-        <v>67073812970.50917</v>
+        <v>70067318335.14653</v>
       </c>
     </row>
     <row r="409">
@@ -3704,7 +3704,7 @@
         <v>2007</v>
       </c>
       <c r="B409" t="n">
-        <v>67118985479.03857</v>
+        <v>70065497169.70888</v>
       </c>
     </row>
     <row r="410">
@@ -3712,7 +3712,7 @@
         <v>2008</v>
       </c>
       <c r="B410" t="n">
-        <v>67160949384.67216</v>
+        <v>70060500283.92206</v>
       </c>
     </row>
     <row r="411">
@@ -3720,7 +3720,7 @@
         <v>2009</v>
       </c>
       <c r="B411" t="n">
-        <v>67199555991.65312</v>
+        <v>70052192308.71043</v>
       </c>
     </row>
     <row r="412">
@@ -3728,7 +3728,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="n">
-        <v>67234654197.47547</v>
+        <v>70040435649.41315</v>
       </c>
     </row>
     <row r="413">
@@ -3736,7 +3736,7 @@
         <v>2011</v>
       </c>
       <c r="B413" t="n">
-        <v>67289716916.77546</v>
+        <v>70048716894.98653</v>
       </c>
     </row>
     <row r="414">
@@ -3744,7 +3744,7 @@
         <v>2012</v>
       </c>
       <c r="B414" t="n">
-        <v>67341008230.6949</v>
+        <v>70053313952.06874</v>
       </c>
     </row>
     <row r="415">
@@ -3752,7 +3752,7 @@
         <v>2013</v>
       </c>
       <c r="B415" t="n">
-        <v>67388368061.23161</v>
+        <v>70054080703.44983</v>
       </c>
     </row>
     <row r="416">
@@ -3760,7 +3760,7 @@
         <v>2014</v>
       </c>
       <c r="B416" t="n">
-        <v>67431634191.59672</v>
+        <v>70050869011.99611</v>
       </c>
     </row>
     <row r="417">
@@ -3768,7 +3768,7 @@
         <v>2015</v>
       </c>
       <c r="B417" t="n">
-        <v>67470642311.7682</v>
+        <v>70043528749.2495</v>
       </c>
     </row>
     <row r="418">
@@ -3776,7 +3776,7 @@
         <v>2016</v>
       </c>
       <c r="B418" t="n">
-        <v>67505226069.95072</v>
+        <v>70031907829.44737</v>
       </c>
     </row>
     <row r="419">
@@ -3784,7 +3784,7 @@
         <v>2017</v>
       </c>
       <c r="B419" t="n">
-        <v>67535217130.84371</v>
+        <v>70015852249.8985</v>
       </c>
     </row>
     <row r="420">
@@ -3792,7 +3792,7 @@
         <v>2018</v>
       </c>
       <c r="B420" t="n">
-        <v>67560445241.70217</v>
+        <v>69995206138.74017</v>
       </c>
     </row>
     <row r="421">
@@ -3800,7 +3800,7 @@
         <v>2019</v>
       </c>
       <c r="B421" t="n">
-        <v>67580738307.26591</v>
+        <v>69969811811.19022</v>
       </c>
     </row>
     <row r="422">
@@ -3808,7 +3808,7 @@
         <v>2020</v>
       </c>
       <c r="B422" t="n">
-        <v>67595922474.72277</v>
+        <v>69939509835.50224</v>
       </c>
     </row>
     <row r="423">
@@ -3816,7 +3816,7 @@
         <v>2021</v>
       </c>
       <c r="B423" t="n">
-        <v>67605822229.96256</v>
+        <v>69904139109.92351</v>
       </c>
     </row>
     <row r="424">
@@ -3824,7 +3824,7 @@
         <v>2022</v>
       </c>
       <c r="B424" t="n">
-        <v>67610260506.47169</v>
+        <v>69863536952.05115</v>
       </c>
     </row>
     <row r="425">
@@ -3832,7 +3832,7 @@
         <v>2023</v>
       </c>
       <c r="B425" t="n">
-        <v>67609058808.30902</v>
+        <v>69817539202.07246</v>
       </c>
     </row>
     <row r="426">
@@ -3840,7 +3840,7 @@
         <v>2024</v>
       </c>
       <c r="B426" t="n">
-        <v>67602037348.6931</v>
+        <v>69765980341.4678</v>
       </c>
     </row>
     <row r="427">
@@ -3848,7 +3848,7 @@
         <v>2025</v>
       </c>
       <c r="B427" t="n">
-        <v>67589015205.81662</v>
+        <v>69708693628.84003</v>
       </c>
     </row>
     <row r="428">
@@ -3856,7 +3856,7 @@
         <v>2026</v>
       </c>
       <c r="B428" t="n">
-        <v>67569810497.58677</v>
+        <v>69645511254.61867</v>
       </c>
     </row>
     <row r="429">
@@ -3864,7 +3864,7 @@
         <v>2027</v>
       </c>
       <c r="B429" t="n">
-        <v>67544240577.0629</v>
+        <v>69576264516.46057</v>
       </c>
     </row>
     <row r="430">
@@ -3872,7 +3872,7 @@
         <v>2028</v>
       </c>
       <c r="B430" t="n">
-        <v>67512122250.43024</v>
+        <v>69500784017.23636</v>
       </c>
     </row>
     <row r="431">
@@ -3880,7 +3880,7 @@
         <v>2029</v>
       </c>
       <c r="B431" t="n">
-        <v>67473272019.40353</v>
+        <v>69418899887.54738</v>
       </c>
     </row>
     <row r="432">
@@ -3888,7 +3888,7 @@
         <v>2030</v>
       </c>
       <c r="B432" t="n">
-        <v>67427506349.99629</v>
+        <v>69330442034.76108</v>
       </c>
     </row>
     <row r="433">
@@ -3896,7 +3896,7 @@
         <v>2031</v>
       </c>
       <c r="B433" t="n">
-        <v>67374641969.61828</v>
+        <v>69235240420.57741</v>
       </c>
     </row>
     <row r="434">
@@ -3904,7 +3904,7 @@
         <v>2032</v>
       </c>
       <c r="B434" t="n">
-        <v>67314496194.47112</v>
+        <v>69133125369.14819</v>
       </c>
     </row>
     <row r="435">
@@ -3912,7 +3912,7 @@
         <v>2033</v>
       </c>
       <c r="B435" t="n">
-        <v>67246887289.19991</v>
+        <v>69023927907.75793</v>
       </c>
     </row>
     <row r="436">
@@ -3920,7 +3920,7 @@
         <v>2034</v>
       </c>
       <c r="B436" t="n">
-        <v>67171634860.71885</v>
+        <v>68907480142.03384</v>
       </c>
     </row>
     <row r="437">
@@ -3928,7 +3928,7 @@
         <v>2035</v>
       </c>
       <c r="B437" t="n">
-        <v>67088560288.06598</v>
+        <v>68783615667.58974</v>
       </c>
     </row>
     <row r="438">
@@ -3936,7 +3936,7 @@
         <v>2036</v>
       </c>
       <c r="B438" t="n">
-        <v>66997487190.04381</v>
+        <v>68652170019.90929</v>
       </c>
     </row>
     <row r="439">
@@ -3944,7 +3944,7 @@
         <v>2037</v>
       </c>
       <c r="B439" t="n">
-        <v>66898241932.27546</v>
+        <v>68512981164.14532</v>
       </c>
     </row>
     <row r="440">
@@ -3952,7 +3952,7 @@
         <v>2038</v>
       </c>
       <c r="B440" t="n">
-        <v>66790654175.13699</v>
+        <v>68365890026.34162</v>
       </c>
     </row>
     <row r="441">
@@ -3960,7 +3960,7 @@
         <v>2039</v>
       </c>
       <c r="B441" t="n">
-        <v>66674557463.82219</v>
+        <v>68210741067.37865</v>
       </c>
     </row>
     <row r="442">
@@ -3968,7 +3968,7 @@
         <v>2040</v>
       </c>
       <c r="B442" t="n">
-        <v>66549789861.5467</v>
+        <v>68047382900.69231</v>
       </c>
     </row>
     <row r="443">
@@ -3976,7 +3976,7 @@
         <v>2041</v>
       </c>
       <c r="B443" t="n">
-        <v>66416194626.60535</v>
+        <v>67875668954.52079</v>
       </c>
     </row>
     <row r="444">
@@ -3984,7 +3984,7 @@
         <v>2042</v>
       </c>
       <c r="B444" t="n">
-        <v>66273620933.6562</v>
+        <v>67695458179.09238</v>
       </c>
     </row>
     <row r="445">
@@ -3992,7 +3992,7 @@
         <v>2043</v>
       </c>
       <c r="B445" t="n">
-        <v>66121924639.21839</v>
+        <v>67506615798.77762</v>
       </c>
     </row>
     <row r="446">
@@ -4000,7 +4000,7 @@
         <v>2044</v>
       </c>
       <c r="B446" t="n">
-        <v>65960969090.93195</v>
+        <v>67309014108.78934</v>
       </c>
     </row>
     <row r="447">
@@ -4008,7 +4008,7 @@
         <v>2045</v>
       </c>
       <c r="B447" t="n">
-        <v>65790625979.64384</v>
+        <v>67102533315.52648</v>
       </c>
     </row>
     <row r="448">
@@ -4016,7 +4016,7 @@
         <v>2046</v>
       </c>
       <c r="B448" t="n">
-        <v>65610776232.85022</v>
+        <v>66887062419.12146</v>
       </c>
     </row>
     <row r="449">
@@ -4024,7 +4024,7 @@
         <v>2047</v>
       </c>
       <c r="B449" t="n">
-        <v>65421310947.44449</v>
+        <v>66662500136.16803</v>
       </c>
     </row>
     <row r="450">
@@ -4032,7 +4032,7 @@
         <v>2048</v>
       </c>
       <c r="B450" t="n">
-        <v>65222132359.09582</v>
+        <v>66428755859.97848</v>
       </c>
     </row>
     <row r="451">
@@ -4040,7 +4040,7 @@
         <v>2049</v>
       </c>
       <c r="B451" t="n">
-        <v>65013154844.91978</v>
+        <v>66185750655.05304</v>
       </c>
     </row>
     <row r="452">
@@ -4048,7 +4048,7 @@
         <v>2050</v>
       </c>
       <c r="B452" t="n">
-        <v>64794305955.40168</v>
+        <v>65933418281.74115</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/total_energy_use.xlsx
+++ b/Data/model_outputs_baseline/energy/total_energy_use.xlsx
@@ -434,3621 +434,3616 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5492632707.754334</v>
+        <v>10786553622.77983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1601</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5499046050.334988</v>
+        <v>10203595421.67904</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1602</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5505544663.430387</v>
+        <v>9722895142.285082</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1603</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5512129637.034153</v>
+        <v>9315523109.528193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1604</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5518802072.123172</v>
+        <v>8972026085.108309</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>1605</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5525563080.56439</v>
+        <v>8681391187.735422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1606</v>
+        <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5532413785.007604</v>
+        <v>8434645369.894324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>1607</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5539355318.763616</v>
+        <v>8224449879.957232</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1608</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5546388825.667321</v>
+        <v>8044790686.291545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1609</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5553515459.925095</v>
+        <v>7890722851.704421</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1610</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5560736385.945973</v>
+        <v>7758174038.740351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1611</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5568052778.156226</v>
+        <v>7643770068.630094</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1612</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5575465820.796686</v>
+        <v>7544718113.980998</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1613</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5582976707.702539</v>
+        <v>7458694428.30728</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1614</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5590586642.065026</v>
+        <v>7383761708.972772</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1615</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5598296836.17475</v>
+        <v>7318296538.467444</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1616</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5606108511.146214</v>
+        <v>7260940265.079535</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1617</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5614022896.623263</v>
+        <v>7210543563.78404</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1618</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5622041230.465209</v>
+        <v>7166141550.031641</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1619</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5630164758.41341</v>
+        <v>7126919557.72743</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>1620</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5638394733.738126</v>
+        <v>7092177355.547467</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1621</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5646732416.865642</v>
+        <v>7061325292.0417</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1622</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5655179074.985542</v>
+        <v>7033864760.430352</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1623</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5663735981.638281</v>
+        <v>7009354445.470147</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1624</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5672404416.283122</v>
+        <v>6987429698.385599</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>1625</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5681185663.846653</v>
+        <v>6967774715.458891</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1626</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5690081014.252239</v>
+        <v>6950111641.078541</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1627</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5699091761.930776</v>
+        <v>6934201976.58668</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1628</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5708219205.313216</v>
+        <v>6919846964.223507</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>1629</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5717464646.305523</v>
+        <v>6906861641.173043</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>1630</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5726829389.746732</v>
+        <v>6895090893.764125</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>1631</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5736314742.850954</v>
+        <v>6884402118.655342</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>1632</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5745922014.634295</v>
+        <v>6874678688.984588</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>1633</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5755652515.327708</v>
+        <v>6865813087.763894</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>1634</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5765507555.777024</v>
+        <v>6857718236.901383</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>1635</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5775488446.831531</v>
+        <v>6850314726.68895</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>1636</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5785596498.722466</v>
+        <v>6843532409.893146</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>1637</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5795833020.433169</v>
+        <v>6837310177.382743</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>1638</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5806199319.062532</v>
+        <v>6831591816.099407</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>1639</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5816696699.183772</v>
+        <v>6826328294.983489</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>1640</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5827326462.200472</v>
+        <v>6821479967.002326</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>1641</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5838089905.702176</v>
+        <v>6817006448.756311</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>1642</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5848988322.821871</v>
+        <v>6812876467.284417</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>1643</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5860023001.597833</v>
+        <v>6809059097.951371</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>1644</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5871195224.342607</v>
+        <v>6805526624.104043</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>1645</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5882506267.021774</v>
+        <v>6802257550.142245</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>1646</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5893957398.64566</v>
+        <v>6799226143.53228</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>1647</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5905549880.676936</v>
+        <v>6796415976.447656</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>1648</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5917284966.457522</v>
+        <v>6793808661.579916</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>1649</v>
+        <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5929163900.658044</v>
+        <v>6791391273.830668</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>1650</v>
+        <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5941187918.75355</v>
+        <v>6789144211.704982</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>1651</v>
+        <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5953358246.529016</v>
+        <v>6787056735.568429</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>1652</v>
+        <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5965676099.618551</v>
+        <v>6785119050.438152</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>1653</v>
+        <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5978142683.082122</v>
+        <v>6783320033.935234</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>1654</v>
+        <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5990759191.023954</v>
+        <v>6781648280.83879</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>1655</v>
+        <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6003526806.256537</v>
+        <v>6780090372.330841</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>1656</v>
+        <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6016446700.014729</v>
+        <v>6778645802.333971</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>1657</v>
+        <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6029520031.723974</v>
+        <v>6777303369.25458</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>1658</v>
+        <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6042747948.827225</v>
+        <v>6776053221.442776</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>1659</v>
+        <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6056131586.674848</v>
+        <v>6774891853.217204</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>1660</v>
+        <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6069672068.482037</v>
+        <v>6773812489.955655</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>1661</v>
+        <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6083370505.358229</v>
+        <v>6772809326.113734</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>1662</v>
+        <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6097227996.412983</v>
+        <v>6771873340.602748</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>1663</v>
+        <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6111245628.942819</v>
+        <v>6771002498.738445</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>1664</v>
+        <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6125424478.70354</v>
+        <v>6770191612.065332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>1665</v>
+        <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6139765610.272369</v>
+        <v>6769432083.760264</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>1666</v>
+        <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6154270077.504341</v>
+        <v>6768724215.99722</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>1667</v>
+        <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6168938924.087152</v>
+        <v>6768058887.242491</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1668</v>
+        <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6183773184.198782</v>
+        <v>6767433336.407025</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>1669</v>
+        <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6198773883.271784</v>
+        <v>6766843649.481207</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>1670</v>
+        <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6213942038.868247</v>
+        <v>6766285392.606133</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>1671</v>
+        <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6229278661.669183</v>
+        <v>6765752513.706946</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>1672</v>
+        <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6244784756.581873</v>
+        <v>6765242185.430035</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1673</v>
+        <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6260461323.968473</v>
+        <v>6764751848.024911</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>1674</v>
+        <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6276309360.999177</v>
+        <v>6764276606.318095</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>1675</v>
+        <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6292329863.132556</v>
+        <v>6763811861.743444</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>1676</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6308523825.725808</v>
+        <v>6763356717.586862</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1677</v>
+        <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6324892245.777244</v>
+        <v>6762900831.097147</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1678</v>
+        <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6341436123.802833</v>
+        <v>6762447078.215413</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1679</v>
+        <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6358156465.848569</v>
+        <v>6761990229.645833</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1680</v>
+        <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6375054285.639804</v>
+        <v>6761522129.192854</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1681</v>
+        <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6392130606.868525</v>
+        <v>6761044177.237261</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>1682</v>
+        <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6409386465.61899</v>
+        <v>6760549853.578848</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>1683</v>
+        <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6426822912.931803</v>
+        <v>6760037866.924108</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>1684</v>
+        <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6444441017.506023</v>
+        <v>6759504698.4813</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>1685</v>
+        <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6462241868.538474</v>
+        <v>6758946853.174094</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1686</v>
+        <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6480226578.698944</v>
+        <v>6758358806.532631</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>1687</v>
+        <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6498396287.239534</v>
+        <v>6757741847.253101</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>1688</v>
+        <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6516752163.235802</v>
+        <v>6757087517.834805</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>1689</v>
+        <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6535295408.956882</v>
+        <v>6756396159.418115</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>1690</v>
+        <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6554027263.361429</v>
+        <v>6755667357.250288</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>1691</v>
+        <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6572949005.71537</v>
+        <v>6754893128.72714</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>1692</v>
+        <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6592061959.327295</v>
+        <v>6754075181.879189</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>1693</v>
+        <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6611367495.39644</v>
+        <v>6753208012.996175</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>1694</v>
+        <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6630867036.968039</v>
+        <v>6752287147.66169</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>1695</v>
+        <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6650562062.989954</v>
+        <v>6751318029.663187</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>1696</v>
+        <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6670454112.464276</v>
+        <v>6750291736.973665</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>1697</v>
+        <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6690544788.686826</v>
+        <v>6749210801.755806</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>1698</v>
+        <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6710835763.567209</v>
+        <v>6748070121.141686</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>1699</v>
+        <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6731328782.021335</v>
+        <v>6746867677.67662</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6752025666.42809</v>
+        <v>6745602012.493257</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>1701</v>
+        <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6772928321.141212</v>
+        <v>6744278649.071196</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>1702</v>
+        <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6794038737.047013</v>
+        <v>6742887516.647837</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>1703</v>
+        <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6815358996.158221</v>
+        <v>6741431296.914086</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>1704</v>
+        <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6836891276.233833</v>
+        <v>6739910943.537202</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>1705</v>
+        <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6858637855.414363</v>
+        <v>6738326908.848557</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>1706</v>
+        <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6880601116.861647</v>
+        <v>6736674953.064111</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>1707</v>
+        <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6902783553.392105</v>
+        <v>6734961678.296617</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>1708</v>
+        <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6925187772.091942</v>
+        <v>6733181062.63729</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>1709</v>
+        <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6947816498.902568</v>
+        <v>6731338705.509469</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>1710</v>
+        <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6970672583.164475</v>
+        <v>6729433291.132751</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>1711</v>
+        <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6993759002.107406</v>
+        <v>6727466245.867804</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>1712</v>
+        <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7017078865.274588</v>
+        <v>6725442278.182676</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>1713</v>
+        <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7040635418.869035</v>
+        <v>6723362497.993793</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>1714</v>
+        <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7064432050.009303</v>
+        <v>6721229618.02011</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>1715</v>
+        <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>7088472290.882611</v>
+        <v>6719042713.489</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>1716</v>
+        <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7112759822.783186</v>
+        <v>6716810922.522696</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>1717</v>
+        <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>7137298480.023464</v>
+        <v>6714534575.586105</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>1718</v>
+        <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7162092253.706442</v>
+        <v>6712220429.573107</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>1719</v>
+        <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7187145295.347303</v>
+        <v>6709866958.954131</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>1720</v>
+        <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7212461920.332855</v>
+        <v>6707485533.085845</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>1721</v>
+        <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>7238046611.207583</v>
+        <v>6705079952.978035</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>1722</v>
+        <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7263904020.775439</v>
+        <v>6702655299.265594</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>1723</v>
+        <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>7290038975.007002</v>
+        <v>6700210885.358869</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>1724</v>
+        <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>7316456475.74193</v>
+        <v>6697760606.710542</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>1725</v>
+        <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7343161703.177267</v>
+        <v>6695309178.401524</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>1726</v>
+        <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>7370160018.13259</v>
+        <v>6692865109.158963</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>1727</v>
+        <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7397456964.083721</v>
+        <v>6690430625.44345</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>1728</v>
+        <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>7425058268.957108</v>
+        <v>6688024105.325889</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>1729</v>
+        <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>7452969846.677971</v>
+        <v>6685646695.782063</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>1730</v>
+        <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>7481197798.465709</v>
+        <v>6683305168.645652</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>1731</v>
+        <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>7509748413.871091</v>
+        <v>6681015857.85447</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>1732</v>
+        <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>7538628171.550242</v>
+        <v>6678783205.297623</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>1733</v>
+        <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7567843739.771581</v>
+        <v>6676619008.730289</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>1734</v>
+        <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>7597401976.652308</v>
+        <v>6674534588.565904</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>1735</v>
+        <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>7627309930.122412</v>
+        <v>6672539088.642165</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>1736</v>
+        <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7657574837.614548</v>
+        <v>6670640796.503753</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>1737</v>
+        <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7688204125.479363</v>
+        <v>6668859615.625453</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>1738</v>
+        <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>7719205408.126725</v>
+        <v>6667200680.548386</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>1739</v>
+        <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>7750586486.894206</v>
+        <v>6665674756.349225</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>1740</v>
+        <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>7782355348.645053</v>
+        <v>6664307286.856359</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>1741</v>
+        <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>7814520164.099005</v>
+        <v>6663097494.157023</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>1742</v>
+        <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>7847089285.900163</v>
+        <v>6662062908.473989</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>1743</v>
+        <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>7880071246.42705</v>
+        <v>6661225679.786633</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>1744</v>
+        <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>7913474755.351006</v>
+        <v>6660589149.530846</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>1745</v>
+        <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>7947308696.949965</v>
+        <v>6660169790.523902</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>1746</v>
+        <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>7981582127.185649</v>
+        <v>6659991113.236631</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>1747</v>
+        <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>8016304270.552961</v>
+        <v>6660056709.361203</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>1748</v>
+        <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>8051484516.711493</v>
+        <v>6660388347.764826</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>1749</v>
+        <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>8087132416.909621</v>
+        <v>6661002444.598635</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>8123257680.212801</v>
+        <v>6661915775.745498</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>1751</v>
+        <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>8159870169.548183</v>
+        <v>6663134073.593553</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>1752</v>
+        <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>8196979897.578713</v>
+        <v>6664691226.288759</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>1753</v>
+        <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>8234597022.420341</v>
+        <v>6666588412.433025</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>1754</v>
+        <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>8272731843.216794</v>
+        <v>6668849812.377237</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>1755</v>
+        <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>8311394795.58707</v>
+        <v>6671489772.681056</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>1756</v>
+        <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>8350596446.961175</v>
+        <v>6674531760.312963</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>1757</v>
+        <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>8390347491.820385</v>
+        <v>6677983058.568972</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>1758</v>
+        <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>8430658746.858727</v>
+        <v>6681869564.541516</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>1759</v>
+        <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>8471541146.08272</v>
+        <v>6686202837.839685</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>1760</v>
+        <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>8513005735.86698</v>
+        <v>6691007544.193563</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>1761</v>
+        <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>8555063669.983461</v>
+        <v>6696292282.070861</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>1762</v>
+        <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>8597726204.622427</v>
+        <v>6702090842.454974</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>1763</v>
+        <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>8641004693.423506</v>
+        <v>6708400138.035431</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>1764</v>
+        <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>8684910582.535139</v>
+        <v>6715257207.788863</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>1765</v>
+        <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>8729455405.721209</v>
+        <v>6722667241.885627</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>1766</v>
+        <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>8774650779.533131</v>
+        <v>6730657152.646298</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>1767</v>
+        <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>8820508398.566168</v>
+        <v>6739234402.781538</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>1768</v>
+        <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>8867040030.818295</v>
+        <v>6748430785.955082</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>1769</v>
+        <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>8914257513.169916</v>
+        <v>6758244326.181067</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>1770</v>
+        <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>8962172747.002628</v>
+        <v>6768711546.988692</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>1771</v>
+        <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>9010797693.974688</v>
+        <v>6779843277.389363</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>1772</v>
+        <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9060144371.970903</v>
+        <v>6791651223.778747</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>1773</v>
+        <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9110224851.243931</v>
+        <v>6804169454.631332</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>1774</v>
+        <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>9161051250.763731</v>
+        <v>6817406797.760217</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>1775</v>
+        <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>9212635734.791605</v>
+        <v>6831381454.371499</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>1776</v>
+        <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9264990509.694309</v>
+        <v>6846111266.144334</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>1777</v>
+        <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9318127821.013659</v>
+        <v>6861620423.899611</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>1778</v>
+        <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>9372059950.806034</v>
+        <v>6877908116.006886</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>1779</v>
+        <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>9426799215.265953</v>
+        <v>6895006272.470987</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>1780</v>
+        <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>9482357962.646799</v>
+        <v>6912921155.088238</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>1781</v>
+        <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>9538748571.491444</v>
+        <v>6931678053.405025</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>1782</v>
+        <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>9595983449.184563</v>
+        <v>6951284591.598473</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>1783</v>
+        <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>9654075030.837765</v>
+        <v>6971760582.360126</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>1784</v>
+        <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>9713035778.517942</v>
+        <v>6993120253.589787</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>1785</v>
+        <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>9772878180.828272</v>
+        <v>7015376435.24591</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>1786</v>
+        <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>9833614752.850779</v>
+        <v>7038546583.47947</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>1787</v>
+        <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>9895258036.458265</v>
+        <v>7062648107.00211</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>1788</v>
+        <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>9957820601.002789</v>
+        <v>7087687424.99148</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>1789</v>
+        <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>10021315044.38704</v>
+        <v>7113683478.399256</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>1790</v>
+        <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>10085753994.52392</v>
+        <v>7140643745.493044</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>1791</v>
+        <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>10151150111.18931</v>
+        <v>7168591337.570621</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>1792</v>
+        <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>10217516088.27148</v>
+        <v>7197529445.467216</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>1793</v>
+        <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>10284864656.42053</v>
+        <v>7227474288.275121</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>1794</v>
+        <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>10353208586.09996</v>
+        <v>7258438318.010596</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>1795</v>
+        <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>10422560691.04197</v>
+        <v>7290423631.270569</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>1796</v>
+        <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>10492933832.10713</v>
+        <v>7323451589.414024</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>1797</v>
+        <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>10564340921.54869</v>
+        <v>7357535009.061957</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>1798</v>
+        <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>10636794927.68046</v>
+        <v>7392671285.376607</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>1799</v>
+        <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>10710308879.94752</v>
+        <v>7428875477.642139</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>1800</v>
+        <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>10784895874.39713</v>
+        <v>7466163405.078678</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>1801</v>
+        <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>10860569079.5478</v>
+        <v>7504544563.069552</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>1802</v>
+        <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>10937341742.65084</v>
+        <v>7544018191.666672</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>1803</v>
+        <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>11015227196.34711</v>
+        <v>7584599307.170419</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>1804</v>
+        <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>11094238865.70863</v>
+        <v>7626288458.78123</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>1805</v>
+        <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>11174390275.66256</v>
+        <v>7669102530.565689</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>1806</v>
+        <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>11255695058.79209</v>
+        <v>7713049136.003798</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>1807</v>
+        <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>11338166963.50904</v>
+        <v>7758126182.458409</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>1808</v>
+        <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>11421819862.59215</v>
+        <v>7804344910.204694</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>1809</v>
+        <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>11506667762.08496</v>
+        <v>7851710016.586061</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>1810</v>
+        <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>11592724810.54681</v>
+        <v>7900233020.20739</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>1811</v>
+        <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>11680005308.65032</v>
+        <v>7949914758.544985</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>1812</v>
+        <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>11768523719.1184</v>
+        <v>8000762199.08966</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>1813</v>
+        <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>11858294676.99384</v>
+        <v>8052785689.871838</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>1814</v>
+        <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>11949333000.23436</v>
+        <v>8105978328.809461</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>1815</v>
+        <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>12041653700.62558</v>
+        <v>8160354492.737917</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>1816</v>
+        <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>12135271995.00499</v>
+        <v>8215921537.156934</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>1817</v>
+        <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>12230203316.78925</v>
+        <v>8272675910.308164</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>1818</v>
+        <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>12326463327.79764</v>
+        <v>8330634430.824059</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>1819</v>
+        <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>12424067930.36437</v>
+        <v>8389790905.658099</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>1820</v>
+        <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>12523033279.73229</v>
+        <v>8450151554.797815</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>1821</v>
+        <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>12623375796.72113</v>
+        <v>8511722869.606112</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>1822</v>
+        <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>12725112180.66278</v>
+        <v>8574513313.893833</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>1823</v>
+        <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>12828259422.59711</v>
+        <v>8638516102.042675</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>1824</v>
+        <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>12932834818.72097</v>
+        <v>8703747215.538113</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>1825</v>
+        <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>13038855984.08409</v>
+        <v>8770205852.469854</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>1826</v>
+        <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>13146340866.52509</v>
+        <v>8837898295.872917</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>1827</v>
+        <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>13255307760.84116</v>
+        <v>8906820319.801159</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>1828</v>
+        <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>13365775323.18532</v>
+        <v>8976987170.698666</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>1829</v>
+        <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>13477762585.68504</v>
+        <v>9048399382.468849</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>1830</v>
+        <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>13591288971.27623</v>
+        <v>9121063520.50407</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>1831</v>
+        <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>13706374308.74685</v>
+        <v>9194982691.715858</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>1832</v>
+        <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>13823038847.98438</v>
+        <v>9270162652.252665</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>1833</v>
+        <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>13941303275.42167</v>
+        <v>9346606776.075731</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>1834</v>
+        <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>14061188729.6755</v>
+        <v>9424325372.952915</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>1835</v>
+        <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>14182716817.37262</v>
+        <v>9503321345.265108</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>1836</v>
+        <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>14305909629.15761</v>
+        <v>9583596269.061861</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>1837</v>
+        <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>14430789755.87756</v>
+        <v>9665157792.769701</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>1838</v>
+        <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>14557380304.93776</v>
+        <v>9748023965.731243</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>1839</v>
+        <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>14685704916.82323</v>
+        <v>9832180755.564304</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>1840</v>
+        <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>14815787781.78039</v>
+        <v>9917649514.940987</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>1841</v>
+        <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>14947653656.65323</v>
+        <v>10004431671.4532</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>1842</v>
+        <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>15081327881.86795</v>
+        <v>10092538029.71942</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>1843</v>
+        <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>15216836398.56008</v>
+        <v>10181971060.46368</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>1844</v>
+        <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>15354205765.83753</v>
+        <v>10272739942.44324</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>1845</v>
+        <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>15493463178.17277</v>
+        <v>10364859647.24956</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>1846</v>
+        <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>15634636482.91692</v>
+        <v>10458336198.80248</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>1847</v>
+        <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>15777754197.92809</v>
+        <v>10553171787.67923</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>1848</v>
+        <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>15922845529.30556</v>
+        <v>10649381700.20924</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>1849</v>
+        <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>16069940389.22116</v>
+        <v>10746968162.494</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>1850</v>
+        <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>16219069413.83793</v>
+        <v>10845955064.83388</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>1851</v>
+        <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>16370263981.30614</v>
+        <v>10946340661.56887</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>1852</v>
+        <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>16523556229.82503</v>
+        <v>11048134290.10928</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>1853</v>
+        <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>16678979075.75849</v>
+        <v>11151358872.54777</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>1854</v>
+        <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>16836566231.79138</v>
+        <v>11256022904.14454</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>1855</v>
+        <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>16996352225.11223</v>
+        <v>11362130261.93584</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>1856</v>
+        <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>17158372415.60711</v>
+        <v>11469704712.26517</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>1857</v>
+        <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>17322663014.04762</v>
+        <v>11578748906.31936</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>1858</v>
+        <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>17489261100.2553</v>
+        <v>11689282048.09601</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>1859</v>
+        <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>17658204641.22281</v>
+        <v>11801311989.43905</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>1860</v>
+        <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>17829532509.17068</v>
+        <v>11914866829.30491</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>1861</v>
+        <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>18003284499.51722</v>
+        <v>12029946008.54224</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>1862</v>
+        <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>18179501348.73679</v>
+        <v>12146578254.89479</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>1863</v>
+        <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>18358224752.08062</v>
+        <v>12264765616.45033</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>1864</v>
+        <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>18539497381.13121</v>
+        <v>12384531379.65371</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>1865</v>
+        <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>18723362901.16112</v>
+        <v>12505894278.60203</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>1866</v>
+        <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>18909865988.26273</v>
+        <v>12628874116.91751</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>1867</v>
+        <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>19099052346.21514</v>
+        <v>12753480091.34671</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>1868</v>
+        <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>19290968723.0509</v>
+        <v>12879738596.67753</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>1869</v>
+        <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>19485662927.2834</v>
+        <v>13007663836.35003</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>1870</v>
+        <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>19683183843.75326</v>
+        <v>13137281509.05187</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>1871</v>
+        <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>19883581449.04899</v>
+        <v>13268607041.94928</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>1872</v>
+        <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>20086906826.45531</v>
+        <v>13401659401.63288</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>1873</v>
+        <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>20293212180.37877</v>
+        <v>13536468417.90824</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>1874</v>
+        <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>20502550850.19862</v>
+        <v>13673052628.53147</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>1875</v>
+        <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>20714977323.48687</v>
+        <v>13811428616.12348</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>1876</v>
+        <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>20930547248.53942</v>
+        <v>13951627336.7974</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>1877</v>
+        <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>21149317446.1563</v>
+        <v>14093670252.349</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>1878</v>
+        <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>21371345920.60659</v>
+        <v>14237584056.83209</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>1879</v>
+        <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>21596691869.71028</v>
+        <v>14383389457.71353</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>1880</v>
+        <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>21825415693.96554</v>
+        <v>14531114420.37295</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>1881</v>
+        <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>22057579004.648</v>
+        <v>14680783415.6273</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>1882</v>
+        <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>22293244630.80353</v>
+        <v>14832426884.90092</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>1883</v>
+        <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>22532476625.05456</v>
+        <v>14986067688.28094</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>1884</v>
+        <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>22775340268.13547</v>
+        <v>15141733017.65717</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>1885</v>
+        <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>23021902072.06983</v>
+        <v>15299453113.8923</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>1886</v>
+        <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>23272229781.89874</v>
+        <v>15459260523.19358</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>1887</v>
+        <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>23526392375.86687</v>
+        <v>15621180634.32325</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>1888</v>
+        <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>23784460063.96884</v>
+        <v>15785252735.89254</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>1889</v>
+        <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>24046504284.75621</v>
+        <v>15951496921.27703</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>1890</v>
+        <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>24312597700.30163</v>
+        <v>16119951306.13053</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>1891</v>
+        <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>24582814189.21464</v>
+        <v>16290638022.29737</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>1892</v>
+        <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>24857228837.60005</v>
+        <v>16463602484.90721</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>1893</v>
+        <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>25135917927.84753</v>
+        <v>16638874392.1886</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>1894</v>
+        <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>25418958925.1385</v>
+        <v>16816477449.71954</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>1895</v>
+        <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>25706430461.55429</v>
+        <v>16996463743.89468</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>1896</v>
+        <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>25998412317.66706</v>
+        <v>17178852648.85102</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>1897</v>
+        <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>26294985401.4935</v>
+        <v>17363685850.45811</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>1898</v>
+        <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>26596231724.68947</v>
+        <v>17550993677.30305</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>1899</v>
+        <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>26902234375.86285</v>
+        <v>17740823271.59261</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>1900</v>
+        <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>27213077490.88003</v>
+        <v>17933199316.98766</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>1901</v>
+        <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>27430361513.0873</v>
+        <v>18077315907.08358</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>1902</v>
+        <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>27651330019.66649</v>
+        <v>18223583485.35573</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>1903</v>
+        <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>27876050601.01794</v>
+        <v>18372011615.30038</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>1904</v>
+        <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>28104591582.75745</v>
+        <v>18522634249.67995</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>1905</v>
+        <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>28337021990.22897</v>
+        <v>18675493763.21973</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>1906</v>
+        <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>28573411510.22481</v>
+        <v>18830608011.12004</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>1907</v>
+        <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>28813830449.82209</v>
+        <v>18988016956.36435</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>1908</v>
+        <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>29058349692.24662</v>
+        <v>19147744214.77964</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>1909</v>
+        <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>29307040649.67667</v>
+        <v>19309823388.56494</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>1910</v>
+        <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>29559975212.90402</v>
+        <v>19474296930.79316</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>1911</v>
+        <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>29817225697.77063</v>
+        <v>19641179793.01706</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>1912</v>
+        <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>30078864788.3047</v>
+        <v>19810512978.18083</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>1913</v>
+        <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>30344965476.48431</v>
+        <v>19982327673.75699</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>1914</v>
+        <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>30615600998.56059</v>
+        <v>20156654374.82361</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>1915</v>
+        <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>30890844767.87983</v>
+        <v>20333517464.962</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>1916</v>
+        <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>31170770304.14898</v>
+        <v>20512952636.41991</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>1917</v>
+        <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>31455451159.09589</v>
+        <v>20694992875.68082</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>1918</v>
+        <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>31744960838.4842</v>
+        <v>20879667300.27368</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>1919</v>
+        <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>32039372720.44997</v>
+        <v>21067009487.06065</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>1920</v>
+        <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>32338759970.13702</v>
+        <v>21257038315.35485</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>1921</v>
+        <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>32643195450.6166</v>
+        <v>21449796294.24505</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>1922</v>
+        <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>32952751630.08833</v>
+        <v>21645301806.3199</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>1923</v>
+        <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>33267500485.36991</v>
+        <v>21843587923.95277</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>1924</v>
+        <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>33587513401.6948</v>
+        <v>22044684117.80359</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>1925</v>
+        <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>33912861068.84987</v>
+        <v>22248608824.70199</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>1926</v>
+        <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>34243613373.69761</v>
+        <v>22455400640.62533</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>1927</v>
+        <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>34579839289.14216</v>
+        <v>22665075800.47646</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>1928</v>
+        <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>34921606759.61175</v>
+        <v>22877654027.25505</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>1929</v>
+        <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>35268982583.1461</v>
+        <v>23093172349.85125</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>1930</v>
+        <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>35622032290.19305</v>
+        <v>23311640162.10435</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>1931</v>
+        <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>35980820019.23358</v>
+        <v>23533086966.84372</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>1932</v>
+        <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>36345408389.37311</v>
+        <v>23757531358.3476</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>1933</v>
+        <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>36715858370.05242</v>
+        <v>23984986059.83294</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>1934</v>
+        <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>37092229148.05</v>
+        <v>24215470462.99227</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>1935</v>
+        <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>37474577991.96515</v>
+        <v>24449008622.67469</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>1936</v>
+        <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>37862960114.38995</v>
+        <v>24685603397.54081</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>1937</v>
+        <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>38257428531.99511</v>
+        <v>24925276510.61056</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>1938</v>
+        <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>38658033923.77526</v>
+        <v>25168030840.55051</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>1939</v>
+        <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>39064824487.71579</v>
+        <v>25413877573.05681</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>1940</v>
+        <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>39477845796.16277</v>
+        <v>25662828436.1752</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>1941</v>
+        <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>39897140650.19534</v>
+        <v>25914887359.13737</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>1942</v>
+        <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>40322748933.31796</v>
+        <v>26170054407.37347</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>1943</v>
+        <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>40754707464.80756</v>
+        <v>26428333307.5666</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>1944</v>
+        <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>41193049853.06665</v>
+        <v>26689719081.05227</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>1945</v>
+        <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>41637806349.35147</v>
+        <v>26954211844.70448</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>1946</v>
+        <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>42089003702.25769</v>
+        <v>27221808176.42772</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>1947</v>
+        <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>42546665013.363</v>
+        <v>27492495654.55564</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>1948</v>
+        <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>43010809594.43734</v>
+        <v>27766266478.83588</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>1949</v>
+        <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>43481452826.64586</v>
+        <v>28043100471.85816</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>1950</v>
+        <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>43958606022.17912</v>
+        <v>28322989359.5808</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>1951</v>
+        <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>44442276288.75657</v>
+        <v>28605909773.95116</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>1952</v>
+        <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>44932466397.45535</v>
+        <v>28891848100.8525</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>1953</v>
+        <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>45429174654.32503</v>
+        <v>29180769757.05504</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>1954</v>
+        <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>45932394776.25171</v>
+        <v>29472665165.49023</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>1955</v>
+        <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>46442115771.53928</v>
+        <v>29767484590.18536</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>1956</v>
+        <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>46932945289.10224</v>
+        <v>30042848108.20194</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>1957</v>
+        <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>47429907081.00587</v>
+        <v>30320897726.87341</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>1958</v>
+        <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>47932974697.63028</v>
+        <v>30601604381.93312</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>1959</v>
+        <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>48442116730.93074</v>
+        <v>30884910499.12933</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>1960</v>
+        <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>48957296729.26546</v>
+        <v>31170788789.7606</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>1961</v>
+        <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>49478473119.40271</v>
+        <v>31459183855.6368</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>1962</v>
+        <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>50005599136.11382</v>
+        <v>31750051155.03529</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>1963</v>
+        <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>50538622759.74415</v>
+        <v>32043338859.52653</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>1964</v>
+        <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>51077486662.1366</v>
+        <v>32338981999.16317</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>1965</v>
+        <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>51622128161.26205</v>
+        <v>32636933828.36066</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>1966</v>
+        <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>52172479184.89058</v>
+        <v>32937129968.91552</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>1967</v>
+        <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>52728466243.61116</v>
+        <v>33239505244.04157</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>1968</v>
+        <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>53290010413.48313</v>
+        <v>33543992068.78091</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>1969</v>
+        <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>53857027328.57208</v>
+        <v>33850521191.88525</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>1970</v>
+        <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>54429427183.59467</v>
+        <v>34159019980.13445</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>1971</v>
+        <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>54909728170.83833</v>
+        <v>34395292744.81098</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>1972</v>
+        <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>55394281541.76668</v>
+        <v>34632958949.31615</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>1973</v>
+        <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>55882990173.89543</v>
+        <v>34871943108.69662</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>1974</v>
+        <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>56375752188.16265</v>
+        <v>35112459463.33583</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>1975</v>
+        <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>56872460993.06549</v>
+        <v>35354134811.46886</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>1976</v>
+        <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>57373005337.92971</v>
+        <v>35596890948.35938</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>1977</v>
+        <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>57877269375.28091</v>
+        <v>35840648176.84212</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>1978</v>
+        <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>58385132732.25374</v>
+        <v>36085324790.98946</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>1979</v>
+        <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>58896470590.94055</v>
+        <v>36330840931.41476</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>1980</v>
+        <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>59411153777.54813</v>
+        <v>36577100380.92986</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>1981</v>
+        <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>60070425515.33485</v>
+        <v>36908116268.7721</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>1982</v>
+        <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>60733763358.74641</v>
+        <v>37239995156.94473</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>1983</v>
+        <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>61401005524.70427</v>
+        <v>37572636288.50462</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>1984</v>
+        <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>62071985849.15453</v>
+        <v>37905925678.2122</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>1985</v>
+        <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>62746533955.2986</v>
+        <v>38239761647.8305</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>1986</v>
+        <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>63424475430.91145</v>
+        <v>39007149607.99615</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>1987</v>
+        <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>64105632014.31203</v>
+        <v>39775450413.94258</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>1988</v>
+        <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>64789821788.51717</v>
+        <v>40537710512.57326</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>1989</v>
+        <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>65476859383.07822</v>
+        <v>41276450387.50755</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>1990</v>
+        <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>66166556183.07133</v>
+        <v>41971373365.15321</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>1991</v>
+        <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>66550683521.5195</v>
+        <v>42340015289.34836</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>1992</v>
+        <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>66935467705.44954</v>
+        <v>42652283439.89252</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>1993</v>
+        <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>67320758092.83842</v>
+        <v>42916139399.59601</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>1994</v>
+        <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>67706401714.04836</v>
+        <v>43144338629.48812</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>1995</v>
+        <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>68092243399.83157</v>
+        <v>43350940046.94147</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>1996</v>
+        <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>68478125911.25186</v>
+        <v>43548998860.16348</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>1997</v>
+        <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>68863890071.16261</v>
+        <v>43749392051.20779</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>1998</v>
+        <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>69249374896.88672</v>
+        <v>43960423638.66554</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>1999</v>
+        <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>69634417733.75592</v>
+        <v>44187913673.81863</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>70018854389.17908</v>
+        <v>44435533847.42959</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>2001</v>
+        <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>70033369930.28545</v>
+        <v>44286895459.80313</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>2002</v>
+        <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>70045475021.06447</v>
+        <v>44167511272.97272</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>2003</v>
+        <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>70055047714.4209</v>
+        <v>44076591348.15931</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>2004</v>
+        <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>70061963822.6741</v>
+        <v>44012629708.69047</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>2005</v>
+        <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>70066096918.33247</v>
+        <v>43973673420.32771</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>2006</v>
+        <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>70067318335.14653</v>
+        <v>43957540327.69809</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>2007</v>
+        <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>70065497169.70888</v>
+        <v>43961955065.89676</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>2008</v>
+        <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>70060500283.92206</v>
+        <v>43984651405.9807</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>2009</v>
+        <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>70052192308.71043</v>
+        <v>44023465957.5365</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>2010</v>
+        <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>70040435649.41315</v>
+        <v>44076352631.62944</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>2011</v>
+        <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>70048716894.98653</v>
+        <v>44200260175.97312</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
-        <v>2012</v>
+        <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>70053313952.06874</v>
+        <v>44318851617.80878</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
-        <v>2013</v>
+        <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>70054080703.44983</v>
+        <v>44433130763.93124</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
-        <v>2014</v>
+        <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>70050869011.99611</v>
+        <v>44543369737.96774</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
-        <v>2015</v>
+        <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>70043528749.2495</v>
+        <v>44649797093.15704</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
-        <v>2016</v>
+        <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>70031907829.44737</v>
+        <v>44752607207.50208</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
-        <v>2017</v>
+        <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>70015852249.8985</v>
+        <v>44850886569.69824</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
-        <v>2018</v>
+        <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>69995206138.74017</v>
+        <v>44933091694.55463</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
-        <v>2019</v>
+        <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>69969811811.19022</v>
+        <v>44970176075.852</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
-        <v>2020</v>
+        <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>69939509835.50224</v>
+        <v>44929553786.57429</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
-        <v>2021</v>
+        <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>69904139109.92351</v>
+        <v>44791843536.37157</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
-        <v>2022</v>
+        <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>69863536952.05115</v>
+        <v>44556152119.93007</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
-        <v>2023</v>
+        <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>69817539202.07246</v>
+        <v>44236317345.67778</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
-        <v>2024</v>
+        <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>69765980341.4678</v>
+        <v>43854203139.63101</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
-        <v>2025</v>
+        <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>69708693628.84003</v>
+        <v>43433805970.85272</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
-        <v>2026</v>
+        <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>69645511254.61867</v>
+        <v>42997360356.53104</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
-        <v>2027</v>
+        <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>69576264516.46057</v>
+        <v>42563344390.47348</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
-        <v>2028</v>
+        <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>69500784017.23636</v>
+        <v>42145858134.76568</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
-        <v>2029</v>
+        <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>69418899887.54738</v>
+        <v>41754797838.29845</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
-        <v>2030</v>
+        <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>69330442034.76108</v>
+        <v>41396423790.44976</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
-        <v>2031</v>
+        <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>69235240420.57741</v>
+        <v>41074075480.84828</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
-        <v>2032</v>
+        <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>69133125369.14819</v>
+        <v>40788888863.74146</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
-        <v>2033</v>
+        <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>69023927907.75793</v>
+        <v>40540376560.37991</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
-        <v>2034</v>
+        <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>68907480142.03384</v>
+        <v>40326963081.85349</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
-        <v>2035</v>
+        <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>68783615667.58974</v>
+        <v>40146386862.08047</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
-        <v>2036</v>
+        <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>68652170019.90929</v>
+        <v>39995975991.89241</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
-        <v>2037</v>
+        <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>68512981164.14532</v>
+        <v>39872873767.06398</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
-        <v>2038</v>
+        <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>68365890026.34162</v>
+        <v>39774210005.87611</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
-        <v>2039</v>
+        <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>68210741067.37865</v>
+        <v>39697186245.3175</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
-        <v>2040</v>
+        <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>68047382900.69231</v>
+        <v>39639146726.4159</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
-        <v>2041</v>
+        <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>67875668954.52079</v>
+        <v>39597613841.59899</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
-        <v>2042</v>
+        <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>67695458179.09238</v>
+        <v>39570319450.81221</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
-        <v>2043</v>
+        <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>67506615798.77762</v>
+        <v>39555192148.42498</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
-        <v>2044</v>
+        <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>67309014108.78934</v>
+        <v>39550365797.62792</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
-        <v>2045</v>
+        <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>67102533315.52648</v>
+        <v>39554172967.40742</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
-        <v>2046</v>
+        <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>66887062419.12146</v>
+        <v>39565117553.34016</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
-        <v>2047</v>
+        <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>66662500136.16803</v>
+        <v>39581870268.07388</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
-        <v>2048</v>
+        <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>66428755859.97848</v>
+        <v>39603253524.0357</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
-        <v>2049</v>
+        <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>66185750655.05304</v>
+        <v>39628229577.6532</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
-        <v>2050</v>
+        <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>65933418281.74115</v>
+        <v>431146183.9598742</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/total_energy_use.xlsx
+++ b/Data/model_outputs_baseline/energy/total_energy_use.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10786553622.77983</v>
+        <v>5266257744.987864</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10203595421.67904</v>
+        <v>5265216161.514491</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9722895142.285082</v>
+        <v>5269051002.840878</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9315523109.528193</v>
+        <v>5271378041.67357</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>8972026085.108309</v>
+        <v>5274245391.380483</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8681391187.735422</v>
+        <v>5277600094.943245</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>8434645369.894324</v>
+        <v>5281395766.788116</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8224449879.957232</v>
+        <v>5285591835.66879</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8044790686.291545</v>
+        <v>5290152478.534407</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7890722851.704421</v>
+        <v>5295047153.780149</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7758174038.740351</v>
+        <v>5300249343.297164</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7643770068.630094</v>
+        <v>5305732272.487158</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7544718113.980998</v>
+        <v>5311477476.691791</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7458694428.30728</v>
+        <v>5317466758.565233</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7383761708.972772</v>
+        <v>5323682760.517162</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7318296538.467444</v>
+        <v>5330114079.944202</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7260940265.079535</v>
+        <v>5336747173.641115</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7210543563.78404</v>
+        <v>5343570773.365701</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7166141550.031641</v>
+        <v>5350577498.176558</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7126919557.72743</v>
+        <v>5357757316.672121</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7092177355.547467</v>
+        <v>5365107814.404232</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7061325292.0417</v>
+        <v>5372617954.367489</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7033864760.430352</v>
+        <v>5380284549.063985</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7009354445.470147</v>
+        <v>5388104745.971691</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6987429698.385599</v>
+        <v>5396073931.530856</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6967774715.458891</v>
+        <v>5404188676.84363</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6950111641.078541</v>
+        <v>5412444699.949399</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6934201976.58668</v>
+        <v>5420843335.316852</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6919846964.223507</v>
+        <v>5429382415.655288</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6906861641.173043</v>
+        <v>5438055677.142509</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6895090893.764125</v>
+        <v>5446867469.111722</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6884402118.655342</v>
+        <v>5455815399.656058</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>6874678688.984588</v>
+        <v>5464897498.505361</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6865813087.763894</v>
+        <v>5474113908.471623</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6857718236.901383</v>
+        <v>5483466011.278496</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6850314726.68895</v>
+        <v>5492951244.481463</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6843532409.893146</v>
+        <v>5502570190.939706</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6837310177.382743</v>
+        <v>5512324469.760982</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6831591816.099407</v>
+        <v>5522213164.86206</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6826328294.983489</v>
+        <v>5532236638.349125</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6821479967.002326</v>
+        <v>5542397886.335383</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6817006448.756311</v>
+        <v>5552694075.788809</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6812876467.284417</v>
+        <v>5563128912.25421</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6809059097.951371</v>
+        <v>5573700561.397806</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6805526624.104043</v>
+        <v>5584410800.794642</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6802257550.142245</v>
+        <v>5595261941.984865</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6799226143.53228</v>
+        <v>5606250730.889265</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6796415976.447656</v>
+        <v>5617382356.762245</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6793808661.579916</v>
+        <v>5628654791.965934</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6791391273.830668</v>
+        <v>5640070799.908351</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6789144211.704982</v>
+        <v>5651629713.880503</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6787056735.568429</v>
+        <v>5663334493.858362</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6785119050.438152</v>
+        <v>5675184137.514404</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6783320033.935234</v>
+        <v>5687182126.457976</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6781648280.83879</v>
+        <v>5699326851.599671</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6780090372.330841</v>
+        <v>5711619697.249501</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6778645802.333971</v>
+        <v>5724064875.524194</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6777303369.25458</v>
+        <v>5736659783.145127</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6776053221.442776</v>
+        <v>5749407002.058533</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6774891853.217204</v>
+        <v>5762308107.933649</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6773812489.955655</v>
+        <v>5775362813.932493</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6772809326.113734</v>
+        <v>5788573438.473469</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6771873340.602748</v>
+        <v>5801940598.565094</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6771002498.738445</v>
+        <v>5815464299.788583</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6770191612.065332</v>
+        <v>5829146767.238983</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6769432083.760264</v>
+        <v>5842989800.830132</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6768724215.99722</v>
+        <v>5856993295.257272</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6768058887.242491</v>
+        <v>5871157677.894541</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6767433336.407025</v>
+        <v>5885484994.928801</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6766843649.481207</v>
+        <v>5899975940.730366</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6766285392.606133</v>
+        <v>5914631757.778228</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6765752513.706946</v>
+        <v>5929453540.103986</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6765242185.430035</v>
+        <v>5944443470.117857</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6764751848.024911</v>
+        <v>5959598092.42212</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6764276606.318095</v>
+        <v>5974924898.291959</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6763811861.743444</v>
+        <v>5990419772.913367</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6763356717.586862</v>
+        <v>6006085405.037157</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6762900831.097147</v>
+        <v>6021924184.308546</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6762447078.215413</v>
+        <v>6037935470.021355</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6761990229.645833</v>
+        <v>6054119226.27404</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6761522129.192854</v>
+        <v>6070479478.082847</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6761044177.237261</v>
+        <v>6087015268.362609</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6760549853.578848</v>
+        <v>6103728397.032731</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6760037866.924108</v>
+        <v>6120619909.321111</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6759504698.4813</v>
+        <v>6137690113.584819</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6758946853.174094</v>
+        <v>6154940274.252834</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6758358806.532631</v>
+        <v>6172372948.891804</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6757741847.253101</v>
+        <v>6189989352.677562</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6757087517.834805</v>
+        <v>6207787298.955761</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6756396159.418115</v>
+        <v>6225771728.831578</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6755667357.250288</v>
+        <v>6243941490.962212</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6754893128.72714</v>
+        <v>6262299586.896448</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6754075181.879189</v>
+        <v>6280846738.311563</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6753208012.996175</v>
+        <v>6299582463.732411</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6752287147.66169</v>
+        <v>6318511559.481676</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6751318029.663187</v>
+        <v>6337633887.449247</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6750291736.973665</v>
+        <v>6356949545.507904</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6749210801.755806</v>
+        <v>6376461434.776174</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6748070121.141686</v>
+        <v>6396173052.248511</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6746867677.67662</v>
+        <v>6416082175.139189</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6745602012.493257</v>
+        <v>6436192720.578533</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6744278649.071196</v>
+        <v>6456507291.585451</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6742887516.647837</v>
+        <v>6477025622.815902</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6741431296.914086</v>
+        <v>6497751103.12355</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6739910943.537202</v>
+        <v>6518685489.812146</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6738326908.848557</v>
+        <v>6539832760.017353</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6736674953.064111</v>
+        <v>6561191659.927</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6734961678.296617</v>
+        <v>6582767871.377436</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6733181062.63729</v>
+        <v>6604562862.175803</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6731338705.509469</v>
+        <v>6626576301.113992</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6729433291.132751</v>
+        <v>6648817236.96576</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6727466245.867804</v>
+        <v>6671279897.565933</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6725442278.182676</v>
+        <v>6693976449.77971</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6723362497.993793</v>
+        <v>6716902524.270463</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6721229618.02011</v>
+        <v>6740066361.388857</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6719042713.489</v>
+        <v>6763466217.266142</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6716810922.522696</v>
+        <v>6787112908.141581</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6714534575.586105</v>
+        <v>6811001217.387241</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6712220429.573107</v>
+        <v>6835144136.481363</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6709866958.954131</v>
+        <v>6859537256.040336</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6707485533.085845</v>
+        <v>6884189496.104652</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6705079952.978035</v>
+        <v>6909101927.986689</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6702655299.265594</v>
+        <v>6934283358.316197</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6700210885.358869</v>
+        <v>6959733116.332506</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6697760606.710542</v>
+        <v>6985462566.121499</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>6695309178.401524</v>
+        <v>7011469209.176981</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>6692865109.158963</v>
+        <v>7037763769.856828</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>6690430625.44345</v>
+        <v>7064342574.831663</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>6688024105.325889</v>
+        <v>7091227336.253415</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>6685646695.782063</v>
+        <v>7118407251.512498</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>6683305168.645652</v>
+        <v>7145895813.186001</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>6681015857.85447</v>
+        <v>7173698300.424341</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>6678783205.297623</v>
+        <v>7201821938.938078</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>6676619008.730289</v>
+        <v>7230265441.456481</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>6674534588.565904</v>
+        <v>7259047016.209361</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>6672539088.642165</v>
+        <v>7288166988.302214</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>6670640796.503753</v>
+        <v>7317625992.698568</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>6668859615.625453</v>
+        <v>7347442761.129201</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>6667200680.548386</v>
+        <v>7377622007.981665</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>6665674756.349225</v>
+        <v>7408160130.17077</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>6664307286.856359</v>
+        <v>7439075221.997218</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>6663097494.157023</v>
+        <v>7470374067.678957</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>6662062908.473989</v>
+        <v>7502061119.665205</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>6661225679.786633</v>
+        <v>7534146392.622693</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>6660589149.530846</v>
+        <v>7566637107.67265</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>6660169790.523902</v>
+        <v>7599544580.076105</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>6659991113.236631</v>
+        <v>7632871116.038661</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>6660056709.361203</v>
+        <v>7666632421.243057</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>6660388347.764826</v>
+        <v>7700832282.812422</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>6661002444.598635</v>
+        <v>7735481433.355842</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>6661915775.745498</v>
+        <v>7770588803.18382</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>6663134073.593553</v>
+        <v>7806164881.1346</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>6664691226.288759</v>
+        <v>7842215877.921835</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>6666588412.433025</v>
+        <v>7878755703.852498</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>6668849812.377237</v>
+        <v>7915791092.644836</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>6671489772.681056</v>
+        <v>7953333963.785394</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>6674531760.312963</v>
+        <v>7991389442.885102</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>6677983058.568972</v>
+        <v>8029975376.192984</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>6681869564.541516</v>
+        <v>8069093845.901929</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>6686202837.839685</v>
+        <v>8108760956.019971</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>6691007544.193563</v>
+        <v>8148985146.853211</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>6696292282.070861</v>
+        <v>8189776616.28631</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>6702090842.454974</v>
+        <v>8231147066.712016</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>6708400138.035431</v>
+        <v>8273105315.73976</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>6715257207.788863</v>
+        <v>8315660177.298593</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>6722667241.885627</v>
+        <v>8358829441.400491</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>6730657152.646298</v>
+        <v>8402619661.609075</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>6739234402.781538</v>
+        <v>8447043051.666634</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>6748430785.955082</v>
+        <v>8492111815.454741</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>6758244326.181067</v>
+        <v>8537831912.666264</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>6768711546.988692</v>
+        <v>8584224396.274203</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>6779843277.389363</v>
+        <v>8631289884.13228</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>6791651223.778747</v>
+        <v>8679045644.998032</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>6804169454.631332</v>
+        <v>8727499326.480143</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>6817406797.760217</v>
+        <v>8776669998.781412</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>6831381454.371499</v>
+        <v>8826561258.714842</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>6846111266.144334</v>
+        <v>8877184926.685696</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>6861620423.899611</v>
+        <v>8928563402.117062</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>6877908116.006886</v>
+        <v>8980691992.394381</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>6895006272.470987</v>
+        <v>9033594573.814934</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>6912921155.088238</v>
+        <v>9087279081.541056</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>6931678053.405025</v>
+        <v>9141756257.472948</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>6951284591.598473</v>
+        <v>9197037648.499428</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>6971760582.360126</v>
+        <v>9253140036.865046</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>6993120253.589787</v>
+        <v>9310069175.071224</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>7015376435.24591</v>
+        <v>9367839383.938538</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>7038546583.47947</v>
+        <v>9426463293.470797</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>7062648107.00211</v>
+        <v>9485952937.0411</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>7087687424.99148</v>
+        <v>9546316369.517557</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>7113683478.399256</v>
+        <v>9607573185.940256</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>7140643745.493044</v>
+        <v>9669727900.517078</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>7168591337.570621</v>
+        <v>9732797158.933552</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>7197529445.467216</v>
+        <v>9796789832.587679</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>7227474288.275121</v>
+        <v>9861724233.723963</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>7258438318.010596</v>
+        <v>9927605741.768389</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>7290423631.270569</v>
+        <v>9994446586.952662</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>7323451589.414024</v>
+        <v>10062267238.42981</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>7357535009.061957</v>
+        <v>10131069666.91506</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>7392671285.376607</v>
+        <v>10200872700.78458</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>7428875477.642139</v>
+        <v>10271686182.41007</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>7466163405.078678</v>
+        <v>10343529274.62608</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>7504544563.069552</v>
+        <v>10416405144.7914</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>7544018191.666672</v>
+        <v>10490328452.41521</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>7584599307.170419</v>
+        <v>10565319619.05189</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>7626288458.78123</v>
+        <v>10641384157.41707</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>7669102530.565689</v>
+        <v>10718538066.50638</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>7713049136.003798</v>
+        <v>10796788710.36025</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>7758126182.458409</v>
+        <v>10876157284.08556</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>7804344910.204694</v>
+        <v>10956654697.52876</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>7851710016.586061</v>
+        <v>11038292148.57086</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>7900233020.20739</v>
+        <v>11121085365.36746</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>7949914758.544985</v>
+        <v>11205046617.97603</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>8000762199.08966</v>
+        <v>11290191727.15765</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>8052785689.871838</v>
+        <v>11376532245.51771</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>8105978328.809461</v>
+        <v>11464083248.83188</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>8160354492.737917</v>
+        <v>11552862721.30486</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>8215921537.156934</v>
+        <v>11642879213.04167</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>8272675910.308164</v>
+        <v>11734153395.1625</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>8330634430.824059</v>
+        <v>11826697331.94285</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>8389790905.658099</v>
+        <v>11920527949.22549</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>8450151554.797815</v>
+        <v>12015657298.49716</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>8511722869.606112</v>
+        <v>12112101254.37742</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>8574513313.893833</v>
+        <v>12209883568.15434</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>8638516102.042675</v>
+        <v>12309011606.97075</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>8703747215.538113</v>
+        <v>12409509424.2117</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>8770205852.469854</v>
+        <v>12511386488.72535</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>8837898295.872917</v>
+        <v>12614664612.41278</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>8906820319.801159</v>
+        <v>12719362745.29563</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>8976987170.698666</v>
+        <v>12825497646.1374</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>9048399382.468849</v>
+        <v>12933085683.25694</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>9121063520.50407</v>
+        <v>13042144489.2608</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>9194982691.715858</v>
+        <v>13152700070.73119</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>9270162652.252665</v>
+        <v>13264762948.6358</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>9346606776.075731</v>
+        <v>13378359305.87811</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>9424325372.952915</v>
+        <v>13493508528.17437</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>9503321345.265108</v>
+        <v>13610229081.65628</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>9583596269.061861</v>
+        <v>13728544066.06256</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>9665157792.769701</v>
+        <v>13848474032.28037</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>9748023965.731243</v>
+        <v>13970043580.58611</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>9832180755.564304</v>
+        <v>14093275332.6461</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>9917649514.940987</v>
+        <v>14218188892.80991</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>10004431671.4532</v>
+        <v>14344810918.5658</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>10092538029.71942</v>
+        <v>14473165866.92312</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>10181971060.46368</v>
+        <v>14603277335.21377</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>10272739942.44324</v>
+        <v>14735173390.20715</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>10364859647.24956</v>
+        <v>14868875623.1952</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>10458336198.80248</v>
+        <v>15004415358.84311</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>10553171787.67923</v>
+        <v>15141819656.59465</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>10649381700.20924</v>
+        <v>15281113635.72863</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>10746968162.494</v>
+        <v>15422326101.53778</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>10845955064.83388</v>
+        <v>15565491339.20483</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>10946340661.56887</v>
+        <v>15710634750.88958</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>11048134290.10928</v>
+        <v>15857791010.35945</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>11151358872.54777</v>
+        <v>16006986713.40517</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>11256022904.14454</v>
+        <v>16158258346.25027</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>11362130261.93584</v>
+        <v>16311638129.9584</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>11469704712.26517</v>
+        <v>16467161369.88525</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>11578748906.31936</v>
+        <v>16624861553.71393</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>11689282048.09601</v>
+        <v>16784772238.60627</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>11801311989.43905</v>
+        <v>16946933144.35585</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>11914866829.30491</v>
+        <v>17111381577.48406</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>12029946008.54224</v>
+        <v>17278152838.40015</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>12146578254.89479</v>
+        <v>17447286861.88515</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>12264765616.45033</v>
+        <v>17618830632.65895</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>12384531379.65371</v>
+        <v>17792811196.91452</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>12505894278.60203</v>
+        <v>17969283230.11018</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>12628874116.91751</v>
+        <v>18148282202.89525</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>12753480091.34671</v>
+        <v>18329858842.44497</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>12879738596.67753</v>
+        <v>18514051668.92637</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>13007663836.35003</v>
+        <v>18700908210.2684</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>13137281509.05187</v>
+        <v>18890480881.88356</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>13268607041.94928</v>
+        <v>19082805907.82766</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>13401659401.63288</v>
+        <v>19277943715.45267</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>13536468417.90824</v>
+        <v>19475940456.07077</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>13673052628.53147</v>
+        <v>19676845625.50872</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>13811428616.12348</v>
+        <v>19880712829.63464</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>13951627336.7974</v>
+        <v>20087595995.4243</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>14093670252.349</v>
+        <v>20297550990.31455</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>14237584056.83209</v>
+        <v>20510630920.96037</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>14383389457.71353</v>
+        <v>20726891407.3101</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>14531114420.37295</v>
+        <v>20946395372.86816</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>14680783415.6273</v>
+        <v>21169200095.65147</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>14832426884.90092</v>
+        <v>21395361052.05711</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>14986067688.28094</v>
+        <v>21624946510.36922</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>15141733017.65717</v>
+        <v>21858015823.96886</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>15299453113.8923</v>
+        <v>22094634376.30941</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>15459260523.19358</v>
+        <v>22334862827.61261</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>15621180634.32325</v>
+        <v>22578771990.55706</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>15785252735.89254</v>
+        <v>22826432667.73645</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>15951496921.27703</v>
+        <v>23077904115.45539</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>16119951306.13053</v>
+        <v>23333259933.73924</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>16290638022.29737</v>
+        <v>23592574906.63615</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>16463602484.90721</v>
+        <v>23855916649.02173</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>16638874392.1886</v>
+        <v>24123360760.87817</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>16816477449.71954</v>
+        <v>24394981861.61295</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>16996463743.89468</v>
+        <v>24670850374.7178</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>17178852648.85102</v>
+        <v>24951050635.19885</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>17363685850.45811</v>
+        <v>25235655178.19535</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>17550993677.30305</v>
+        <v>25524742148.72893</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>17740823271.59261</v>
+        <v>25818395112.83026</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>17933199316.98766</v>
+        <v>26116692282.30813</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>18077315907.08358</v>
+        <v>26319643401.5429</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>18223583485.35573</v>
+        <v>26526064980.35982</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>18372011615.30038</v>
+        <v>26735977169.15963</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>18522634249.67995</v>
+        <v>26949472367.93733</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>18675493763.21973</v>
+        <v>27166604831.8244</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>18830608011.12004</v>
+        <v>27387444204.22392</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>18988016956.36435</v>
+        <v>27612061473.42556</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>19147744214.77964</v>
+        <v>27840509763.49171</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>19309823388.56494</v>
+        <v>28072869684.71253</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>19474296930.79316</v>
+        <v>28309203455.90681</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>19641179793.01706</v>
+        <v>28549580548.26783</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>19810512978.18083</v>
+        <v>28794062069.03363</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>19982327673.75699</v>
+        <v>29042730668.0475</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>20156654374.82361</v>
+        <v>29295639618.94341</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>20333517464.962</v>
+        <v>29552866759.5581</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>20512952636.41991</v>
+        <v>29814479394.20315</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>20694992875.68082</v>
+        <v>30080544161.84225</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>20879667300.27368</v>
+        <v>30351133701.76214</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>21067009487.06065</v>
+        <v>30626312423.95588</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>21257038315.35485</v>
+        <v>30906150226.27901</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>21449796294.24505</v>
+        <v>31190720447.60111</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>21645301806.3199</v>
+        <v>31480082447.77888</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>21843587923.95277</v>
+        <v>31774311860.28726</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>22044684117.80359</v>
+        <v>32073469626.01204</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>22248608824.70199</v>
+        <v>32377621789.00531</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>22455400640.62533</v>
+        <v>32686839590.27107</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>22665075800.47646</v>
+        <v>33001180112.31618</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>22877654027.25505</v>
+        <v>33320716581.2582</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>23093172349.85125</v>
+        <v>33645499866.02564</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>23311640162.10435</v>
+        <v>33975598511.9985</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>23533086966.84372</v>
+        <v>34311075628.32454</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>23757531358.3476</v>
+        <v>34651978327.0778</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>23984986059.83294</v>
+        <v>34998376366.39565</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>24215470462.99227</v>
+        <v>35350313400.17812</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>24449008622.67469</v>
+        <v>35707854573.47365</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>24685603397.54081</v>
+        <v>36071041447.03293</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>24925276510.61056</v>
+        <v>36439930069.27642</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>25168030840.55051</v>
+        <v>36814566141.5585</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>25413877573.05681</v>
+        <v>37194991366.97939</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>25662828436.1752</v>
+        <v>37581250301.80763</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>25914887359.13737</v>
+        <v>37973386714.4414</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>26170054407.37347</v>
+        <v>38371431103.08776</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>26428333307.5666</v>
+        <v>38775419840.60632</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>26689719081.05227</v>
+        <v>39185387324.63565</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>26954211844.70448</v>
+        <v>39601357880.44093</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>27221808176.42772</v>
+        <v>40023360724.4158</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>27492495654.55564</v>
+        <v>40451412205.76916</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>27766266478.83588</v>
+        <v>40885529246.64497</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>28043100471.85816</v>
+        <v>41325731802.35871</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>28322989359.5808</v>
+        <v>41772027631.14812</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>28605909773.95116</v>
+        <v>42224422698.25899</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>28891848100.8525</v>
+        <v>42682915941.20611</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>29180769757.05504</v>
+        <v>43147510433.04651</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>29472665165.49023</v>
+        <v>43618196161.24356</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>29767484590.18536</v>
+        <v>44094966776.7807</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>30042848108.20194</v>
+        <v>44524766030.72594</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>30320897726.87341</v>
+        <v>44959968548.5186</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>30601604381.93312</v>
+        <v>45400546380.66492</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>30884910499.12933</v>
+        <v>45846470500.60504</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>31170788789.7606</v>
+        <v>46297706814.39161</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>31459183855.6368</v>
+        <v>46754219082.37374</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>31750051155.03529</v>
+        <v>47215962702.35364</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>32043338859.52653</v>
+        <v>47682893599.38589</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>32338981999.16317</v>
+        <v>48154952751.79443</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>32636933828.36066</v>
+        <v>48632085583.75266</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>32937129968.91552</v>
+        <v>49114233828.70489</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>33239505244.04157</v>
+        <v>49601325817.162</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>33543992068.78091</v>
+        <v>50093291113.3171</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>33850521191.88525</v>
+        <v>50590051660.08501</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>34159019980.13445</v>
+        <v>51091528447.83645</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>34395292744.81098</v>
+        <v>51507797460.39448</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>34632958949.31615</v>
+        <v>51927737354.97382</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>34871943108.69662</v>
+        <v>52351263747.8966</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>35112459463.33583</v>
+        <v>52778287407.21146</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>35354134811.46886</v>
+        <v>53208707340.55899</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>35596890948.35938</v>
+        <v>53642426085.75603</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>35840648176.84212</v>
+        <v>54079336223.97583</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>36085324790.98946</v>
+        <v>54519329800.30238</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>36330840931.41476</v>
+        <v>54962297457.1194</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>36577100380.92986</v>
+        <v>55408120095.2572</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>36908116268.7721</v>
+        <v>55980267802.40405</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>37239995156.94473</v>
+        <v>56555888811.50822</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>37572636288.50462</v>
+        <v>57134841799.2606</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>37905925678.2122</v>
+        <v>57716970878.71117</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>38239761647.8305</v>
+        <v>58302126225.08319</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>39007149607.99615</v>
+        <v>58890151097.1613</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>39775450413.94258</v>
+        <v>59480181666.89643</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>40537710512.57326</v>
+        <v>60064308887.34335</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>41276450387.50755</v>
+        <v>60622622255.82933</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>41971373365.15321</v>
+        <v>61131972724.27581</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>42340015289.34836</v>
+        <v>61336267964.59922</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>42652283439.89252</v>
+        <v>61473753116.25138</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>42916139399.59601</v>
+        <v>61552342725.74951</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>43144338629.48812</v>
+        <v>61585838086.92519</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>43350940046.94147</v>
+        <v>61589985786.91191</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>43548998860.16348</v>
+        <v>61579811955.71745</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>43749392051.20779</v>
+        <v>61568142407.20484</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>43960423638.66554</v>
+        <v>61565071639.93231</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>44187913673.81863</v>
+        <v>61577964140.2088</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>44435533847.42959</v>
+        <v>61611738220.13468</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>44286895459.80313</v>
+        <v>61384535511.83575</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>44167511272.97272</v>
+        <v>61183325419.963</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>44076591348.15931</v>
+        <v>61007972599.56428</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>44012629708.69047</v>
+        <v>60857502794.21931</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>43973673420.32771</v>
+        <v>60730397285.29225</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>43957540327.69809</v>
+        <v>60624802139.75275</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>43961955065.89676</v>
+        <v>60538703253.24737</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>43984651405.9807</v>
+        <v>60470029655.28191</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>44023465957.5365</v>
+        <v>60416746276.88568</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>44076352631.62944</v>
+        <v>60376896903.81554</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>44200260175.97312</v>
+        <v>60403331612.03539</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>44318851617.80878</v>
+        <v>60438963607.13484</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>44433130763.93124</v>
+        <v>60482415728.68783</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>44543369737.96774</v>
+        <v>60532417038.28256</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>44649797093.15704</v>
+        <v>60587803688.97135</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>44752607207.50208</v>
+        <v>60647502669.40608</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>44850886569.69824</v>
+        <v>60709661625.02364</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>44933091694.55463</v>
+        <v>60763664618.45951</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>44970176075.852</v>
+        <v>60784247616.46202</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>44929553786.57429</v>
+        <v>60742907284.98422</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>44791843536.37157</v>
+        <v>60621803733.79539</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>44556152119.93007</v>
+        <v>60418467329.09176</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>44236317345.67778</v>
+        <v>60142922699.49666</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>43854203139.63101</v>
+        <v>59812313549.54557</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>43433805970.85272</v>
+        <v>59446011895.17159</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>42997360356.53104</v>
+        <v>59062343161.74328</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>42563344390.47348</v>
+        <v>58676811301.39886</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>42145858134.76568</v>
+        <v>58301484431.37646</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>41754797838.29845</v>
+        <v>57945036829.16403</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>41396423790.44976</v>
+        <v>57613155646.61868</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>41074075480.84828</v>
+        <v>57309070027.74644</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>40788888863.74146</v>
+        <v>57034118942.19212</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>40540376560.37991</v>
+        <v>56788236156.79434</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>40326963081.85349</v>
+        <v>56570363202.55556</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>40146386862.08047</v>
+        <v>56378792190.38514</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>39995975991.89241</v>
+        <v>56211417091.26161</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>39872873767.06398</v>
+        <v>56065912753.79572</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>39774210005.87611</v>
+        <v>55939892621.34534</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>39697186245.3175</v>
+        <v>55830987954.32655</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>39639146726.4159</v>
+        <v>55736921026.15991</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>39597613841.59899</v>
+        <v>55655535720.87225</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>39570319450.81221</v>
+        <v>55584832391.51863</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>39555192148.42498</v>
+        <v>55522971510.07065</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>39550365797.62792</v>
+        <v>55468267429.30787</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>39554172967.40742</v>
+        <v>55419212369.90558</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>39565117553.34016</v>
+        <v>55374438408.05006</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>39581870268.07388</v>
+        <v>55332722662.95222</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>39603253524.0357</v>
+        <v>55292971291.01201</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>39628229577.6532</v>
+        <v>55254222266.67698</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>431146183.9598742</v>
+        <v>439988743.713796</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/total_energy_use.xlsx
+++ b/Data/model_outputs_baseline/energy/total_energy_use.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5266257744.987864</v>
+        <v>2139147823.158982</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5265216161.514491</v>
+        <v>2140169670.86859</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5269051002.840878</v>
+        <v>2143006225.766772</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5271378041.67357</v>
+        <v>2145082632.953526</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5274245391.380483</v>
+        <v>2147250130.976365</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5277600094.943245</v>
+        <v>2149502752.228405</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5281395766.788116</v>
+        <v>2151836197.010477</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5285591835.66879</v>
+        <v>2154246076.736089</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5290152478.534407</v>
+        <v>2156727943.340976</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>5295047153.780149</v>
+        <v>2159279673.328859</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>5300249343.297164</v>
+        <v>2161897905.419241</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>5305732272.487158</v>
+        <v>2164580232.194396</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5311477476.691791</v>
+        <v>2167325258.146171</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>5317466758.565233</v>
+        <v>2170130885.475006</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>5323682760.517162</v>
+        <v>2172996456.420834</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>5330114079.944202</v>
+        <v>2175919923.288563</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5336747173.641115</v>
+        <v>2178899825.238841</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>5343570773.365701</v>
+        <v>2181936479.223039</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>5350577498.176558</v>
+        <v>2185029097.037541</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>5357757316.672121</v>
+        <v>2188177615.959925</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5365107814.404232</v>
+        <v>2191381254.212604</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>5372617954.367489</v>
+        <v>2194640043.447813</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>5380284549.063985</v>
+        <v>2197953359.703855</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5388104745.971691</v>
+        <v>2201321691.547487</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>5396073931.530856</v>
+        <v>2204743578.236913</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>5404188676.84363</v>
+        <v>2208221349.623917</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>5412444699.949399</v>
+        <v>2211753354.391282</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5420843335.316852</v>
+        <v>2215341290.482126</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5429382415.655288</v>
+        <v>2218985171.457137</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>5438055677.142509</v>
+        <v>2222684564.047967</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>5446867469.111722</v>
+        <v>2226440416.760038</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>5455815399.656058</v>
+        <v>2230253008.195704</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5464897498.505361</v>
+        <v>2234122640.283274</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>5474113908.471623</v>
+        <v>2238050664.409834</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>5483466011.278496</v>
+        <v>2242037246.023265</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>5492951244.481463</v>
+        <v>2246084143.734515</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>5502570190.939706</v>
+        <v>2250189602.445416</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>5512324469.760982</v>
+        <v>2254356201.511071</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>5522213164.86206</v>
+        <v>2258582987.702851</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5532236638.349125</v>
+        <v>2262872827.979146</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>5542397886.335383</v>
+        <v>2267225023.366434</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>5552694075.788809</v>
+        <v>2271641614.253325</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>5563128912.25421</v>
+        <v>2276121644.582702</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5573700561.397806</v>
+        <v>2280667047.313608</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5584410800.794642</v>
+        <v>2285277783.370313</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>5595261941.984865</v>
+        <v>2289955927.032278</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5606250730.889265</v>
+        <v>2294702488.236923</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>5617382356.762245</v>
+        <v>2299516962.239019</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>5628654791.965934</v>
+        <v>2304401150.112209</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>5640070799.908351</v>
+        <v>2309355054.465537</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>5651629713.880503</v>
+        <v>2314381081.591636</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>5663334493.858362</v>
+        <v>2319480237.381257</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5675184137.514404</v>
+        <v>2324652189.052814</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>5687182126.457976</v>
+        <v>2329897482.322262</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5699326851.599671</v>
+        <v>2335218689.794785</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5711619697.249501</v>
+        <v>2340617252.448229</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5724064875.524194</v>
+        <v>2346092446.809124</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>5736659783.145127</v>
+        <v>2351645740.200575</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>5749407002.058533</v>
+        <v>2357280106.534969</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5762308107.933649</v>
+        <v>2362994391.860372</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5775362813.932493</v>
+        <v>2368790237.764625</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>5788573438.473469</v>
+        <v>2374669453.909499</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>5801940598.565094</v>
+        <v>2380633809.091628</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>5815464299.788583</v>
+        <v>2386682183.258844</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5829146767.238983</v>
+        <v>2392817442.717723</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>5842989800.830132</v>
+        <v>2399041524.821189</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>5856993295.257272</v>
+        <v>2405352748.545685</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>5871157677.894541</v>
+        <v>2411754975.722863</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>5885484994.928801</v>
+        <v>2418249635.312344</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>5899975940.730366</v>
+        <v>2424835226.815031</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>5914631757.778228</v>
+        <v>2431516855.364607</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>5929453540.103986</v>
+        <v>2438291933.350747</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>5944443470.117857</v>
+        <v>2445165028.537382</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5959598092.42212</v>
+        <v>2452136243.614618</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>5974924898.291959</v>
+        <v>2459205981.293279</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>5990419772.913367</v>
+        <v>2466376941.494812</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6006085405.037157</v>
+        <v>2473649471.820322</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6021924184.308546</v>
+        <v>2481026812.74739</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6037935470.021355</v>
+        <v>2488508204.51603</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6054119226.27404</v>
+        <v>2496097064.09779</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6070479478.082847</v>
+        <v>2503793301.476742</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6087015268.362609</v>
+        <v>2511599375.86972</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6103728397.032731</v>
+        <v>2519515456.602367</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6120619909.321111</v>
+        <v>2527545165.693846</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6137690113.584819</v>
+        <v>2535688243.738586</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6154940274.252834</v>
+        <v>2543948415.724522</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6172372948.891804</v>
+        <v>2552324213.241264</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6189989352.677562</v>
+        <v>2560820366.346466</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6207787298.955761</v>
+        <v>2569436219.580472</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6225771728.831578</v>
+        <v>2578175422.523264</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6243941490.962212</v>
+        <v>2587037059.409885</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6262299586.896448</v>
+        <v>2596025283.255594</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6280846738.311563</v>
+        <v>2605140860.417963</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6299582463.732411</v>
+        <v>2614384911.100444</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6318511559.481676</v>
+        <v>2623761742.671799</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6337633887.449247</v>
+        <v>2633269355.035767</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6356949545.507904</v>
+        <v>2642911741.938412</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6376461434.776174</v>
+        <v>2652691338.678057</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6396173052.248511</v>
+        <v>2662609129.544691</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6416082175.139189</v>
+        <v>2672666872.084159</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6436192720.578533</v>
+        <v>2682867561.085286</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6456507291.585451</v>
+        <v>2693210949.473764</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6477025622.815902</v>
+        <v>2703700965.127103</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6497751103.12355</v>
+        <v>2714340135.985356</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6518685489.812146</v>
+        <v>2725127419.452473</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6539832760.017353</v>
+        <v>2736068690.234909</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>6561191659.927</v>
+        <v>2747163776.903384</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6582767871.377436</v>
+        <v>2758415356.807035</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6604562862.175803</v>
+        <v>2769824332.483077</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>6626576301.113992</v>
+        <v>2781394926.24462</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>6648817236.96576</v>
+        <v>2793129287.573997</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>6671279897.565933</v>
+        <v>2805027453.141021</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>6693976449.77971</v>
+        <v>2817093177.915387</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>6716902524.270463</v>
+        <v>2829330363.114701</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>6740066361.388857</v>
+        <v>2841738505.216976</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>6763466217.266142</v>
+        <v>2854319420.944006</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>6787112908.141581</v>
+        <v>2867078130.00293</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>6811001217.387241</v>
+        <v>2880017028.723805</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>6835144136.481363</v>
+        <v>2893137214.586604</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>6859537256.040336</v>
+        <v>2906440284.929407</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>6884189496.104652</v>
+        <v>2919930314.606479</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>6909101927.986689</v>
+        <v>2933609317.310183</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>6934283358.316197</v>
+        <v>2947481751.874609</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>6959733116.332506</v>
+        <v>2961545193.459412</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>6985462566.121499</v>
+        <v>2975808765.784482</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7011469209.176981</v>
+        <v>2990270576.353929</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>7037763769.856828</v>
+        <v>3004936037.627391</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7064342574.831663</v>
+        <v>3019804339.507375</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>7091227336.253415</v>
+        <v>3034882721.764188</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>7118407251.512498</v>
+        <v>3050170808.036109</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>7145895813.186001</v>
+        <v>3065673582.096919</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>7173698300.424341</v>
+        <v>3081390739.207226</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>7201821938.938078</v>
+        <v>3097330023.65723</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7230265441.456481</v>
+        <v>3113490313.269359</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>7259047016.209361</v>
+        <v>3129876895.341556</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>7288166988.302214</v>
+        <v>3146490444.521179</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7317625992.698568</v>
+        <v>3163338632.673133</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7347442761.129201</v>
+        <v>3180418515.318353</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>7377622007.981665</v>
+        <v>3197738296.479166</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>7408160130.17077</v>
+        <v>3215298817.577816</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>7439075221.997218</v>
+        <v>3233104900.385302</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>7470374067.678957</v>
+        <v>3251155002.896908</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>7502061119.665205</v>
+        <v>3269460619.719211</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>7534146392.622693</v>
+        <v>3288018668.590996</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>7566637107.67265</v>
+        <v>3306835148.888885</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>7599544580.076105</v>
+        <v>3325912566.108235</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>7632871116.038661</v>
+        <v>3345257882.163918</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>7666632421.243057</v>
+        <v>3364868163.201485</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>7700832282.812422</v>
+        <v>3384754142.00019</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>7735481433.355842</v>
+        <v>3404913971.948538</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>7770588803.18382</v>
+        <v>3425354347.122975</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>7806164881.1346</v>
+        <v>3446078012.551781</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>7842215877.921835</v>
+        <v>3467089727.462876</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>7878755703.852498</v>
+        <v>3488392103.980564</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>7915791092.644836</v>
+        <v>3509991785.26037</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>7953333963.785394</v>
+        <v>3531887713.417586</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>7991389442.885102</v>
+        <v>3554087344.578665</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>8029975376.192984</v>
+        <v>3576593357.562255</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>8069093845.901929</v>
+        <v>3599413495.166563</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>8108760956.019971</v>
+        <v>3622548704.787588</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>8148985146.853211</v>
+        <v>3646004608.695323</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>8189776616.28631</v>
+        <v>3669784443.558047</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>8231147066.712016</v>
+        <v>3693894282.068661</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>8273105315.73976</v>
+        <v>3718338316.53479</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>8315660177.298593</v>
+        <v>3743119363.711652</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>8358829441.400491</v>
+        <v>3768242997.329861</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>8402619661.609075</v>
+        <v>3793716094.763052</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>8447043051.666634</v>
+        <v>3819537858.50223</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>8492111815.454741</v>
+        <v>3845720261.252741</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>8537831912.666264</v>
+        <v>3872262011.057324</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>8584224396.274203</v>
+        <v>3899173406.190725</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>8631289884.13228</v>
+        <v>3926452633.069948</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>8679045644.998032</v>
+        <v>3954113633.08545</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>8727499326.480143</v>
+        <v>3982152014.401069</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>8776669998.781412</v>
+        <v>4010582178.583288</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>8826561258.714842</v>
+        <v>4039400533.49576</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>8877184926.685696</v>
+        <v>4068622488.355793</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>8928563402.117062</v>
+        <v>4098242183.004927</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>8980691992.394381</v>
+        <v>4128276109.423006</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>9033594573.814934</v>
+        <v>4158720148.646173</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>9087279081.541056</v>
+        <v>4189589396.979265</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>9141756257.472948</v>
+        <v>4220879997.661005</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>9197037648.499428</v>
+        <v>4252608596.335671</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>9253140036.865046</v>
+        <v>4284769598.618806</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>9310069175.071224</v>
+        <v>4317380280.465104</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>9367839383.938538</v>
+        <v>4350438009.597613</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>9426463293.470797</v>
+        <v>4383955370.067511</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>9485952937.0411</v>
+        <v>4417932471.294792</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>9546316369.517557</v>
+        <v>4452383446.90184</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>9607573185.940256</v>
+        <v>4487306752.007385</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>9669727900.517078</v>
+        <v>4522716969.941672</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>9732797158.933552</v>
+        <v>4558613113.214097</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>9796789832.587679</v>
+        <v>4595009067.086094</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>9861724233.723963</v>
+        <v>4631905593.780021</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>9927605741.768389</v>
+        <v>4669316142.81266</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>9994446586.952662</v>
+        <v>4707243232.204408</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>10062267238.42981</v>
+        <v>4745695000.872828</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>10131069666.91506</v>
+        <v>4784680294.932563</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>10200872700.78458</v>
+        <v>4824207020.432088</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>10271686182.41007</v>
+        <v>4864279680.89009</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>10343529274.62608</v>
+        <v>4904910425.515305</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>10416405144.7914</v>
+        <v>4946105363.485628</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>10490328452.41521</v>
+        <v>4987871031.267405</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>10565319619.05189</v>
+        <v>5030217847.187349</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>10641384157.41707</v>
+        <v>5073153490.236794</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>10718538066.50638</v>
+        <v>5116685994.207702</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>10796788710.36025</v>
+        <v>5160825302.426821</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>10876157284.08556</v>
+        <v>5205579525.413706</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>10956654697.52876</v>
+        <v>5250957804.676571</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>11038292148.57086</v>
+        <v>5296967493.115937</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>11121085365.36746</v>
+        <v>5343620616.331939</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>11205046617.97603</v>
+        <v>5390925842.201008</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>11290191727.15765</v>
+        <v>5438892058.614079</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>11376532245.51771</v>
+        <v>5487530353.735115</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>11464083248.83188</v>
+        <v>5536849654.539299</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>11552862721.30486</v>
+        <v>5586859987.328229</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>11642879213.04167</v>
+        <v>5637573701.623627</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>11734153395.1625</v>
+        <v>5688999604.74789</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>11826697331.94285</v>
+        <v>5741148300.531031</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>11920527949.22549</v>
+        <v>5794031852.236032</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>12015657298.49716</v>
+        <v>5847662355.055492</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>12112101254.37742</v>
+        <v>5902047560.65594</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>12209883568.15434</v>
+        <v>5957202150.803892</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>12309011606.97075</v>
+        <v>6013137729.137671</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>12409509424.2117</v>
+        <v>6069864712.114258</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>12511386488.72535</v>
+        <v>6127397994.626786</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>12614664612.41278</v>
+        <v>6185748254.494116</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>12719362745.29563</v>
+        <v>6244930060.184892</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>12825497646.1374</v>
+        <v>6304950659.69581</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>12933085683.25694</v>
+        <v>6365833369.551651</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>13042144489.2608</v>
+        <v>6427584360.373694</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>13152700070.73119</v>
+        <v>6490219036.532533</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>13264762948.6358</v>
+        <v>6553751760.188979</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>13378359305.87811</v>
+        <v>6618200210.280345</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>13493508528.17437</v>
+        <v>6683572451.112101</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>13610229081.65628</v>
+        <v>6749888784.088862</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>13728544066.06256</v>
+        <v>6817164677.950579</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>13848474032.28037</v>
+        <v>6885411163.120297</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>13970043580.58611</v>
+        <v>6954650393.382157</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>14093275332.6461</v>
+        <v>7024895264.294799</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>14218188892.80991</v>
+        <v>7096161657.424824</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>14344810918.5658</v>
+        <v>7168466632.269297</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>14473165866.92312</v>
+        <v>7241834033.193437</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>14603277335.21377</v>
+        <v>7316271516.063814</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>14735173390.20715</v>
+        <v>7391806015.266739</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>14868875623.1952</v>
+        <v>7468450212.945902</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>15004415358.84311</v>
+        <v>7546228122.995893</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>15141819656.59465</v>
+        <v>7625154213.176849</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>15281113635.72863</v>
+        <v>7705251968.983586</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>15422326101.53778</v>
+        <v>7786540301.734158</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>15565491339.20483</v>
+        <v>7869037514.177157</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>15710634750.88958</v>
+        <v>7952771617.135534</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>15857791010.35945</v>
+        <v>8037756426.471581</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>16006986713.40517</v>
+        <v>8124019399.261948</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>16158258346.25027</v>
+        <v>8211580561.644727</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>16311638129.9584</v>
+        <v>8300466206.80072</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>16467161369.88525</v>
+        <v>8390693222.602459</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>16624861553.71393</v>
+        <v>8482294327.741354</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>16784772238.60627</v>
+        <v>8575288046.972179</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>16946933144.35585</v>
+        <v>8669702688.520958</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>17111381577.48406</v>
+        <v>8765561844.218019</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>17278152838.40015</v>
+        <v>8862892535.830854</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>17447286861.88515</v>
+        <v>8961724400.23304</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>17618830632.65895</v>
+        <v>9062079593.599874</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>17792811196.91452</v>
+        <v>9163993849.080465</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>17969283230.11018</v>
+        <v>9267487728.877844</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>18148282202.89525</v>
+        <v>9372596864.651907</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>18329858842.44497</v>
+        <v>9479348595.300964</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>18514051668.92637</v>
+        <v>9587776733.461727</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>18700908210.2684</v>
+        <v>9697906982.918606</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>18890480881.88356</v>
+        <v>9809778944.442406</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>19082805907.82766</v>
+        <v>9923418144.536459</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>19277943715.45267</v>
+        <v>10038862758.16077</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>19475940456.07077</v>
+        <v>10156145475.21699</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>19676845625.50872</v>
+        <v>10275300547.60483</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>19880712829.63464</v>
+        <v>10396364474.53922</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>20087595995.4243</v>
+        <v>10519376783.96411</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>20297550990.31455</v>
+        <v>10644371013.32281</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>20510630920.96037</v>
+        <v>10771384345.86182</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>20726891407.3101</v>
+        <v>10900462157.8933</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>20946395372.86816</v>
+        <v>11031634818.79165</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>21169200095.65147</v>
+        <v>11164951700.27343</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>21395361052.05711</v>
+        <v>11300447395.31211</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>21624946510.36922</v>
+        <v>11438166220.82712</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>21858015823.96886</v>
+        <v>11578154504.23804</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>22094634376.30941</v>
+        <v>11720451551.56901</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>22334862827.61261</v>
+        <v>11865103897.39263</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>22578771990.55706</v>
+        <v>12012155083.45255</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>22826432667.73645</v>
+        <v>12161656207.08433</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>23077904115.45539</v>
+        <v>12313648948.72556</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>23333259933.73924</v>
+        <v>12468189206.61028</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>23592574906.63615</v>
+        <v>12625316172.59946</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>23855916649.02173</v>
+        <v>12785088233.46329</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>24123360760.87817</v>
+        <v>12947550588.31529</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>24394981861.61295</v>
+        <v>13112758098.04309</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>24670850374.7178</v>
+        <v>13280763176.77412</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>24951050635.19885</v>
+        <v>13451616755.06759</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>25235655178.19535</v>
+        <v>13625374929.47569</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>25524742148.72893</v>
+        <v>13802094465.56626</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>25818395112.83026</v>
+        <v>13981826297.79817</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>26116692282.30813</v>
+        <v>14164633844.13758</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>26319643401.5429</v>
+        <v>14316868065.51152</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>26526064980.35982</v>
+        <v>14471762976.59959</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>26735977169.15963</v>
+        <v>14629356423.62662</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>26949472367.93733</v>
+        <v>14789701432.86103</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>27166604831.8244</v>
+        <v>14952854860.02998</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>27387444204.22392</v>
+        <v>15118864149.65591</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>27612061473.42556</v>
+        <v>15287785962.24028</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>27840509763.49171</v>
+        <v>15459667543.51037</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>28072869684.71253</v>
+        <v>15634567661.29946</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>28309203455.90681</v>
+        <v>15812537768.81039</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>28549580548.26783</v>
+        <v>15993633965.94591</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>28794062069.03363</v>
+        <v>16177912406.19309</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>29042730668.0475</v>
+        <v>16365424963.65233</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>29295639618.94341</v>
+        <v>16556227241.97239</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>29552866759.5581</v>
+        <v>16750383280.32377</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>29814479394.20315</v>
+        <v>16947939936.41692</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>30080544161.84225</v>
+        <v>17148960817.36503</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>30351133701.76214</v>
+        <v>17353499841.90049</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>30626312423.95588</v>
+        <v>17561611466.70222</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>30906150226.27901</v>
+        <v>17773357356.60613</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>31190720447.60111</v>
+        <v>17988794039.65254</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>31480082447.77888</v>
+        <v>18207977871.21556</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>31774311860.28726</v>
+        <v>18430967124.36834</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>32073469626.01204</v>
+        <v>18657815125.27998</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>32377621789.00531</v>
+        <v>18888582460.21159</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>32686839590.27107</v>
+        <v>19123324802.98704</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>33001180112.31618</v>
+        <v>19362098302.34279</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>33320716581.2582</v>
+        <v>19604958526.59029</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>33645499866.02564</v>
+        <v>19851960769.97374</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>33975598511.9985</v>
+        <v>20103160256.06564</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>34311075628.32454</v>
+        <v>20358608032.68411</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>34651978327.0778</v>
+        <v>20618359855.12103</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>34998376366.39565</v>
+        <v>20882468914.92345</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>35350313400.17812</v>
+        <v>21150983720.67014</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>35707854573.47365</v>
+        <v>21423959900.68146</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>36071041447.03293</v>
+        <v>21701440064.46295</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>36439930069.27642</v>
+        <v>21983474670.58469</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>36814566141.5585</v>
+        <v>22270111632.15013</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>37194991366.97939</v>
+        <v>22561396653.60631</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>37581250301.80763</v>
+        <v>22857369628.1791</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>37973386714.4414</v>
+        <v>23158076113.15362</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>38371431103.08776</v>
+        <v>23463558484.33343</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>38775419840.60632</v>
+        <v>23773848557.26277</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>39185387324.63565</v>
+        <v>24088987485.42239</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>39601357880.44093</v>
+        <v>24409008161.41386</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>40023360724.4158</v>
+        <v>24733944695.76267</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>40451412205.76916</v>
+        <v>25063823240.25132</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>40885529246.64497</v>
+        <v>25398677551.06616</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>41325731802.35871</v>
+        <v>25738525058.45218</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>41772027631.14812</v>
+        <v>26083393960.61514</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>42224422698.25899</v>
+        <v>26433298864.6455</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>42682915941.20611</v>
+        <v>26788263756.62401</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>43147510433.04651</v>
+        <v>27148296309.24984</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>43618196161.24356</v>
+        <v>27513408560.35504</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>44094966776.7807</v>
+        <v>27883609269.08095</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>44524766030.72594</v>
+        <v>28252237678.00124</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>44959968548.5186</v>
+        <v>28625875779.3116</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>45400546380.66492</v>
+        <v>29004511842.48681</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>45846470500.60504</v>
+        <v>29388149000.37703</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>46297706814.39161</v>
+        <v>29776774629.93819</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>46754219082.37374</v>
+        <v>30170376247.73244</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>47215962702.35364</v>
+        <v>30568938538.17593</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>47682893599.38589</v>
+        <v>30972436988.19038</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>48154952751.79443</v>
+        <v>31380853682.52018</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>48632085583.75266</v>
+        <v>31794156321.82282</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>49114233828.70489</v>
+        <v>32212315888.89773</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>49601325817.162</v>
+        <v>32635294810.46419</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>50093291113.3171</v>
+        <v>33063055342.58815</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>50590051660.08501</v>
+        <v>33495551448.69551</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>51091528447.83645</v>
+        <v>33932740225.86945</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>51507797460.39448</v>
+        <v>34311276449.39563</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>51927737354.97382</v>
+        <v>34693710891.51314</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>52351263747.8966</v>
+        <v>35079985545.53459</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>52778287407.21146</v>
+        <v>35470042326.07714</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>53208707340.55899</v>
+        <v>35863820140.10318</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>53642426085.75603</v>
+        <v>36261253916.80518</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>54079336223.97583</v>
+        <v>36661835025.06287</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>54519329800.30238</v>
+        <v>37060657150.15664</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>54962297457.1194</v>
+        <v>37445280252.47012</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>55408120095.2572</v>
+        <v>37801221174.68129</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>55980267802.40405</v>
+        <v>38281363055.73478</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>56555888811.50822</v>
+        <v>38722099577.17403</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>57134841799.2606</v>
+        <v>39127595996.00301</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>57716970878.71117</v>
+        <v>39505964630.07344</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>58302126225.08319</v>
+        <v>39866837070.31576</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>58890151097.1613</v>
+        <v>40219670336.78915</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>59480181666.89643</v>
+        <v>40572750673.22153</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>60064308887.34335</v>
+        <v>40932781465.53497</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>60622622255.82933</v>
+        <v>41304816810.4586</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>61131972724.27581</v>
+        <v>41692402273.93326</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>61336267964.59922</v>
+        <v>41827717094.72745</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>61473753116.25138</v>
+        <v>41981831130.44463</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>61552342725.74951</v>
+        <v>42154945303.14653</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>61585838086.92519</v>
+        <v>42346676125.11169</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>61589985786.91191</v>
+        <v>42556235806.90793</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>61579811955.71745</v>
+        <v>42782591116.08569</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>61568142407.20484</v>
+        <v>43024549460.70847</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>61565071639.93231</v>
+        <v>43280858028.25491</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>61577964140.2088</v>
+        <v>43550246105.06527</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>61611738220.13468</v>
+        <v>43831476056.01742</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>61384535511.83575</v>
+        <v>43846682916.69071</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>61183325419.963</v>
+        <v>43870435216.3786</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>61007972599.56428</v>
+        <v>43901577399.4832</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>60857502794.21931</v>
+        <v>43939050708.56857</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>60730397285.29225</v>
+        <v>43981896436.82764</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>60624802139.75275</v>
+        <v>44029244265.40927</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>60538703253.24737</v>
+        <v>44079664009.32339</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>60470029655.28191</v>
+        <v>44125313046.30697</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>60416746276.88568</v>
+        <v>44147695473.47038</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>60376896903.81554</v>
+        <v>44126068945.64772</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>60403331612.03539</v>
+        <v>44129052836.92637</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>60438963607.13484</v>
+        <v>44072392531.87798</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>60482415728.68783</v>
+        <v>43963066398.10667</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>60532417038.28256</v>
+        <v>43813332186.61668</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>60587803688.97135</v>
+        <v>43637204936.91028</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>60647502669.40608</v>
+        <v>43448042404.3896</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>60709661625.02364</v>
+        <v>43257244575.64023</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>60763664618.45951</v>
+        <v>43073755395.8889</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>60784247616.46202</v>
+        <v>42904079024.22314</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>60742907284.98422</v>
+        <v>42752542122.01902</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>60621803733.79539</v>
+        <v>42621688893.77557</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>60418467329.09176</v>
+        <v>42512655695.48553</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>60142922699.49666</v>
+        <v>42425542108.17752</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>59812313549.54557</v>
+        <v>42359700284.71114</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>59446011895.17159</v>
+        <v>42313984424.3711</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>59062343161.74328</v>
+        <v>42286930749.05841</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>58676811301.39886</v>
+        <v>42276900925.53999</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>58301484431.37646</v>
+        <v>42282196072.48995</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>57945036829.16403</v>
+        <v>42301102752.0619</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>57613155646.61868</v>
+        <v>42331968495.3241</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>57309070027.74644</v>
+        <v>42373217783.36245</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>57034118942.19212</v>
+        <v>42423374507.5332</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>56788236156.79434</v>
+        <v>42481065636.46476</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>56570363202.55556</v>
+        <v>42545033129.1634</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>56378792190.38514</v>
+        <v>42614125445.29008</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>56211417091.26161</v>
+        <v>42687303672.4599</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>56065912753.79572</v>
+        <v>42763621336.10094</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>55939892621.34534</v>
+        <v>42842223439.48396</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>55830987954.32655</v>
+        <v>42922340495.83239</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>55736921026.15991</v>
+        <v>43003280422.73766</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>55655535720.87225</v>
+        <v>43084421225.01428</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>55584832391.51863</v>
+        <v>43165200877.45817</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>55522971510.07065</v>
+        <v>43245123608.50325</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>55468267429.30787</v>
+        <v>43323738424.61771</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>55419212369.90558</v>
+        <v>43400639671.84509</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>55374438408.05006</v>
+        <v>43475464437.91836</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>55332722662.95222</v>
+        <v>43547893928.89145</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>55292971291.01201</v>
+        <v>43617636006.85989</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>55254222266.67698</v>
+        <v>43684431855.56743</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>439988743.713796</v>
+        <v>380041927.7425824</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/total_energy_use.xlsx
+++ b/Data/model_outputs_baseline/energy/total_energy_use.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2139147823.158982</v>
+        <v>2139616169.158982</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2140169670.86859</v>
+        <v>2141052748.86859</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2143006225.766772</v>
+        <v>2144257879.766772</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2145082632.953526</v>
+        <v>2146661507.953526</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2147250130.976365</v>
+        <v>2149119504.976365</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2149502752.228405</v>
+        <v>2151630536.228405</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2151836197.010477</v>
+        <v>2154193240.010477</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2154246076.736089</v>
+        <v>2156807463.736089</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2156727943.340976</v>
+        <v>2159471303.340976</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2159279673.328859</v>
+        <v>2162185683.328859</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2161897905.419241</v>
+        <v>2164949053.419241</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2164580232.194396</v>
+        <v>2167761376.194396</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2167325258.146171</v>
+        <v>2170622218.146171</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2170130885.475006</v>
+        <v>2173531118.475006</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2172996456.420834</v>
+        <v>2176488946.420834</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2175919923.288563</v>
+        <v>2179495010.288563</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2178899825.238841</v>
+        <v>2182549147.238841</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2181936479.223039</v>
+        <v>2185652465.223039</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2185029097.037541</v>
+        <v>2188804686.037541</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2188177615.959925</v>
+        <v>2192006366.959925</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2191381254.212604</v>
+        <v>2195257178.212604</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2194640043.447813</v>
+        <v>2198557661.447813</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2197953359.703855</v>
+        <v>2201908264.703855</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2201321691.547487</v>
+        <v>2205309873.547486</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2204743578.236913</v>
+        <v>2208761534.236913</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2208221349.623917</v>
+        <v>2212266309.623917</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2211753354.391282</v>
+        <v>2215822493.391282</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2215341290.482126</v>
+        <v>2219431954.482126</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2218985171.457137</v>
+        <v>2223095100.457137</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2222684564.047967</v>
+        <v>2226811837.047967</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2226440416.760038</v>
+        <v>2230583112.760038</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2230253008.195704</v>
+        <v>2234409432.195704</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2234122640.283274</v>
+        <v>2238291436.283274</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2238050664.409834</v>
+        <v>2242230476.409833</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2242037246.023265</v>
+        <v>2246226663.023265</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2246084143.734515</v>
+        <v>2250282148.734515</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2250189602.445416</v>
+        <v>2254395178.445416</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2254356201.511071</v>
+        <v>2258568258.51107</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2258582987.702851</v>
+        <v>2262800807.702851</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2262872827.979146</v>
+        <v>2267095619.979146</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2267225023.366434</v>
+        <v>2271451996.366434</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2271641614.253325</v>
+        <v>2275872090.253325</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2276121644.582702</v>
+        <v>2280355058.582702</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2280667047.313608</v>
+        <v>2284902834.313608</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2285277783.370313</v>
+        <v>2289515378.370313</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2289955927.032278</v>
+        <v>2294194878.032278</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2294702488.236923</v>
+        <v>2298942343.236923</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2299516962.239019</v>
+        <v>2303757269.23902</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2304401150.112209</v>
+        <v>2308641457.112209</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2309355054.465537</v>
+        <v>2313595022.465537</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2314381081.591636</v>
+        <v>2318620258.591636</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2319480237.381257</v>
+        <v>2323718284.381257</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2324652189.052814</v>
+        <v>2328888767.052814</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2329897482.322262</v>
+        <v>2334132365.322261</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2335218689.794785</v>
+        <v>2339451312.794785</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2340617252.448229</v>
+        <v>2344847389.448229</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2346092446.809124</v>
+        <v>2350319758.809124</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2351645740.200575</v>
+        <v>2355870114.200575</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2357280106.534969</v>
+        <v>2361501090.534969</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2362994391.860372</v>
+        <v>2367211646.860372</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2368790237.764625</v>
+        <v>2373003537.764625</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2374669453.909499</v>
+        <v>2378878459.909499</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2380633809.091628</v>
+        <v>2384838295.091628</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2386682183.258844</v>
+        <v>2390881810.258843</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2392817442.717723</v>
+        <v>2397011871.717723</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2399041524.821189</v>
+        <v>2403230416.821189</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2405352748.545685</v>
+        <v>2409535877.545685</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2411754975.722863</v>
+        <v>2415931889.722863</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2418249635.312344</v>
+        <v>2422420108.312344</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2424835226.815031</v>
+        <v>2428998806.815031</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2431516855.364607</v>
+        <v>2435673203.364607</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2438291933.350747</v>
+        <v>2442440823.350747</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2445165028.537382</v>
+        <v>2449306121.537382</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2452136243.614618</v>
+        <v>2456269200.614618</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2459205981.293279</v>
+        <v>2463330350.293279</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2466376941.494812</v>
+        <v>2470492383.494812</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2473649471.820322</v>
+        <v>2477755647.820322</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2481026812.74739</v>
+        <v>2485123270.74739</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2488508204.51603</v>
+        <v>2492594605.51603</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2496097064.09779</v>
+        <v>2500173182.097791</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2503793301.476742</v>
+        <v>2507858571.476742</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2511599375.86972</v>
+        <v>2515653345.86972</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2519515456.602367</v>
+        <v>2523557787.602367</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2527545165.693846</v>
+        <v>2531575518.693846</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2535688243.738586</v>
+        <v>2539705998.738586</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2543948415.724522</v>
+        <v>2547953233.724522</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2552324213.241264</v>
+        <v>2556315529.241264</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2560820366.346466</v>
+        <v>2564797728.346466</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2569436219.580472</v>
+        <v>2573399175.580472</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2578175422.523264</v>
+        <v>2582123520.523264</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2587037059.409885</v>
+        <v>2590969847.409885</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2596025283.255594</v>
+        <v>2599942422.255594</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2605140860.417963</v>
+        <v>2609041898.417963</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2614384911.100444</v>
+        <v>2618269396.100444</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2623761742.671799</v>
+        <v>2627629109.671799</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2633269355.035767</v>
+        <v>2637119039.035767</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2642911741.938412</v>
+        <v>2646743177.938412</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2652691338.678057</v>
+        <v>2656504187.678057</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2662609129.544691</v>
+        <v>2666402826.544691</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2672666872.084159</v>
+        <v>2676440965.084159</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2682867561.085286</v>
+        <v>2686621485.085286</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2693210949.473764</v>
+        <v>2696944252.473764</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2703700965.127103</v>
+        <v>2707413195.127103</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2714340135.985356</v>
+        <v>2718030727.985356</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2725127419.452473</v>
+        <v>2728795881.452473</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2736068690.234909</v>
+        <v>2739714497.234909</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2747163776.903384</v>
+        <v>2750786476.903384</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2758415356.807035</v>
+        <v>2762014384.807035</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2769824332.483077</v>
+        <v>2773399068.483077</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2781394926.24462</v>
+        <v>2784944805.24462</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2793129287.573997</v>
+        <v>2796653857.573997</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2805027453.141021</v>
+        <v>2808526149.141021</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2817093177.915387</v>
+        <v>2820565547.915387</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2829330363.114701</v>
+        <v>2832775955.114701</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2841738505.216976</v>
+        <v>2845156754.216976</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2854319420.944006</v>
+        <v>2857709874.944006</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2867078130.00293</v>
+        <v>2870440337.002929</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2880017028.723805</v>
+        <v>2883350536.723805</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2893137214.586604</v>
+        <v>2896441571.586604</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2906440284.929407</v>
+        <v>2909714925.929407</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2919930314.606479</v>
+        <v>2923174787.606479</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2933609317.310183</v>
+        <v>2936823170.310183</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2947481751.874609</v>
+        <v>2950664532.874609</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2961545193.459412</v>
+        <v>2964696563.459412</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2975808765.784482</v>
+        <v>2978928272.784482</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2990270576.353929</v>
+        <v>2993357936.353929</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3004936037.627391</v>
+        <v>3007990911.627391</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3019804339.507375</v>
+        <v>3022826275.507375</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3034882721.764188</v>
+        <v>3037871380.764189</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3050170808.036109</v>
+        <v>3053125851.036109</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3065673582.096919</v>
+        <v>3068594557.096919</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3081390739.207226</v>
+        <v>3084277252.207226</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3097330023.65723</v>
+        <v>3100181735.65723</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3113490313.269359</v>
+        <v>3116306885.269359</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3129876895.341556</v>
+        <v>3132657988.341556</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3146490444.521179</v>
+        <v>3149235832.521179</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3163338632.673133</v>
+        <v>3166048089.673133</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3180418515.318353</v>
+        <v>3183091702.318353</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3197738296.479166</v>
+        <v>3200374987.479166</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3215298817.577816</v>
+        <v>3217898786.577816</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3233104900.385302</v>
+        <v>3235668034.385302</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3251155002.896908</v>
+        <v>3253681075.896908</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3269460619.719211</v>
+        <v>3271949518.719211</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3288018668.590996</v>
+        <v>3290470167.590996</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3306835148.888885</v>
+        <v>3309249134.888885</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3325912566.108235</v>
+        <v>3328288926.108235</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3345257882.163918</v>
+        <v>3347596503.163918</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3364868163.201485</v>
+        <v>3367168932.201485</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3384754142.00019</v>
+        <v>3387016946.00019</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3404913971.948538</v>
+        <v>3407138923.948538</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3425354347.122975</v>
+        <v>3427541447.122975</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3446078012.551781</v>
+        <v>3448227147.551781</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3467089727.462876</v>
+        <v>3469201010.462876</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3488392103.980564</v>
+        <v>3490465534.980564</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3509991785.26037</v>
+        <v>3512027364.26037</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3531887713.417586</v>
+        <v>3533885553.417586</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3554087344.578665</v>
+        <v>3556047558.578665</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3576593357.562255</v>
+        <v>3578515945.562255</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3599413495.166563</v>
+        <v>3601298683.166562</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3622548704.787588</v>
+        <v>3624396605.787588</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3646004608.695323</v>
+        <v>3647815335.695323</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3669784443.558047</v>
+        <v>3671558222.558047</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3693894282.068661</v>
+        <v>3695631339.068661</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3718338316.53479</v>
+        <v>3720038877.53479</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3743119363.711652</v>
+        <v>3744783654.711652</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3768242997.329861</v>
+        <v>3769871244.329861</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3793716094.763052</v>
+        <v>3795308410.763052</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3819537858.50223</v>
+        <v>3821094582.50223</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3845720261.252741</v>
+        <v>3847241619.252741</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3872262011.057324</v>
+        <v>3873748455.057324</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3899173406.190725</v>
+        <v>3900625049.190725</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3926452633.069948</v>
+        <v>3927869927.069948</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3954113633.08545</v>
+        <v>3955496917.08545</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3982152014.401069</v>
+        <v>3983501514.401069</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4010582178.583288</v>
+        <v>4011898459.583288</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4039400533.49576</v>
+        <v>4040683821.49576</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4068622488.355793</v>
+        <v>4069873235.355793</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4098242183.004927</v>
+        <v>4099460728.004927</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4128276109.423006</v>
+        <v>4129462904.423006</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4158720148.646173</v>
+        <v>4159875813.646173</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4189589396.979265</v>
+        <v>4190714383.979265</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4220879997.661005</v>
+        <v>4221974758.661005</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4252608596.335671</v>
+        <v>4253673583.335671</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4284769598.618806</v>
+        <v>4285805150.618806</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4317380280.465104</v>
+        <v>4318386849.465104</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4350438009.597613</v>
+        <v>4351416047.597613</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4383955370.067511</v>
+        <v>4384905442.067511</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4417932471.294792</v>
+        <v>4418855029.294792</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4452383446.90184</v>
+        <v>4453279055.90184</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4487306752.007385</v>
+        <v>4488175864.007385</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4522716969.941672</v>
+        <v>4523559868.941672</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4558613113.214097</v>
+        <v>4559430419.214097</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4595009067.086094</v>
+        <v>4595801064.086094</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4631905593.780021</v>
+        <v>4632672846.780021</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4669316142.81266</v>
+        <v>4670059384.81266</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4707243232.204408</v>
+        <v>4707962747.204408</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4745695000.872828</v>
+        <v>4746391353.872828</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4784680294.932563</v>
+        <v>4785354105.932563</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4824207020.432088</v>
+        <v>4824858686.432088</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4864279680.89009</v>
+        <v>4864909653.89009</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4904910425.515305</v>
+        <v>4905519325.515305</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4946105363.485628</v>
+        <v>4946693474.485628</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4987871031.267405</v>
+        <v>4988439031.267405</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5030217847.187349</v>
+        <v>5030766356.187349</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5073153490.236794</v>
+        <v>5073682679.236794</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5116685994.207702</v>
+        <v>5117196428.207702</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5160825302.426821</v>
+        <v>5161317714.426821</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5205579525.413706</v>
+        <v>5206054086.413706</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5250957804.676571</v>
+        <v>5251415360.676571</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5296967493.115937</v>
+        <v>5297408383.115937</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5343620616.331939</v>
+        <v>5344045460.331939</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>5390925842.201008</v>
+        <v>5391334924.201008</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>5438892058.614079</v>
+        <v>5439285830.614079</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5487530353.735115</v>
+        <v>5487909267.735115</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>5536849654.539299</v>
+        <v>5537214330.539299</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>5586859987.328229</v>
+        <v>5587210596.328229</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>5637573701.623627</v>
+        <v>5637910808.623627</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>5688999604.74789</v>
+        <v>5689323661.74789</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5741148300.531031</v>
+        <v>5741459814.531031</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>5794031852.236032</v>
+        <v>5794331107.236032</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5847662355.055492</v>
+        <v>5847949803.055492</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5902047560.65594</v>
+        <v>5902323540.65594</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>5957202150.803892</v>
+        <v>5957467169.803892</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6013137729.137671</v>
+        <v>6013391958.137671</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6069864712.114258</v>
+        <v>6070108603.114258</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6127397994.626786</v>
+        <v>6127631886.626785</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>6185748254.494116</v>
+        <v>6185972599.494116</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6244930060.184892</v>
+        <v>6245145252.184892</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6304950659.69581</v>
+        <v>6305156869.69581</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>6365833369.551651</v>
+        <v>6366030936.551651</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>6427584360.373694</v>
+        <v>6427773623.373694</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>6490219036.532533</v>
+        <v>6490400221.532533</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6553751760.188979</v>
+        <v>6553925206.188979</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>6618200210.280345</v>
+        <v>6618366424.280345</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>6683572451.112101</v>
+        <v>6683731491.112101</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>6749888784.088862</v>
+        <v>6750040989.088862</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6817164677.950579</v>
+        <v>6817310273.950579</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>6885411163.120297</v>
+        <v>6885550489.120297</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>6954650393.382157</v>
+        <v>6954783730.382157</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7024895264.294799</v>
+        <v>7025022670.294799</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>7096161657.424824</v>
+        <v>7096283471.424824</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>7168466632.269297</v>
+        <v>7168583248.269297</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>7241834033.193437</v>
+        <v>7241945677.193437</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>7316271516.063814</v>
+        <v>7316378414.063814</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>7391806015.266739</v>
+        <v>7391908280.266739</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>7468450212.945902</v>
+        <v>7468548070.945902</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>7546228122.995893</v>
+        <v>7546321912.995893</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>7625154213.176849</v>
+        <v>7625244048.176849</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>7705251968.983586</v>
+        <v>7705338074.983586</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>7786540301.734158</v>
+        <v>7786622791.734158</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>7869037514.177157</v>
+        <v>7869116501.177157</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>7952771617.135534</v>
+        <v>7952847327.135534</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>8037756426.471581</v>
+        <v>8037828972.471581</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>8124019399.261948</v>
+        <v>8124088894.261948</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>8211580561.644727</v>
+        <v>8211647231.644727</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>8300466206.80072</v>
+        <v>8300530164.80072</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>8390693222.602459</v>
+        <v>8390754581.602459</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>8482294327.741354</v>
+        <v>8482353313.741354</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>8575288046.972179</v>
+        <v>8575344659.972179</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>8669702688.520958</v>
+        <v>8669757154.520958</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>8765561844.218019</v>
+        <v>8765614276.218019</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>8862892535.830854</v>
+        <v>8862943046.830854</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>8961724400.23304</v>
+        <v>8961772990.23304</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>9062079593.599874</v>
+        <v>9062126375.599874</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>9163993849.080465</v>
+        <v>9164038823.080465</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>9267487728.877844</v>
+        <v>9267531120.877844</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>9372596864.651907</v>
+        <v>9372638787.651907</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>9479348595.300964</v>
+        <v>9479389049.300964</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>9587776733.461727</v>
+        <v>9587815831.461727</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>9697906982.918606</v>
+        <v>9697944950.918606</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>9809778944.442406</v>
+        <v>9809815337.442406</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>9923418144.536459</v>
+        <v>9923453513.536459</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>10038862758.16077</v>
+        <v>10038896997.16077</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>10156145475.21699</v>
+        <v>10156178584.21699</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>10275300547.60483</v>
+        <v>10275332639.60483</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>10396364474.53922</v>
+        <v>10396395662.53922</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>10519376783.96411</v>
+        <v>10519407067.96411</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>10644371013.32281</v>
+        <v>10644400506.32281</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>10771384345.86182</v>
+        <v>10771413047.86182</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>10900462157.8933</v>
+        <v>10900489963.49829</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>11031634818.79165</v>
+        <v>11031661618.4544</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>11164951700.27343</v>
+        <v>11164977863.05707</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>11300447395.31211</v>
+        <v>11300473101.88236</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>11438166220.82712</v>
+        <v>11438190870.21614</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>11578154504.23804</v>
+        <v>11578178837.18993</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>11720451551.56901</v>
+        <v>11720475176.95803</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>11865103897.39263</v>
+        <v>11865126957.78165</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>12012155083.45255</v>
+        <v>12012177804.84157</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>12161656207.08433</v>
+        <v>12161678370.47335</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>12313648948.72556</v>
+        <v>12313671110.87943</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>12468189206.61028</v>
+        <v>12468211111.37481</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>12625316172.59946</v>
+        <v>12625337545.07878</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>12785088233.46329</v>
+        <v>12785109019.04526</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>12947550588.31529</v>
+        <v>12947570830.96967</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>13112758098.04309</v>
+        <v>13112777614.38457</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>13280763176.77412</v>
+        <v>13280781750.23205</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>13451616755.06759</v>
+        <v>13451634608.54334</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>13625374929.47569</v>
+        <v>13625391658.38</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>13802094465.56626</v>
+        <v>13802110472.49095</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>13981826297.79817</v>
+        <v>13981841330.50997</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>14164633844.13758</v>
+        <v>14164648314.86558</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>14316868065.51152</v>
+        <v>14316881475.04866</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>14471762976.59959</v>
+        <v>14471775907.75639</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>14629356423.62662</v>
+        <v>14629368468.39763</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>14789701432.86103</v>
+        <v>14789712389.57133</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>14952854860.02998</v>
+        <v>14952865717.82283</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>15118864149.65591</v>
+        <v>15118874184.80598</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>15287785962.24028</v>
+        <v>15287795604.42427</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>15459667543.51037</v>
+        <v>15459676311.31667</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>15634567661.29946</v>
+        <v>15634576078.08492</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>15812537768.81039</v>
+        <v>15812546191.70481</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>15993633965.94591</v>
+        <v>15993642094.31095</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>16177912406.19309</v>
+        <v>16177919935.30975</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>16365424963.65233</v>
+        <v>16365431750.35598</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>16556227241.97239</v>
+        <v>16556234072.35587</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>16750383280.32377</v>
+        <v>16750389907.06653</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>16947939936.41692</v>
+        <v>16947945839.87333</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>17148960817.36503</v>
+        <v>17148966809.91879</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>17353499841.90049</v>
+        <v>17353505328.92319</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>17561611466.70222</v>
+        <v>17561616675.90746</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>17773357356.60613</v>
+        <v>17773361765.04979</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>17988794039.65254</v>
+        <v>17988798095.4842</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>18207977871.21556</v>
+        <v>18207981938.0906</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>18430967124.36834</v>
+        <v>18430971389.03164</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>18657815125.27998</v>
+        <v>18657819530.70169</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>18888582460.21159</v>
+        <v>18888586070.17204</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>19123324802.98704</v>
+        <v>19123327941.57666</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>19362098302.34279</v>
+        <v>19362101235.72989</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>19604958526.59029</v>
+        <v>19604961485.81509</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>19851960769.97374</v>
+        <v>19851963849.2645</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>20103160256.06564</v>
+        <v>20103163145.13646</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>20358608032.68411</v>
+        <v>20358610830.12272</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>20618359855.12103</v>
+        <v>20618362527.64352</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>20882468914.92345</v>
+        <v>20882471216.52256</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>21150983720.67014</v>
+        <v>21150986160.18856</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>21423959900.68146</v>
+        <v>21423962112.57555</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>21701440064.46295</v>
+        <v>21701442030.99284</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>21983474670.58469</v>
+        <v>21983476207.3183</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>22270111632.15013</v>
+        <v>22270113168.88375</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>22561396653.60631</v>
+        <v>22561398190.33992</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>22857369628.1791</v>
+        <v>22857371281.51204</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>23158076113.15362</v>
+        <v>23158077991.11967</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>23463558484.33343</v>
+        <v>23463560270.48208</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>23773848557.26277</v>
+        <v>23773849945.9359</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>24088987485.42239</v>
+        <v>24088988648.44101</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>24409008161.41386</v>
+        <v>24409009569.25481</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>24733944695.76267</v>
+        <v>24733946103.60363</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>25063823240.25132</v>
+        <v>25063824532.56006</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>25398677551.06616</v>
+        <v>25398678617.21999</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>25738525058.45218</v>
+        <v>25738525806.30551</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>26083393960.61514</v>
+        <v>26083394708.46848</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>26433298864.6455</v>
+        <v>26433299612.49883</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>26788263756.62401</v>
+        <v>26788264396.53708</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>27148296309.24984</v>
+        <v>27148296949.1629</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>27513408560.35504</v>
+        <v>27513409200.2681</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>27883609269.08095</v>
+        <v>27883609908.99401</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>28252237678.00124</v>
+        <v>28252238317.91431</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>28625875779.3116</v>
+        <v>28625876419.22467</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>29004511842.48681</v>
+        <v>29004512482.39988</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>29388149000.37703</v>
+        <v>29388149640.29009</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>29776774629.93819</v>
+        <v>29776775269.85125</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>30170376247.73244</v>
+        <v>30170376671.34589</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>30568938538.17593</v>
+        <v>30568938961.78939</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>30972436988.19038</v>
+        <v>30972437517.80384</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>31380853682.52018</v>
+        <v>31380854212.13363</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>31794156321.82282</v>
+        <v>31794156851.43628</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>32212315888.89773</v>
+        <v>32212316418.51119</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>32635294810.46419</v>
+        <v>32635295216.28275</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>33063055342.58815</v>
+        <v>33063056041.32996</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>33495551448.69551</v>
+        <v>33495552147.43732</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>33932740225.86945</v>
+        <v>33932740924.61126</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>34311276449.39563</v>
+        <v>34311277148.13744</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>34693710891.51314</v>
+        <v>34693711590.25494</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>35079985545.53459</v>
+        <v>35079986244.27641</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>35470042326.07714</v>
+        <v>35470043024.81895</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>35863820140.10318</v>
+        <v>35863820838.84499</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>36261253916.80518</v>
+        <v>36261254615.547</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>36661835025.06287</v>
+        <v>36661835723.80467</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>37060657150.15664</v>
+        <v>37060657848.89845</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>37445280252.47012</v>
+        <v>37445280951.21193</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>37801221174.68129</v>
+        <v>37801221873.4231</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>38281363055.73478</v>
+        <v>38281363754.47659</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>38722099577.17403</v>
+        <v>38722100275.91584</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>39127595996.00301</v>
+        <v>39127596694.74482</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>39505964630.07344</v>
+        <v>39505965328.81526</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>39866837070.31576</v>
+        <v>39866837769.05757</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>40219670336.78915</v>
+        <v>40219671035.53096</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>40572750673.22153</v>
+        <v>40572751371.96333</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>40932781465.53497</v>
+        <v>40932782164.27678</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>41304816810.4586</v>
+        <v>41304817509.2004</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>41692402273.93326</v>
+        <v>41692402972.67508</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>41827717094.72745</v>
+        <v>41827717793.46927</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>41981831130.44463</v>
+        <v>41981831829.18644</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>42154945303.14653</v>
+        <v>42154946001.88834</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>42346676125.11169</v>
+        <v>42346676823.85351</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>42556235806.90793</v>
+        <v>42556236505.64973</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>42782591116.08569</v>
+        <v>42782591814.82751</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>43024549460.70847</v>
+        <v>43023878989.45029</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>43280858028.25491</v>
+        <v>43271406127.99673</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>43550246105.06527</v>
+        <v>43505179202.80708</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>43831476056.01742</v>
+        <v>43702593894.75922</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>43846682916.69071</v>
+        <v>43573439937.43252</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>43870435216.3786</v>
+        <v>43391385393.12041</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>43901577399.4832</v>
+        <v>43163691141.22501</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>43939050708.56857</v>
+        <v>42902837706.31038</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>43981896436.82764</v>
+        <v>42622843679.56945</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>44029244265.40927</v>
+        <v>42336815119.15109</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>44079664009.32339</v>
+        <v>42055694418.0652</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>44125313046.30697</v>
+        <v>41787826331.04879</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>44147695473.47038</v>
+        <v>41539037600.21218</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>44126068945.64772</v>
+        <v>41312981572.38954</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>44129052836.92637</v>
+        <v>41192001545.66821</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>44072392531.87798</v>
+        <v>41094863940.2198</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>43963066398.10667</v>
+        <v>41021423182.44851</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>43813332186.61668</v>
+        <v>40970831767.5585</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>43637204936.91028</v>
+        <v>40941804001.65209</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>43448042404.3896</v>
+        <v>40932761210.13141</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>43257244575.64023</v>
+        <v>40941986806.58204</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>43073755395.8889</v>
+        <v>40967713142.75105</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>42904079024.22314</v>
+        <v>41008196770.88986</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>42752542122.01902</v>
+        <v>41061737922.58539</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>42621688893.77557</v>
+        <v>41126743450.43185</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>42512655695.48553</v>
+        <v>41201714969.68866</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>42425542108.17752</v>
+        <v>41285276546.62483</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>42359700284.71114</v>
+        <v>41376156733.71217</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>42313984424.3711</v>
+        <v>41473195995.9628</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>42286930749.05841</v>
+        <v>41575348210.32025</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>42276900925.53999</v>
+        <v>41681654913.39443</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>42282196072.48995</v>
+        <v>41791261691.71084</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>42301102752.0619</v>
+        <v>41903386273.73654</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>42331968495.3241</v>
+        <v>42017327421.40833</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>42373217783.36245</v>
+        <v>42132450285.51206</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>42423374507.5332</v>
+        <v>42248185559.58524</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>42481065636.46476</v>
+        <v>42364012946.9599</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>42545033129.1634</v>
+        <v>42479467077.39471</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>42614125445.29008</v>
+        <v>42594118356.80164</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>42687303672.4599</v>
+        <v>42707587461.22874</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>42763621336.10094</v>
+        <v>42819518227.13646</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>42842223439.48396</v>
+        <v>42929600314.20998</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>42922340495.83239</v>
+        <v>43037538474.16202</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>43003280422.73766</v>
+        <v>43143065283.47013</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>43084421225.01428</v>
+        <v>43245936556.99411</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>43165200877.45817</v>
+        <v>43345927600.5233</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>43245123608.50325</v>
+        <v>43442838019.04906</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>43323738424.61771</v>
+        <v>43536474716.84843</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>43400639671.84509</v>
+        <v>43626670274.4393</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>43475464437.91836</v>
+        <v>43713262038.63258</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>43547893928.89145</v>
+        <v>43796107866.17589</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>43617636006.85989</v>
+        <v>43875076874.67283</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>43684431855.56743</v>
+        <v>43950044284.94963</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>380041927.7425824</v>
+        <v>380113769.9425824</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/energy/total_energy_use.xlsx
+++ b/Data/model_outputs_baseline/energy/total_energy_use.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2139616169.158982</v>
+        <v>2139147823.158982</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2141052748.86859</v>
+        <v>2140169670.867881</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2144257879.766772</v>
+        <v>2143006225.766556</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2146661507.953526</v>
+        <v>2145082632.95331</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2149119504.976365</v>
+        <v>2147250130.976215</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2151630536.228405</v>
+        <v>2149502752.228188</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2154193240.010477</v>
+        <v>2151836197.010261</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2156807463.736089</v>
+        <v>2154246076.735873</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2159471303.340976</v>
+        <v>2156727943.340762</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2162185683.328859</v>
+        <v>2159279673.328645</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2164949053.419241</v>
+        <v>2161897905.419025</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2167761376.194396</v>
+        <v>2164580232.194183</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2170622218.146171</v>
+        <v>2167325258.145957</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2173531118.475006</v>
+        <v>2170130885.474792</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2176488946.420834</v>
+        <v>2172996456.420619</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2179495010.288563</v>
+        <v>2175919923.288348</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2182549147.238841</v>
+        <v>2178899825.238628</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2185652465.223039</v>
+        <v>2181936479.222824</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2188804686.037541</v>
+        <v>2185029097.037327</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2192006366.959925</v>
+        <v>2188177615.95971</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2195257178.212604</v>
+        <v>2191381254.212391</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2198557661.447813</v>
+        <v>2194640043.447599</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2201908264.703855</v>
+        <v>2197953359.703642</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2205309873.547486</v>
+        <v>2201321691.547273</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2208761534.236913</v>
+        <v>2204743578.236701</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2212266309.623917</v>
+        <v>2208221349.623704</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2215822493.391282</v>
+        <v>2211753354.391068</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2219431954.482126</v>
+        <v>2215341290.481915</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2223095100.457137</v>
+        <v>2218985171.456925</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2226811837.047967</v>
+        <v>2222684564.047756</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2230583112.760038</v>
+        <v>2226440416.759828</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2234409432.195704</v>
+        <v>2230253008.195492</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2238291436.283274</v>
+        <v>2234122640.283062</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2242230476.409833</v>
+        <v>2238050664.409623</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2246226663.023265</v>
+        <v>2242037246.023054</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2250282148.734515</v>
+        <v>2246084143.734304</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2254395178.445416</v>
+        <v>2250189602.445204</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2258568258.51107</v>
+        <v>2254356201.510859</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2262800807.702851</v>
+        <v>2258582987.702641</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2267095619.979146</v>
+        <v>2262872827.978938</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2271451996.366434</v>
+        <v>2267225023.366224</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2275872090.253325</v>
+        <v>2271641614.253113</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2280355058.582702</v>
+        <v>2276121644.582493</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2284902834.313608</v>
+        <v>2280667047.313401</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2289515378.370313</v>
+        <v>2285277783.370105</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2294194878.032278</v>
+        <v>2289955927.03207</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2298942343.236923</v>
+        <v>2294702488.236715</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2303757269.23902</v>
+        <v>2299516962.23881</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2308641457.112209</v>
+        <v>2304401150.112002</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2313595022.465537</v>
+        <v>2309355054.465329</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2318620258.591636</v>
+        <v>2314381081.591428</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2323718284.381257</v>
+        <v>2319480237.381048</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2328888767.052814</v>
+        <v>2324652189.052608</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2334132365.322261</v>
+        <v>2329897482.322053</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2339451312.794785</v>
+        <v>2335218689.794578</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2344847389.448229</v>
+        <v>2340617252.448021</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2350319758.809124</v>
+        <v>2346092446.808916</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2355870114.200575</v>
+        <v>2351645740.200366</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2361501090.534969</v>
+        <v>2357280106.534761</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2367211646.860372</v>
+        <v>2362994391.860165</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2373003537.764625</v>
+        <v>2368790237.764416</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2378878459.909499</v>
+        <v>2374669453.909289</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2384838295.091628</v>
+        <v>2380633809.091419</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2390881810.258843</v>
+        <v>2386682183.258632</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2397011871.717723</v>
+        <v>2392817442.717513</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2403230416.821189</v>
+        <v>2399041524.820977</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2409535877.545685</v>
+        <v>2405352748.545474</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2415931889.722863</v>
+        <v>2411754975.72265</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2422420108.312344</v>
+        <v>2418249635.312133</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2428998806.815031</v>
+        <v>2424835226.814814</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2435673203.364607</v>
+        <v>2431516855.364392</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2442440823.350747</v>
+        <v>2438291933.350533</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2449306121.537382</v>
+        <v>2445165028.537163</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2456269200.614618</v>
+        <v>2452136243.614402</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2463330350.293279</v>
+        <v>2459205981.293055</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2470492383.494812</v>
+        <v>2466376941.494589</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2477755647.820322</v>
+        <v>2473649471.820096</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2485123270.74739</v>
+        <v>2481026812.747166</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2492594605.51603</v>
+        <v>2488508204.515804</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2500173182.097791</v>
+        <v>2496097064.097563</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2507858571.476742</v>
+        <v>2503793301.476513</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2515653345.86972</v>
+        <v>2511599375.869493</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2523557787.602367</v>
+        <v>2519515456.602136</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2531575518.693846</v>
+        <v>2527545165.693613</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2539705998.738586</v>
+        <v>2535688243.738349</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2547953233.724522</v>
+        <v>2543948415.724282</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2556315529.241264</v>
+        <v>2552324213.241024</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2564797728.346466</v>
+        <v>2560820366.346223</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2573399175.580472</v>
+        <v>2569436219.580232</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2582123520.523264</v>
+        <v>2578175422.52302</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2590969847.409885</v>
+        <v>2587037059.409639</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2599942422.255594</v>
+        <v>2596025283.255349</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2609041898.417963</v>
+        <v>2605140860.417713</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2618269396.100444</v>
+        <v>2614384911.100191</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2627629109.671799</v>
+        <v>2623761742.671542</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2637119039.035767</v>
+        <v>2633269355.035509</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2646743177.938412</v>
+        <v>2642911741.938148</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2656504187.678057</v>
+        <v>2652691338.677796</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2666402826.544691</v>
+        <v>2662609129.544422</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2676440965.084159</v>
+        <v>2672666872.083894</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2686621485.085286</v>
+        <v>2682867561.085015</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2696944252.473764</v>
+        <v>2693210949.473497</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2707413195.127103</v>
+        <v>2703700965.126825</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2718030727.985356</v>
+        <v>2714340135.985079</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2728795881.452473</v>
+        <v>2725127419.45219</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2739714497.234909</v>
+        <v>2736068690.23462</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2750786476.903384</v>
+        <v>2747163776.903096</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2762014384.807035</v>
+        <v>2758415356.806745</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2773399068.483077</v>
+        <v>2769824332.482784</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2784944805.24462</v>
+        <v>2781394926.244324</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2796653857.573997</v>
+        <v>2793129287.573696</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2808526149.141021</v>
+        <v>2805027453.140718</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2820565547.915387</v>
+        <v>2817093177.915083</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2832775955.114701</v>
+        <v>2829330363.114398</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2845156754.216976</v>
+        <v>2841738505.216672</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2857709874.944006</v>
+        <v>2854319420.943693</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2870440337.002929</v>
+        <v>2867078130.00261</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2883350536.723805</v>
+        <v>2880017028.723484</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2896441571.586604</v>
+        <v>2893137214.586282</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2909714925.929407</v>
+        <v>2906440284.929082</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2923174787.606479</v>
+        <v>2919930314.606152</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2936823170.310183</v>
+        <v>2933609317.309857</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2950664532.874609</v>
+        <v>2947481751.874288</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2964696563.459412</v>
+        <v>2961545193.459076</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2978928272.784482</v>
+        <v>2975808765.784144</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2993357936.353929</v>
+        <v>2990270576.353598</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3007990911.627391</v>
+        <v>3004936037.627059</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3022826275.507375</v>
+        <v>3019804339.50703</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3037871380.764189</v>
+        <v>3034882721.763843</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3053125851.036109</v>
+        <v>3050170808.035766</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3068594557.096919</v>
+        <v>3065673582.096571</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3084277252.207226</v>
+        <v>3081390739.206878</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3100181735.65723</v>
+        <v>3097330023.656876</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3116306885.269359</v>
+        <v>3113490313.269004</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3132657988.341556</v>
+        <v>3129876895.341197</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3149235832.521179</v>
+        <v>3146490444.52082</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3166048089.673133</v>
+        <v>3163338632.672777</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3183091702.318353</v>
+        <v>3180418515.317988</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3200374987.479166</v>
+        <v>3197738296.478796</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3217898786.577816</v>
+        <v>3215298817.577447</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3235668034.385302</v>
+        <v>3233104900.384947</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3253681075.896908</v>
+        <v>3251155002.896543</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3271949518.719211</v>
+        <v>3269460619.718836</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3290470167.590996</v>
+        <v>3288018668.590628</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3309249134.888885</v>
+        <v>3306835148.888515</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3328288926.108235</v>
+        <v>3325912566.107856</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3347596503.163918</v>
+        <v>3345258101.163544</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3367168932.201485</v>
+        <v>3364868163.201101</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3387016946.00019</v>
+        <v>3384754141.999806</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3407138923.948538</v>
+        <v>3404913971.948161</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3427541447.122975</v>
+        <v>3425354347.122598</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3448227147.551781</v>
+        <v>3446078012.551403</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3469201010.462876</v>
+        <v>3467089946.462492</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3490465534.980564</v>
+        <v>3488392103.980175</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3512027364.26037</v>
+        <v>3509991566.259983</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3533885553.417586</v>
+        <v>3531887713.417211</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3556047558.578665</v>
+        <v>3554087563.57828</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3578515945.562255</v>
+        <v>3576593357.561868</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3601298683.166562</v>
+        <v>3599413495.16618</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3624396605.787588</v>
+        <v>3622548704.7872</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3647815335.695323</v>
+        <v>3646004608.694933</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3671558222.558047</v>
+        <v>3669784443.55767</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3695631339.068661</v>
+        <v>3693894282.068278</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3720038877.53479</v>
+        <v>3718338316.534407</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3744783654.711652</v>
+        <v>3743119363.711272</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3769871244.329861</v>
+        <v>3768242997.329469</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3795308410.763052</v>
+        <v>3793716094.762674</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3821094582.50223</v>
+        <v>3819537858.501842</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3847241619.252741</v>
+        <v>3845720261.252351</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3873748455.057324</v>
+        <v>3872262011.05695</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3900625049.190725</v>
+        <v>3899173187.190342</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3927869927.069948</v>
+        <v>3926452633.068303</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3955496917.08545</v>
+        <v>3954113633.08507</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3983501514.401069</v>
+        <v>3982152014.400672</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4011898459.583288</v>
+        <v>4010582178.582893</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4040683821.49576</v>
+        <v>4039400533.495361</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4069873235.355793</v>
+        <v>4068622488.355408</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4099460728.004927</v>
+        <v>4098242183.004536</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4129462904.423006</v>
+        <v>4128276109.422611</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4159875813.646173</v>
+        <v>4158720148.645797</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4190714383.979265</v>
+        <v>4189589396.978885</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4221974758.661005</v>
+        <v>4220879997.660602</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4253673583.335671</v>
+        <v>4252608596.335268</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4285805150.618806</v>
+        <v>4284769598.6184</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4318386849.465104</v>
+        <v>4317380280.464694</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4351416047.597613</v>
+        <v>4350438009.597204</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4384905442.067511</v>
+        <v>4383955370.067122</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4418855029.294792</v>
+        <v>4417932471.294386</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4453279055.90184</v>
+        <v>4452383446.901434</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4488175864.007385</v>
+        <v>4487306752.006979</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4523559868.941672</v>
+        <v>4522716969.941264</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4559430419.214097</v>
+        <v>4558613113.213716</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4595801064.086094</v>
+        <v>4595009286.08569</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4632672846.780021</v>
+        <v>4631905593.779608</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4670059384.81266</v>
+        <v>4669316142.812242</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4707962747.204408</v>
+        <v>4707243232.20399</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4746391353.872828</v>
+        <v>4745695000.872401</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4785354105.932563</v>
+        <v>4784680294.932136</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4824858686.432088</v>
+        <v>4824207020.431668</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4864909653.89009</v>
+        <v>4864279680.889648</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4905519325.515305</v>
+        <v>4904910425.514892</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4946693474.485628</v>
+        <v>4946105363.485181</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4988439031.267405</v>
+        <v>4987871031.266984</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5030766356.187349</v>
+        <v>5030217847.186921</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5073682679.236794</v>
+        <v>5073153490.23636</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5117196428.207702</v>
+        <v>5116685994.207247</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5161317714.426821</v>
+        <v>5160825302.426376</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5206054086.413706</v>
+        <v>5205579525.413261</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5251415360.676571</v>
+        <v>5250957804.676111</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5297408383.115937</v>
+        <v>5296967493.115502</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5344045460.331939</v>
+        <v>5343620616.331489</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>5391334924.201008</v>
+        <v>5390925842.200624</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>5439285830.614079</v>
+        <v>5438892058.613634</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5487909267.735115</v>
+        <v>5487530353.734644</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>5537214330.539299</v>
+        <v>5536849654.538823</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>5587210596.328229</v>
+        <v>5586859987.327757</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>5637910808.623627</v>
+        <v>5637573701.623141</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>5689323661.74789</v>
+        <v>5688999604.747389</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5741459814.531031</v>
+        <v>5741148300.530534</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>5794331107.236032</v>
+        <v>5794031852.235516</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5847949803.055492</v>
+        <v>5847662355.055002</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5902323540.65594</v>
+        <v>5902047560.655438</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>5957467169.803892</v>
+        <v>5957202150.803407</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6013391958.137671</v>
+        <v>6013137729.137163</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6070108603.114258</v>
+        <v>6069864712.113747</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6127631886.626785</v>
+        <v>6127397994.626259</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>6185972599.494116</v>
+        <v>6185748254.493587</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6245145252.184892</v>
+        <v>6244930060.184353</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6305156869.69581</v>
+        <v>6304950659.695273</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>6366030936.551651</v>
+        <v>6365833369.551116</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>6427773623.373694</v>
+        <v>6427584360.373165</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>6490400221.532533</v>
+        <v>6490219036.532022</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6553925206.188979</v>
+        <v>6553751760.188413</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>6618366424.280345</v>
+        <v>6618200210.279812</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>6683731491.112101</v>
+        <v>6683572451.111535</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>6750040989.088862</v>
+        <v>6749888784.088309</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6817310273.950579</v>
+        <v>6817164677.950049</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>6885550489.120297</v>
+        <v>6885411163.11972</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>6954783730.382157</v>
+        <v>6954650393.381596</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7025022670.294799</v>
+        <v>7024895264.294232</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>7096283471.424824</v>
+        <v>7096161657.424273</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>7168583248.269297</v>
+        <v>7168466632.268761</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>7241945677.193437</v>
+        <v>7241834033.192856</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>7316378414.063814</v>
+        <v>7316271243.063237</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>7391908280.266739</v>
+        <v>7391805742.266156</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>7468548070.945902</v>
+        <v>7468450604.77105</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>7546321912.995893</v>
+        <v>7546228207.523749</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>7625244048.176849</v>
+        <v>7625154279.410969</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>7705338074.983586</v>
+        <v>7705251977.908291</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>7786622791.734158</v>
+        <v>7786540292.959719</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>7869116501.177157</v>
+        <v>7869037522.79636</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>7952847327.135534</v>
+        <v>7952771881.671408</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>8037828972.471581</v>
+        <v>8037756707.776152</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>8124088894.261948</v>
+        <v>8124019259.524229</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>8211647231.644727</v>
+        <v>8211581036.80776</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>8300530164.80072</v>
+        <v>8300466283.140719</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>8390754581.602459</v>
+        <v>8390693001.87343</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>8482353313.741354</v>
+        <v>8482294066.479533</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>8575344659.972179</v>
+        <v>8575288988.435668</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>8669757154.520958</v>
+        <v>8669702659.191576</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>8765614276.218019</v>
+        <v>8765561756.562939</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>8862943046.830854</v>
+        <v>8862893132.1094</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>8961772990.23304</v>
+        <v>8961724160.301502</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>9062126375.599874</v>
+        <v>9062080603.037828</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>9164038823.080465</v>
+        <v>9163993991.72834</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>9267531120.877844</v>
+        <v>9267487281.861353</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>9372638787.651907</v>
+        <v>9372595948.422798</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>9479389049.300964</v>
+        <v>9479350361.893858</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>9587815831.461727</v>
+        <v>9587775865.790495</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>9697944950.918606</v>
+        <v>9697907643.332705</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>9809815337.442406</v>
+        <v>9809779200.296534</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>9923453513.536459</v>
+        <v>9923417928.831087</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>10038896997.16077</v>
+        <v>10038862386.21799</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>10156178584.21699</v>
+        <v>10156145482.45669</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>10275332639.60483</v>
+        <v>10275300568.55211</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>10396395662.53922</v>
+        <v>10396364878.73385</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>10519407067.96411</v>
+        <v>10519376687.95748</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>10644400506.32281</v>
+        <v>10644371231.46903</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>10771413047.86182</v>
+        <v>10771385304.25392</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>10900489963.49829</v>
+        <v>10900461500.29547</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>11031661618.4544</v>
+        <v>11031635340.33485</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>11164977863.05707</v>
+        <v>11164950291.3082</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>11300473101.88236</v>
+        <v>11300447464.379</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>11438190870.21614</v>
+        <v>11438167176.76155</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>11578178837.18993</v>
+        <v>11578153907.80356</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>11720475176.95803</v>
+        <v>11720450282.82598</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>11865126957.78165</v>
+        <v>11865104249.70735</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>12012177804.84157</v>
+        <v>12012154395.69483</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>12161678370.47335</v>
+        <v>12161656042.49296</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>12313671110.87943</v>
+        <v>12313648766.30159</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>12468211111.37481</v>
+        <v>12468188086.41227</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>12625337545.07878</v>
+        <v>12625316781.34746</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>12785109019.04526</v>
+        <v>12785087601.16103</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>12947570830.96967</v>
+        <v>12947550264.60285</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>13112777614.38457</v>
+        <v>13112758206.17079</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>13280781750.23205</v>
+        <v>13280762999.19874</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>13451634608.54334</v>
+        <v>13451616077.75793</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>13625391658.38</v>
+        <v>13625375386.30542</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>13802110472.49095</v>
+        <v>13802094195.48817</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>13981841330.50997</v>
+        <v>13981825799.84312</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>14164648314.86558</v>
+        <v>14164634490.3228</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>14316881475.04866</v>
+        <v>14316866834.73485</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>14471775907.75639</v>
+        <v>14471762996.91301</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>14629368468.39763</v>
+        <v>14629354974.05636</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>14789712389.57133</v>
+        <v>14789703003.4039</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>14952865717.82283</v>
+        <v>14952855763.95685</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>15118874184.80598</v>
+        <v>15118864279.25887</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>15287795604.42427</v>
+        <v>15287785959.52738</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>15459676311.31667</v>
+        <v>15459667882.56092</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>15634576078.08492</v>
+        <v>15634566140.49358</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>15812546191.70481</v>
+        <v>15812537420.17578</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>15993642094.31095</v>
+        <v>15993633388.61675</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>16177919935.30975</v>
+        <v>16177911085.05168</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>16365431750.35598</v>
+        <v>16365424492.21366</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>16556234072.35587</v>
+        <v>16556227358.50419</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>16750389907.06653</v>
+        <v>16750383826.8418</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>16947945839.87333</v>
+        <v>16947939883.20425</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>17148966809.91879</v>
+        <v>17148960745.80925</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>17353505328.92319</v>
+        <v>17353500369.39544</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>17561616675.90746</v>
+        <v>17561612004.64895</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>17773361765.04979</v>
+        <v>17773358325.29666</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>17988798095.4842</v>
+        <v>17988794209.84412</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>18207981938.0906</v>
+        <v>18207978464.69877</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>18430971389.03164</v>
+        <v>18430967285.0562</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>18657819530.70169</v>
+        <v>18657815370.38221</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>18888586070.17204</v>
+        <v>18888583966.1245</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>19123327941.57666</v>
+        <v>19123325670.5308</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>19362101235.72989</v>
+        <v>19362098634.33613</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>19604961485.81509</v>
+        <v>19604959091.83744</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>19851963849.2645</v>
+        <v>19851960501.45461</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>20103163145.13646</v>
+        <v>20103159452.002</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>20358610830.12272</v>
+        <v>20358607836.72423</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>20618362527.64352</v>
+        <v>20618360239.49514</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>20882471216.52256</v>
+        <v>20882468581.81121</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>21150986160.18856</v>
+        <v>21150984402.83554</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>21423962112.57555</v>
+        <v>21423958963.61213</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>21701442030.99284</v>
+        <v>21701438408.41095</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>21983476207.3183</v>
+        <v>21983473679.30135</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>22270113168.88375</v>
+        <v>22270110743.50013</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>22561398190.33992</v>
+        <v>22561398025.67408</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>22857371281.51204</v>
+        <v>22857370152.31507</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>23158077991.11967</v>
+        <v>23158076149.51661</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>23463560270.48208</v>
+        <v>23463557253.17918</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>23773849945.9359</v>
+        <v>23773847682.0096</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>24088988648.44101</v>
+        <v>24088988138.24259</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>24409009569.25481</v>
+        <v>24409009344.14021</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>24733946103.60363</v>
+        <v>24733944795.8876</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>25063824532.56006</v>
+        <v>25063823138.26749</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>25398678617.21999</v>
+        <v>25398678300.99375</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>25738525806.30551</v>
+        <v>25738524507.93797</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>26083394708.46848</v>
+        <v>26083393143.6345</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>26433299612.49883</v>
+        <v>26433299378.39998</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>26788264396.53708</v>
+        <v>26788264086.24459</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>27148296949.1629</v>
+        <v>27148295813.27644</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>27513409200.2681</v>
+        <v>27513408476.40976</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>27883609908.99401</v>
+        <v>27883610198.84897</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>28252238317.91431</v>
+        <v>28252237880.88615</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>28625876419.22467</v>
+        <v>28625873554.81377</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>29004512482.39988</v>
+        <v>29004513053.27608</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>29388149640.29009</v>
+        <v>29388149257.67736</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>29776775269.85125</v>
+        <v>29776773949.10216</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>30170376671.34589</v>
+        <v>30170377258.49461</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>30568938961.78939</v>
+        <v>30568936652.28563</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>30972437517.80384</v>
+        <v>30972437024.02977</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>31380854212.13363</v>
+        <v>31380852281.1351</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>31794156851.43628</v>
+        <v>31794154907.82723</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>32212316418.51119</v>
+        <v>32212315426.98137</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>32635295216.28275</v>
+        <v>32635294574.91891</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>33063056041.32996</v>
+        <v>33063053589.22939</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>33495552147.43732</v>
+        <v>33495551457.53838</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>33932740924.61126</v>
+        <v>33932738900.83964</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>34311277148.13744</v>
+        <v>34311276362.04671</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>34693711590.25494</v>
+        <v>34693710297.17608</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>35079986244.27641</v>
+        <v>35079985749.04618</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>35470043024.81895</v>
+        <v>35470041298.78693</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>35863820838.84499</v>
+        <v>35863821109.82446</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>36261254615.547</v>
+        <v>36261253649.77431</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>36661835723.80467</v>
+        <v>36661834042.64733</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>37060657848.89845</v>
+        <v>37060656306.0829</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>37445280951.21193</v>
+        <v>37445280497.73796</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>37801221873.4231</v>
+        <v>37801219870.78228</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>38281363754.47659</v>
+        <v>38281362562.80878</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>38722100275.91584</v>
+        <v>38722098688.49714</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>39127596694.74482</v>
+        <v>39127597173.39725</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>39505965328.81526</v>
+        <v>39505963096.21147</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>39866837769.05757</v>
+        <v>39866839138.133</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>40219671035.53096</v>
+        <v>40219671903.13824</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>40572751371.96333</v>
+        <v>40572752763.92094</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>40932782164.27678</v>
+        <v>40932781816.12041</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>41304817509.2004</v>
+        <v>41304816512.0144</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>41692402972.67508</v>
+        <v>41692400761.06241</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>41827717793.46927</v>
+        <v>41827716289.05635</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>41981831829.18644</v>
+        <v>41981830781.99329</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>42154946001.88834</v>
+        <v>42154948017.34492</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>42346676823.85351</v>
+        <v>42346676271.83942</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>42556236505.64973</v>
+        <v>42556235582.45915</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>42782591814.82751</v>
+        <v>42782590141.06301</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>43023878989.45029</v>
+        <v>43024550174.08565</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>43271406127.99673</v>
+        <v>43280857881.80442</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>43505179202.80708</v>
+        <v>43550247086.53371</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>43702593894.75922</v>
+        <v>43831476273.00362</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>43573439937.43252</v>
+        <v>43846683116.73582</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>43391385393.12041</v>
+        <v>43870437130.15469</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>43163691141.22501</v>
+        <v>43901578484.40118</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>42902837706.31038</v>
+        <v>43939050272.07186</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>42622843679.56945</v>
+        <v>43981896124.05964</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>42336815119.15109</v>
+        <v>44029243243.07729</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>42055694418.0652</v>
+        <v>44079663747.90271</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>41787826331.04879</v>
+        <v>44125312319.82477</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>41539037600.21218</v>
+        <v>44147697437.26474</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>41312981572.38954</v>
+        <v>44126070280.26192</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>41192001545.66821</v>
+        <v>44129053070.62408</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>41094863940.2198</v>
+        <v>44072393479.21683</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>41021423182.44851</v>
+        <v>43963065982.08857</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>40970831767.5585</v>
+        <v>43813330971.46391</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>40941804001.65209</v>
+        <v>43637204135.78456</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>40932761210.13141</v>
+        <v>43448041581.95818</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>40941986806.58204</v>
+        <v>43257244758.38572</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>40967713142.75105</v>
+        <v>43073756125.54942</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>41008196770.88986</v>
+        <v>42904078290.56796</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>41061737922.58539</v>
+        <v>42752542716.25021</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>41126743450.43185</v>
+        <v>42621689915.83861</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>41201714969.68866</v>
+        <v>42512657007.00323</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>41285276546.62483</v>
+        <v>42425543100.20642</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>41376156733.71217</v>
+        <v>42359701133.39742</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>41473195995.9628</v>
+        <v>42313984770.00617</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>41575348210.32025</v>
+        <v>42286930730.26936</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>41681654913.39443</v>
+        <v>42276901988.26087</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>41791261691.71084</v>
+        <v>42282196843.98386</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>41903386273.73654</v>
+        <v>42301103500.07677</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>42017327421.40833</v>
+        <v>42331969970.68806</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>42132450285.51206</v>
+        <v>42373219777.14403</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>42248185559.58524</v>
+        <v>42423375183.25485</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>42364012946.9599</v>
+        <v>42481065013.366</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>42479467077.39471</v>
+        <v>42545033389.74316</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>42594118356.80164</v>
+        <v>42614126502.17635</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>42707587461.22874</v>
+        <v>42687303753.38419</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>42819518227.13646</v>
+        <v>42763622519.76332</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>42929600314.20998</v>
+        <v>42842224698.40099</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>43037538474.16202</v>
+        <v>42922341411.85565</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>43143065283.47013</v>
+        <v>43003281995.05853</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>43245936556.99411</v>
+        <v>43084422972.35352</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>43345927600.5233</v>
+        <v>43165202472.29601</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>43442838019.04906</v>
+        <v>43245125569.5682</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>43536474716.84843</v>
+        <v>43323740033.54255</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>43626670274.4393</v>
+        <v>43400640396.80995</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>43713262038.63258</v>
+        <v>43475465199.9566</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>43796107866.17589</v>
+        <v>43547894989.08121</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>43875076874.67283</v>
+        <v>43617637236.77787</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>43950044284.94963</v>
+        <v>43684431752.98822</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>380113769.9425824</v>
+        <v>380041927.7621734</v>
       </c>
     </row>
   </sheetData>
